--- a/assets/xls/NAT/128.xlsx
+++ b/assets/xls/NAT/128.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\form45\assets\xls\NAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BB2875-4F23-4107-A0C8-542A4A4E161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD418D52-534B-46CC-817E-2B1857AFCB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="875">
   <si>
     <t>Polling station name</t>
   </si>
@@ -1354,13 +1354,1315 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>See Proof</t>
+  </si>
+  <si>
+    <t>NA128/PS #01</t>
+  </si>
+  <si>
+    <t>NA128/PS #02</t>
+  </si>
+  <si>
+    <t>NA128/PS #03</t>
+  </si>
+  <si>
+    <t>NA128/PS #04</t>
+  </si>
+  <si>
+    <t>NA128/PS #05</t>
+  </si>
+  <si>
+    <t>NA128/PS #06</t>
+  </si>
+  <si>
+    <t>NA128/PS #07</t>
+  </si>
+  <si>
+    <t>NA128/PS #08</t>
+  </si>
+  <si>
+    <t>NA128/PS #09</t>
+  </si>
+  <si>
+    <t>NA128/PS #10</t>
+  </si>
+  <si>
+    <t>NA128/PS #11</t>
+  </si>
+  <si>
+    <t>NA128/PS #12</t>
+  </si>
+  <si>
+    <t>NA128/PS #13</t>
+  </si>
+  <si>
+    <t>NA128/PS #14</t>
+  </si>
+  <si>
+    <t>NA128/PS #15</t>
+  </si>
+  <si>
+    <t>NA128/PS #16</t>
+  </si>
+  <si>
+    <t>NA128/PS #17</t>
+  </si>
+  <si>
+    <t>NA128/PS #18</t>
+  </si>
+  <si>
+    <t>NA128/PS #19</t>
+  </si>
+  <si>
+    <t>NA128/PS #20</t>
+  </si>
+  <si>
+    <t>NA128/PS #21</t>
+  </si>
+  <si>
+    <t>NA128/PS #22</t>
+  </si>
+  <si>
+    <t>NA128/PS #23</t>
+  </si>
+  <si>
+    <t>NA128/PS #24</t>
+  </si>
+  <si>
+    <t>NA128/PS #25</t>
+  </si>
+  <si>
+    <t>NA128/PS #26</t>
+  </si>
+  <si>
+    <t>NA128/PS #27</t>
+  </si>
+  <si>
+    <t>NA128/PS #28</t>
+  </si>
+  <si>
+    <t>NA128/PS #29</t>
+  </si>
+  <si>
+    <t>NA128/PS #30</t>
+  </si>
+  <si>
+    <t>NA128/PS #31</t>
+  </si>
+  <si>
+    <t>NA128/PS #32</t>
+  </si>
+  <si>
+    <t>NA128/PS #33</t>
+  </si>
+  <si>
+    <t>NA128/PS #34</t>
+  </si>
+  <si>
+    <t>NA128/PS #35</t>
+  </si>
+  <si>
+    <t>NA128/PS #36</t>
+  </si>
+  <si>
+    <t>NA128/PS #37</t>
+  </si>
+  <si>
+    <t>NA128/PS #38</t>
+  </si>
+  <si>
+    <t>NA128/PS #39</t>
+  </si>
+  <si>
+    <t>NA128/PS #40</t>
+  </si>
+  <si>
+    <t>NA128/PS #41</t>
+  </si>
+  <si>
+    <t>NA128/PS #42</t>
+  </si>
+  <si>
+    <t>NA128/PS #43</t>
+  </si>
+  <si>
+    <t>NA128/PS #44</t>
+  </si>
+  <si>
+    <t>NA128/PS #45</t>
+  </si>
+  <si>
+    <t>NA128/PS #46</t>
+  </si>
+  <si>
+    <t>NA128/PS #47</t>
+  </si>
+  <si>
+    <t>NA128/PS #48</t>
+  </si>
+  <si>
+    <t>NA128/PS #49</t>
+  </si>
+  <si>
+    <t>NA128/PS #50</t>
+  </si>
+  <si>
+    <t>NA128/PS #51</t>
+  </si>
+  <si>
+    <t>NA128/PS #52</t>
+  </si>
+  <si>
+    <t>NA128/PS #53</t>
+  </si>
+  <si>
+    <t>NA128/PS #54</t>
+  </si>
+  <si>
+    <t>NA128/PS #55</t>
+  </si>
+  <si>
+    <t>NA128/PS #56</t>
+  </si>
+  <si>
+    <t>NA128/PS #57</t>
+  </si>
+  <si>
+    <t>NA128/PS #58</t>
+  </si>
+  <si>
+    <t>NA128/PS #59</t>
+  </si>
+  <si>
+    <t>NA128/PS #60</t>
+  </si>
+  <si>
+    <t>NA128/PS #61</t>
+  </si>
+  <si>
+    <t>NA128/PS #62</t>
+  </si>
+  <si>
+    <t>NA128/PS #63</t>
+  </si>
+  <si>
+    <t>NA128/PS #64</t>
+  </si>
+  <si>
+    <t>NA128/PS #65</t>
+  </si>
+  <si>
+    <t>NA128/PS #66</t>
+  </si>
+  <si>
+    <t>NA128/PS #67</t>
+  </si>
+  <si>
+    <t>NA128/PS #68</t>
+  </si>
+  <si>
+    <t>NA128/PS #69</t>
+  </si>
+  <si>
+    <t>NA128/PS #70</t>
+  </si>
+  <si>
+    <t>NA128/PS #71</t>
+  </si>
+  <si>
+    <t>NA128/PS #72</t>
+  </si>
+  <si>
+    <t>NA128/PS #73</t>
+  </si>
+  <si>
+    <t>NA128/PS #74</t>
+  </si>
+  <si>
+    <t>NA128/PS #75</t>
+  </si>
+  <si>
+    <t>NA128/PS #76</t>
+  </si>
+  <si>
+    <t>NA128/PS #77</t>
+  </si>
+  <si>
+    <t>NA128/PS #78</t>
+  </si>
+  <si>
+    <t>NA128/PS #79</t>
+  </si>
+  <si>
+    <t>NA128/PS #80</t>
+  </si>
+  <si>
+    <t>NA128/PS #81</t>
+  </si>
+  <si>
+    <t>NA128/PS #82</t>
+  </si>
+  <si>
+    <t>NA128/PS #83</t>
+  </si>
+  <si>
+    <t>NA128/PS #84</t>
+  </si>
+  <si>
+    <t>NA128/PS #85</t>
+  </si>
+  <si>
+    <t>NA128/PS #86</t>
+  </si>
+  <si>
+    <t>NA128/PS #87</t>
+  </si>
+  <si>
+    <t>NA128/PS #88</t>
+  </si>
+  <si>
+    <t>NA128/PS #89</t>
+  </si>
+  <si>
+    <t>NA128/PS #90</t>
+  </si>
+  <si>
+    <t>NA128/PS #91</t>
+  </si>
+  <si>
+    <t>NA128/PS #92</t>
+  </si>
+  <si>
+    <t>NA128/PS #93</t>
+  </si>
+  <si>
+    <t>NA128/PS #94</t>
+  </si>
+  <si>
+    <t>NA128/PS #95</t>
+  </si>
+  <si>
+    <t>NA128/PS #96</t>
+  </si>
+  <si>
+    <t>NA128/PS #97</t>
+  </si>
+  <si>
+    <t>NA128/PS #98</t>
+  </si>
+  <si>
+    <t>NA128/PS #99</t>
+  </si>
+  <si>
+    <t>NA128/PS #100</t>
+  </si>
+  <si>
+    <t>NA128/PS #101</t>
+  </si>
+  <si>
+    <t>NA128/PS #102</t>
+  </si>
+  <si>
+    <t>NA128/PS #103</t>
+  </si>
+  <si>
+    <t>NA128/PS #104</t>
+  </si>
+  <si>
+    <t>NA128/PS #105</t>
+  </si>
+  <si>
+    <t>NA128/PS #106</t>
+  </si>
+  <si>
+    <t>NA128/PS #107</t>
+  </si>
+  <si>
+    <t>NA128/PS #108</t>
+  </si>
+  <si>
+    <t>NA128/PS #109</t>
+  </si>
+  <si>
+    <t>NA128/PS #110</t>
+  </si>
+  <si>
+    <t>NA128/PS #111</t>
+  </si>
+  <si>
+    <t>NA128/PS #112</t>
+  </si>
+  <si>
+    <t>NA128/PS #113</t>
+  </si>
+  <si>
+    <t>NA128/PS #114</t>
+  </si>
+  <si>
+    <t>NA128/PS #115</t>
+  </si>
+  <si>
+    <t>NA128/PS #116</t>
+  </si>
+  <si>
+    <t>NA128/PS #117</t>
+  </si>
+  <si>
+    <t>NA128/PS #118</t>
+  </si>
+  <si>
+    <t>NA128/PS #119</t>
+  </si>
+  <si>
+    <t>NA128/PS #120</t>
+  </si>
+  <si>
+    <t>NA128/PS #121</t>
+  </si>
+  <si>
+    <t>NA128/PS #122</t>
+  </si>
+  <si>
+    <t>NA128/PS #123</t>
+  </si>
+  <si>
+    <t>NA128/PS #124</t>
+  </si>
+  <si>
+    <t>NA128/PS #125</t>
+  </si>
+  <si>
+    <t>NA128/PS #126</t>
+  </si>
+  <si>
+    <t>NA128/PS #127</t>
+  </si>
+  <si>
+    <t>NA128/PS #128</t>
+  </si>
+  <si>
+    <t>NA128/PS #129</t>
+  </si>
+  <si>
+    <t>NA128/PS #130</t>
+  </si>
+  <si>
+    <t>NA128/PS #131</t>
+  </si>
+  <si>
+    <t>NA128/PS #132</t>
+  </si>
+  <si>
+    <t>NA128/PS #133</t>
+  </si>
+  <si>
+    <t>NA128/PS #134</t>
+  </si>
+  <si>
+    <t>NA128/PS #135</t>
+  </si>
+  <si>
+    <t>NA128/PS #136</t>
+  </si>
+  <si>
+    <t>NA128/PS #137</t>
+  </si>
+  <si>
+    <t>NA128/PS #138</t>
+  </si>
+  <si>
+    <t>NA128/PS #139</t>
+  </si>
+  <si>
+    <t>NA128/PS #140</t>
+  </si>
+  <si>
+    <t>NA128/PS #141</t>
+  </si>
+  <si>
+    <t>NA128/PS #142</t>
+  </si>
+  <si>
+    <t>NA128/PS #143</t>
+  </si>
+  <si>
+    <t>NA128/PS #144</t>
+  </si>
+  <si>
+    <t>NA128/PS #145</t>
+  </si>
+  <si>
+    <t>NA128/PS #146</t>
+  </si>
+  <si>
+    <t>NA128/PS #147</t>
+  </si>
+  <si>
+    <t>NA128/PS #148</t>
+  </si>
+  <si>
+    <t>NA128/PS #149</t>
+  </si>
+  <si>
+    <t>NA128/PS #150</t>
+  </si>
+  <si>
+    <t>NA128/PS #151</t>
+  </si>
+  <si>
+    <t>NA128/PS #152</t>
+  </si>
+  <si>
+    <t>NA128/PS #153</t>
+  </si>
+  <si>
+    <t>NA128/PS #154</t>
+  </si>
+  <si>
+    <t>NA128/PS #155</t>
+  </si>
+  <si>
+    <t>NA128/PS #156</t>
+  </si>
+  <si>
+    <t>NA128/PS #157</t>
+  </si>
+  <si>
+    <t>NA128/PS #158</t>
+  </si>
+  <si>
+    <t>NA128/PS #159</t>
+  </si>
+  <si>
+    <t>NA128/PS #160</t>
+  </si>
+  <si>
+    <t>NA128/PS #161</t>
+  </si>
+  <si>
+    <t>NA128/PS #162</t>
+  </si>
+  <si>
+    <t>NA128/PS #163</t>
+  </si>
+  <si>
+    <t>NA128/PS #164</t>
+  </si>
+  <si>
+    <t>NA128/PS #165</t>
+  </si>
+  <si>
+    <t>NA128/PS #166</t>
+  </si>
+  <si>
+    <t>NA128/PS #167</t>
+  </si>
+  <si>
+    <t>NA128/PS #168</t>
+  </si>
+  <si>
+    <t>NA128/PS #169</t>
+  </si>
+  <si>
+    <t>NA128/PS #170</t>
+  </si>
+  <si>
+    <t>NA128/PS #171</t>
+  </si>
+  <si>
+    <t>NA128/PS #172</t>
+  </si>
+  <si>
+    <t>NA128/PS #173</t>
+  </si>
+  <si>
+    <t>NA128/PS #174</t>
+  </si>
+  <si>
+    <t>NA128/PS #175</t>
+  </si>
+  <si>
+    <t>NA128/PS #176</t>
+  </si>
+  <si>
+    <t>NA128/PS #177</t>
+  </si>
+  <si>
+    <t>NA128/PS #178</t>
+  </si>
+  <si>
+    <t>NA128/PS #179</t>
+  </si>
+  <si>
+    <t>NA128/PS #180</t>
+  </si>
+  <si>
+    <t>NA128/PS #181</t>
+  </si>
+  <si>
+    <t>NA128/PS #182</t>
+  </si>
+  <si>
+    <t>NA128/PS #183</t>
+  </si>
+  <si>
+    <t>NA128/PS #184</t>
+  </si>
+  <si>
+    <t>NA128/PS #185</t>
+  </si>
+  <si>
+    <t>NA128/PS #186</t>
+  </si>
+  <si>
+    <t>NA128/PS #187</t>
+  </si>
+  <si>
+    <t>NA128/PS #188</t>
+  </si>
+  <si>
+    <t>NA128/PS #189</t>
+  </si>
+  <si>
+    <t>NA128/PS #190</t>
+  </si>
+  <si>
+    <t>NA128/PS #191</t>
+  </si>
+  <si>
+    <t>NA128/PS #192</t>
+  </si>
+  <si>
+    <t>NA128/PS #193</t>
+  </si>
+  <si>
+    <t>NA128/PS #194</t>
+  </si>
+  <si>
+    <t>NA128/PS #195</t>
+  </si>
+  <si>
+    <t>NA128/PS #196</t>
+  </si>
+  <si>
+    <t>NA128/PS #197</t>
+  </si>
+  <si>
+    <t>NA128/PS #198</t>
+  </si>
+  <si>
+    <t>NA128/PS #199</t>
+  </si>
+  <si>
+    <t>NA128/PS #200</t>
+  </si>
+  <si>
+    <t>NA128/PS #201</t>
+  </si>
+  <si>
+    <t>NA128/PS #202</t>
+  </si>
+  <si>
+    <t>NA128/PS #203</t>
+  </si>
+  <si>
+    <t>NA128/PS #204</t>
+  </si>
+  <si>
+    <t>NA128/PS #205</t>
+  </si>
+  <si>
+    <t>NA128/PS #206</t>
+  </si>
+  <si>
+    <t>NA128/PS #207</t>
+  </si>
+  <si>
+    <t>NA128/PS #208</t>
+  </si>
+  <si>
+    <t>NA128/PS #209</t>
+  </si>
+  <si>
+    <t>NA128/PS #210</t>
+  </si>
+  <si>
+    <t>NA128/PS #211</t>
+  </si>
+  <si>
+    <t>NA128/PS #212</t>
+  </si>
+  <si>
+    <t>NA128/PS #213</t>
+  </si>
+  <si>
+    <t>NA128/PS #214</t>
+  </si>
+  <si>
+    <t>NA128/PS #215</t>
+  </si>
+  <si>
+    <t>NA128/PS #216</t>
+  </si>
+  <si>
+    <t>NA128/PS #217</t>
+  </si>
+  <si>
+    <t>NA128/PS #218</t>
+  </si>
+  <si>
+    <t>NA128/PS #219</t>
+  </si>
+  <si>
+    <t>NA128/PS #220</t>
+  </si>
+  <si>
+    <t>NA128/PS #221</t>
+  </si>
+  <si>
+    <t>NA128/PS #222</t>
+  </si>
+  <si>
+    <t>NA128/PS #223</t>
+  </si>
+  <si>
+    <t>NA128/PS #224</t>
+  </si>
+  <si>
+    <t>NA128/PS #225</t>
+  </si>
+  <si>
+    <t>NA128/PS #226</t>
+  </si>
+  <si>
+    <t>NA128/PS #227</t>
+  </si>
+  <si>
+    <t>NA128/PS #228</t>
+  </si>
+  <si>
+    <t>NA128/PS #229</t>
+  </si>
+  <si>
+    <t>NA128/PS #230</t>
+  </si>
+  <si>
+    <t>NA128/PS #231</t>
+  </si>
+  <si>
+    <t>NA128/PS #232</t>
+  </si>
+  <si>
+    <t>NA128/PS #233</t>
+  </si>
+  <si>
+    <t>NA128/PS #234</t>
+  </si>
+  <si>
+    <t>NA128/PS #235</t>
+  </si>
+  <si>
+    <t>NA128/PS #236</t>
+  </si>
+  <si>
+    <t>NA128/PS #237</t>
+  </si>
+  <si>
+    <t>NA128/PS #238</t>
+  </si>
+  <si>
+    <t>NA128/PS #239</t>
+  </si>
+  <si>
+    <t>NA128/PS #240</t>
+  </si>
+  <si>
+    <t>NA128/PS #241</t>
+  </si>
+  <si>
+    <t>NA128/PS #242</t>
+  </si>
+  <si>
+    <t>NA128/PS #243</t>
+  </si>
+  <si>
+    <t>NA128/PS #244</t>
+  </si>
+  <si>
+    <t>NA128/PS #245</t>
+  </si>
+  <si>
+    <t>NA128/PS #246</t>
+  </si>
+  <si>
+    <t>NA128/PS #247</t>
+  </si>
+  <si>
+    <t>NA128/PS #248</t>
+  </si>
+  <si>
+    <t>NA128/PS #249</t>
+  </si>
+  <si>
+    <t>NA128/PS #250</t>
+  </si>
+  <si>
+    <t>NA128/PS #251</t>
+  </si>
+  <si>
+    <t>NA128/PS #252</t>
+  </si>
+  <si>
+    <t>NA128/PS #253</t>
+  </si>
+  <si>
+    <t>NA128/PS #254</t>
+  </si>
+  <si>
+    <t>NA128/PS #255</t>
+  </si>
+  <si>
+    <t>NA128/PS #256</t>
+  </si>
+  <si>
+    <t>NA128/PS #257</t>
+  </si>
+  <si>
+    <t>NA128/PS #258</t>
+  </si>
+  <si>
+    <t>NA128/PS #259</t>
+  </si>
+  <si>
+    <t>NA128/PS #260</t>
+  </si>
+  <si>
+    <t>NA128/PS #261</t>
+  </si>
+  <si>
+    <t>NA128/PS #262</t>
+  </si>
+  <si>
+    <t>NA128/PS #263</t>
+  </si>
+  <si>
+    <t>NA128/PS #264</t>
+  </si>
+  <si>
+    <t>NA128/PS #265</t>
+  </si>
+  <si>
+    <t>NA128/PS #266</t>
+  </si>
+  <si>
+    <t>NA128/PS #267</t>
+  </si>
+  <si>
+    <t>NA128/PS #268</t>
+  </si>
+  <si>
+    <t>NA128/PS #269</t>
+  </si>
+  <si>
+    <t>NA128/PS #270</t>
+  </si>
+  <si>
+    <t>NA128/PS #271</t>
+  </si>
+  <si>
+    <t>NA128/PS #272</t>
+  </si>
+  <si>
+    <t>NA128/PS #273</t>
+  </si>
+  <si>
+    <t>NA128/PS #274</t>
+  </si>
+  <si>
+    <t>NA128/PS #275</t>
+  </si>
+  <si>
+    <t>NA128/PS #276</t>
+  </si>
+  <si>
+    <t>NA128/PS #277</t>
+  </si>
+  <si>
+    <t>NA128/PS #278</t>
+  </si>
+  <si>
+    <t>NA128/PS #279</t>
+  </si>
+  <si>
+    <t>NA128/PS #280</t>
+  </si>
+  <si>
+    <t>NA128/PS #281</t>
+  </si>
+  <si>
+    <t>NA128/PS #282</t>
+  </si>
+  <si>
+    <t>NA128/PS #283</t>
+  </si>
+  <si>
+    <t>NA128/PS #284</t>
+  </si>
+  <si>
+    <t>NA128/PS #285</t>
+  </si>
+  <si>
+    <t>NA128/PS #286</t>
+  </si>
+  <si>
+    <t>NA128/PS #287</t>
+  </si>
+  <si>
+    <t>NA128/PS #288</t>
+  </si>
+  <si>
+    <t>NA128/PS #289</t>
+  </si>
+  <si>
+    <t>NA128/PS #290</t>
+  </si>
+  <si>
+    <t>NA128/PS #291</t>
+  </si>
+  <si>
+    <t>NA128/PS #292</t>
+  </si>
+  <si>
+    <t>NA128/PS #293</t>
+  </si>
+  <si>
+    <t>NA128/PS #294</t>
+  </si>
+  <si>
+    <t>NA128/PS #295</t>
+  </si>
+  <si>
+    <t>NA128/PS #296</t>
+  </si>
+  <si>
+    <t>NA128/PS #297</t>
+  </si>
+  <si>
+    <t>NA128/PS #298</t>
+  </si>
+  <si>
+    <t>NA128/PS #299</t>
+  </si>
+  <si>
+    <t>NA128/PS #300</t>
+  </si>
+  <si>
+    <t>NA128/PS #301</t>
+  </si>
+  <si>
+    <t>NA128/PS #302</t>
+  </si>
+  <si>
+    <t>NA128/PS #303</t>
+  </si>
+  <si>
+    <t>NA128/PS #304</t>
+  </si>
+  <si>
+    <t>NA128/PS #305</t>
+  </si>
+  <si>
+    <t>NA128/PS #306</t>
+  </si>
+  <si>
+    <t>NA128/PS #307</t>
+  </si>
+  <si>
+    <t>NA128/PS #308</t>
+  </si>
+  <si>
+    <t>NA128/PS #309</t>
+  </si>
+  <si>
+    <t>NA128/PS #310</t>
+  </si>
+  <si>
+    <t>NA128/PS #311</t>
+  </si>
+  <si>
+    <t>NA128/PS #312</t>
+  </si>
+  <si>
+    <t>NA128/PS #313</t>
+  </si>
+  <si>
+    <t>NA128/PS #314</t>
+  </si>
+  <si>
+    <t>NA128/PS #315</t>
+  </si>
+  <si>
+    <t>NA128/PS #316</t>
+  </si>
+  <si>
+    <t>NA128/PS #317</t>
+  </si>
+  <si>
+    <t>NA128/PS #318</t>
+  </si>
+  <si>
+    <t>NA128/PS #319</t>
+  </si>
+  <si>
+    <t>NA128/PS #320</t>
+  </si>
+  <si>
+    <t>NA128/PS #321</t>
+  </si>
+  <si>
+    <t>NA128/PS #322</t>
+  </si>
+  <si>
+    <t>NA128/PS #323</t>
+  </si>
+  <si>
+    <t>NA128/PS #324</t>
+  </si>
+  <si>
+    <t>NA128/PS #325</t>
+  </si>
+  <si>
+    <t>NA128/PS #326</t>
+  </si>
+  <si>
+    <t>NA128/PS #327</t>
+  </si>
+  <si>
+    <t>NA128/PS #328</t>
+  </si>
+  <si>
+    <t>NA128/PS #329</t>
+  </si>
+  <si>
+    <t>NA128/PS #330</t>
+  </si>
+  <si>
+    <t>NA128/PS #331</t>
+  </si>
+  <si>
+    <t>NA128/PS #332</t>
+  </si>
+  <si>
+    <t>NA128/PS #333</t>
+  </si>
+  <si>
+    <t>NA128/PS #334</t>
+  </si>
+  <si>
+    <t>NA128/PS #335</t>
+  </si>
+  <si>
+    <t>NA128/PS #336</t>
+  </si>
+  <si>
+    <t>NA128/PS #337</t>
+  </si>
+  <si>
+    <t>NA128/PS #338</t>
+  </si>
+  <si>
+    <t>NA128/PS #339</t>
+  </si>
+  <si>
+    <t>NA128/PS #340</t>
+  </si>
+  <si>
+    <t>NA128/PS #341</t>
+  </si>
+  <si>
+    <t>NA128/PS #342</t>
+  </si>
+  <si>
+    <t>NA128/PS #343</t>
+  </si>
+  <si>
+    <t>NA128/PS #344</t>
+  </si>
+  <si>
+    <t>NA128/PS #345</t>
+  </si>
+  <si>
+    <t>NA128/PS #346</t>
+  </si>
+  <si>
+    <t>NA128/PS #347</t>
+  </si>
+  <si>
+    <t>NA128/PS #348</t>
+  </si>
+  <si>
+    <t>NA128/PS #349</t>
+  </si>
+  <si>
+    <t>NA128/PS #350</t>
+  </si>
+  <si>
+    <t>NA128/PS #351</t>
+  </si>
+  <si>
+    <t>NA128/PS #352</t>
+  </si>
+  <si>
+    <t>NA128/PS #353</t>
+  </si>
+  <si>
+    <t>NA128/PS #354</t>
+  </si>
+  <si>
+    <t>NA128/PS #355</t>
+  </si>
+  <si>
+    <t>NA128/PS #356</t>
+  </si>
+  <si>
+    <t>NA128/PS #357</t>
+  </si>
+  <si>
+    <t>NA128/PS #358</t>
+  </si>
+  <si>
+    <t>NA128/PS #359</t>
+  </si>
+  <si>
+    <t>NA128/PS #360</t>
+  </si>
+  <si>
+    <t>NA128/PS #361</t>
+  </si>
+  <si>
+    <t>NA128/PS #362</t>
+  </si>
+  <si>
+    <t>NA128/PS #363</t>
+  </si>
+  <si>
+    <t>NA128/PS #364</t>
+  </si>
+  <si>
+    <t>NA128/PS #365</t>
+  </si>
+  <si>
+    <t>NA128/PS #366</t>
+  </si>
+  <si>
+    <t>NA128/PS #367</t>
+  </si>
+  <si>
+    <t>NA128/PS #368</t>
+  </si>
+  <si>
+    <t>NA128/PS #369</t>
+  </si>
+  <si>
+    <t>NA128/PS #370</t>
+  </si>
+  <si>
+    <t>NA128/PS #371</t>
+  </si>
+  <si>
+    <t>NA128/PS #372</t>
+  </si>
+  <si>
+    <t>NA128/PS #373</t>
+  </si>
+  <si>
+    <t>NA128/PS #374</t>
+  </si>
+  <si>
+    <t>NA128/PS #375</t>
+  </si>
+  <si>
+    <t>NA128/PS #376</t>
+  </si>
+  <si>
+    <t>NA128/PS #377</t>
+  </si>
+  <si>
+    <t>NA128/PS #378</t>
+  </si>
+  <si>
+    <t>NA128/PS #379</t>
+  </si>
+  <si>
+    <t>NA128/PS #380</t>
+  </si>
+  <si>
+    <t>NA128/PS #381</t>
+  </si>
+  <si>
+    <t>NA128/PS #382</t>
+  </si>
+  <si>
+    <t>NA128/PS #383</t>
+  </si>
+  <si>
+    <t>NA128/PS #384</t>
+  </si>
+  <si>
+    <t>NA128/PS #385</t>
+  </si>
+  <si>
+    <t>NA128/PS #386</t>
+  </si>
+  <si>
+    <t>NA128/PS #387</t>
+  </si>
+  <si>
+    <t>NA128/PS #388</t>
+  </si>
+  <si>
+    <t>NA128/PS #389</t>
+  </si>
+  <si>
+    <t>NA128/PS #390</t>
+  </si>
+  <si>
+    <t>NA128/PS #391</t>
+  </si>
+  <si>
+    <t>NA128/PS #392</t>
+  </si>
+  <si>
+    <t>NA128/PS #393</t>
+  </si>
+  <si>
+    <t>NA128/PS #394</t>
+  </si>
+  <si>
+    <t>NA128/PS #395</t>
+  </si>
+  <si>
+    <t>NA128/PS #396</t>
+  </si>
+  <si>
+    <t>NA128/PS #397</t>
+  </si>
+  <si>
+    <t>NA128/PS #398</t>
+  </si>
+  <si>
+    <t>NA128/PS #399</t>
+  </si>
+  <si>
+    <t>NA128/PS #400</t>
+  </si>
+  <si>
+    <t>NA128/PS #401</t>
+  </si>
+  <si>
+    <t>NA128/PS #402</t>
+  </si>
+  <si>
+    <t>NA128/PS #403</t>
+  </si>
+  <si>
+    <t>NA128/PS #404</t>
+  </si>
+  <si>
+    <t>NA128/PS #405</t>
+  </si>
+  <si>
+    <t>NA128/PS #406</t>
+  </si>
+  <si>
+    <t>NA128/PS #407</t>
+  </si>
+  <si>
+    <t>NA128/PS #408</t>
+  </si>
+  <si>
+    <t>NA128/PS #409</t>
+  </si>
+  <si>
+    <t>NA128/PS #410</t>
+  </si>
+  <si>
+    <t>NA128/PS #411</t>
+  </si>
+  <si>
+    <t>NA128/PS #412</t>
+  </si>
+  <si>
+    <t>NA128/PS #413</t>
+  </si>
+  <si>
+    <t>NA128/PS #414</t>
+  </si>
+  <si>
+    <t>NA128/PS #415</t>
+  </si>
+  <si>
+    <t>NA128/PS #416</t>
+  </si>
+  <si>
+    <t>NA128/PS #417</t>
+  </si>
+  <si>
+    <t>NA128/PS #418</t>
+  </si>
+  <si>
+    <t>NA128/PS #419</t>
+  </si>
+  <si>
+    <t>NA128/PS #420</t>
+  </si>
+  <si>
+    <t>NA128/PS #421</t>
+  </si>
+  <si>
+    <t>NA128/PS #422</t>
+  </si>
+  <si>
+    <t>NA128/PS #423</t>
+  </si>
+  <si>
+    <t>NA128/PS #424</t>
+  </si>
+  <si>
+    <t>NA128/PS #425</t>
+  </si>
+  <si>
+    <t>NA128/PS #426</t>
+  </si>
+  <si>
+    <t>NA128/PS #427</t>
+  </si>
+  <si>
+    <t>NA128/PS #428</t>
+  </si>
+  <si>
+    <t>NA128/PS #429</t>
+  </si>
+  <si>
+    <t>NA128/PS #430</t>
+  </si>
+  <si>
+    <t>NA128/PS #431</t>
+  </si>
+  <si>
+    <t>NA128/PS #432</t>
+  </si>
+  <si>
+    <t>NA128/PS #433</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1392,6 +2694,11 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1670,10 +2977,10 @@
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:J489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1681,9 +2988,11 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="99.140625" customWidth="1"/>
     <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>436</v>
       </c>
@@ -1710,8 +3019,11 @@
       <c r="H1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>434</v>
       </c>
@@ -1736,8 +3048,11 @@
       <c r="H2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1762,8 +3077,15 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT(J3,".pdf")</f>
+        <v>NA128/PS #01.pdf</v>
+      </c>
+      <c r="J3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1788,8 +3110,15 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" t="str">
+        <f>_xlfn.CONCAT(J4,".pdf")</f>
+        <v>NA128/PS #02.pdf</v>
+      </c>
+      <c r="J4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1814,8 +3143,15 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT(J5,".pdf")</f>
+        <v>NA128/PS #03.pdf</v>
+      </c>
+      <c r="J5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1840,8 +3176,15 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #04.pdf</v>
+      </c>
+      <c r="J6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1866,8 +3209,15 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #05.pdf</v>
+      </c>
+      <c r="J7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1892,8 +3242,15 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #06.pdf</v>
+      </c>
+      <c r="J8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1918,8 +3275,15 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #07.pdf</v>
+      </c>
+      <c r="J9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1944,8 +3308,15 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #08.pdf</v>
+      </c>
+      <c r="J10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1970,8 +3341,15 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #09.pdf</v>
+      </c>
+      <c r="J11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1996,8 +3374,15 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #10.pdf</v>
+      </c>
+      <c r="J12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2022,8 +3407,15 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #11.pdf</v>
+      </c>
+      <c r="J13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2048,8 +3440,15 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #12.pdf</v>
+      </c>
+      <c r="J14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2074,8 +3473,15 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #13.pdf</v>
+      </c>
+      <c r="J15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2100,8 +3506,15 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #14.pdf</v>
+      </c>
+      <c r="J16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2126,8 +3539,15 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #15.pdf</v>
+      </c>
+      <c r="J17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2152,8 +3572,15 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #16.pdf</v>
+      </c>
+      <c r="J18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2178,8 +3605,15 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #17.pdf</v>
+      </c>
+      <c r="J19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2204,8 +3638,15 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #18.pdf</v>
+      </c>
+      <c r="J20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2230,8 +3671,15 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #19.pdf</v>
+      </c>
+      <c r="J21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2256,8 +3704,15 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #20.pdf</v>
+      </c>
+      <c r="J22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2278,8 +3733,15 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #21.pdf</v>
+      </c>
+      <c r="J23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2304,8 +3766,15 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #22.pdf</v>
+      </c>
+      <c r="J24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2330,8 +3799,15 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #23.pdf</v>
+      </c>
+      <c r="J25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2356,8 +3832,15 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #24.pdf</v>
+      </c>
+      <c r="J26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2382,8 +3865,15 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #25.pdf</v>
+      </c>
+      <c r="J27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2408,8 +3898,15 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #26.pdf</v>
+      </c>
+      <c r="J28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2430,8 +3927,15 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #27.pdf</v>
+      </c>
+      <c r="J29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2456,8 +3960,15 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #28.pdf</v>
+      </c>
+      <c r="J30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2482,8 +3993,15 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #29.pdf</v>
+      </c>
+      <c r="J31" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2508,8 +4026,15 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #30.pdf</v>
+      </c>
+      <c r="J32" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2534,8 +4059,15 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #31.pdf</v>
+      </c>
+      <c r="J33" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2560,8 +4092,15 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #32.pdf</v>
+      </c>
+      <c r="J34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2586,8 +4125,15 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #33.pdf</v>
+      </c>
+      <c r="J35" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2612,8 +4158,15 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #34.pdf</v>
+      </c>
+      <c r="J36" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -2638,8 +4191,15 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #35.pdf</v>
+      </c>
+      <c r="J37" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -2664,8 +4224,15 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #36.pdf</v>
+      </c>
+      <c r="J38" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2690,8 +4257,15 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #37.pdf</v>
+      </c>
+      <c r="J39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -2716,8 +4290,15 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #38.pdf</v>
+      </c>
+      <c r="J40" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -2742,8 +4323,15 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #39.pdf</v>
+      </c>
+      <c r="J41" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -2768,8 +4356,15 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #40.pdf</v>
+      </c>
+      <c r="J42" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -2794,8 +4389,15 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #41.pdf</v>
+      </c>
+      <c r="J43" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -2820,8 +4422,15 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #42.pdf</v>
+      </c>
+      <c r="J44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -2846,8 +4455,15 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #43.pdf</v>
+      </c>
+      <c r="J45" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -2872,8 +4488,15 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #44.pdf</v>
+      </c>
+      <c r="J46" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -2898,8 +4521,15 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #45.pdf</v>
+      </c>
+      <c r="J47" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -2924,8 +4554,15 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #46.pdf</v>
+      </c>
+      <c r="J48" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -2950,8 +4587,15 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #47.pdf</v>
+      </c>
+      <c r="J49" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -2976,8 +4620,15 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #48.pdf</v>
+      </c>
+      <c r="J50" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -2998,8 +4649,15 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #49.pdf</v>
+      </c>
+      <c r="J51" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3024,8 +4682,15 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #50.pdf</v>
+      </c>
+      <c r="J52" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -3050,8 +4715,15 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #51.pdf</v>
+      </c>
+      <c r="J53" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -3076,8 +4748,15 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #52.pdf</v>
+      </c>
+      <c r="J54" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -3102,8 +4781,15 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #53.pdf</v>
+      </c>
+      <c r="J55" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -3124,8 +4810,15 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #54.pdf</v>
+      </c>
+      <c r="J56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -3146,8 +4839,15 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #55.pdf</v>
+      </c>
+      <c r="J57" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -3168,8 +4868,15 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #56.pdf</v>
+      </c>
+      <c r="J58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -3194,8 +4901,15 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #57.pdf</v>
+      </c>
+      <c r="J59" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -3220,8 +4934,15 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #58.pdf</v>
+      </c>
+      <c r="J60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -3246,8 +4967,15 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #59.pdf</v>
+      </c>
+      <c r="J61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -3272,8 +5000,15 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #60.pdf</v>
+      </c>
+      <c r="J62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -3298,8 +5033,15 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #61.pdf</v>
+      </c>
+      <c r="J63" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -3324,8 +5066,15 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #62.pdf</v>
+      </c>
+      <c r="J64" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -3350,8 +5099,15 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #63.pdf</v>
+      </c>
+      <c r="J65" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -3376,8 +5132,15 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #64.pdf</v>
+      </c>
+      <c r="J66" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -3402,8 +5165,15 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #65.pdf</v>
+      </c>
+      <c r="J67" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -3428,8 +5198,15 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>NA128/PS #66.pdf</v>
+      </c>
+      <c r="J68" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -3454,8 +5231,15 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" t="str">
+        <f t="shared" ref="I69:I132" si="2">_xlfn.CONCAT(J69,".pdf")</f>
+        <v>NA128/PS #67.pdf</v>
+      </c>
+      <c r="J69" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -3480,8 +5264,15 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #68.pdf</v>
+      </c>
+      <c r="J70" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -3506,8 +5297,15 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #69.pdf</v>
+      </c>
+      <c r="J71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -3532,8 +5330,15 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I72" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #70.pdf</v>
+      </c>
+      <c r="J72" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -3558,8 +5363,15 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I73" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #71.pdf</v>
+      </c>
+      <c r="J73" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -3584,8 +5396,15 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #72.pdf</v>
+      </c>
+      <c r="J74" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -3606,8 +5425,15 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #73.pdf</v>
+      </c>
+      <c r="J75" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -3632,8 +5458,15 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I76" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #74.pdf</v>
+      </c>
+      <c r="J76" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -3658,8 +5491,15 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I77" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #75.pdf</v>
+      </c>
+      <c r="J77" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -3684,8 +5524,15 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I78" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #76.pdf</v>
+      </c>
+      <c r="J78" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -3710,8 +5557,15 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I79" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #77.pdf</v>
+      </c>
+      <c r="J79" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -3736,8 +5590,15 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I80" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #78.pdf</v>
+      </c>
+      <c r="J80" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -3762,8 +5623,15 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #79.pdf</v>
+      </c>
+      <c r="J81" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -3788,8 +5656,15 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #80.pdf</v>
+      </c>
+      <c r="J82" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -3810,8 +5685,15 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #81.pdf</v>
+      </c>
+      <c r="J83" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -3832,8 +5714,15 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I84" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #82.pdf</v>
+      </c>
+      <c r="J84" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -3858,8 +5747,15 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I85" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #83.pdf</v>
+      </c>
+      <c r="J85" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -3880,8 +5776,15 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I86" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #84.pdf</v>
+      </c>
+      <c r="J86" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -3906,8 +5809,15 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I87" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #85.pdf</v>
+      </c>
+      <c r="J87" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -3932,8 +5842,15 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I88" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #86.pdf</v>
+      </c>
+      <c r="J88" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -3958,8 +5875,15 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I89" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #87.pdf</v>
+      </c>
+      <c r="J89" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -3984,8 +5908,15 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I90" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #88.pdf</v>
+      </c>
+      <c r="J90" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -4010,8 +5941,15 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I91" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #89.pdf</v>
+      </c>
+      <c r="J91" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -4036,8 +5974,15 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I92" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #90.pdf</v>
+      </c>
+      <c r="J92" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -4062,8 +6007,15 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I93" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #91.pdf</v>
+      </c>
+      <c r="J93" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -4084,8 +6036,15 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I94" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #92.pdf</v>
+      </c>
+      <c r="J94" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -4106,8 +6065,15 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I95" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #93.pdf</v>
+      </c>
+      <c r="J95" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -4132,8 +6098,15 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I96" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #94.pdf</v>
+      </c>
+      <c r="J96" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -4158,8 +6131,15 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I97" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #95.pdf</v>
+      </c>
+      <c r="J97" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -4184,8 +6164,15 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I98" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #96.pdf</v>
+      </c>
+      <c r="J98" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -4210,8 +6197,15 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I99" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #97.pdf</v>
+      </c>
+      <c r="J99" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -4236,8 +6230,15 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I100" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #98.pdf</v>
+      </c>
+      <c r="J100" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -4262,8 +6263,15 @@
       <c r="H101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I101" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #99.pdf</v>
+      </c>
+      <c r="J101" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -4288,8 +6296,15 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I102" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #100.pdf</v>
+      </c>
+      <c r="J102" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -4314,8 +6329,15 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I103" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #101.pdf</v>
+      </c>
+      <c r="J103" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -4340,8 +6362,15 @@
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I104" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #102.pdf</v>
+      </c>
+      <c r="J104" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -4366,8 +6395,15 @@
       <c r="H105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I105" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #103.pdf</v>
+      </c>
+      <c r="J105" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -4392,8 +6428,15 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I106" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #104.pdf</v>
+      </c>
+      <c r="J106" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -4418,8 +6461,15 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I107" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #105.pdf</v>
+      </c>
+      <c r="J107" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -4444,8 +6494,15 @@
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I108" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #106.pdf</v>
+      </c>
+      <c r="J108" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -4470,8 +6527,15 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I109" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #107.pdf</v>
+      </c>
+      <c r="J109" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -4496,8 +6560,15 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I110" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #108.pdf</v>
+      </c>
+      <c r="J110" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -4522,8 +6593,15 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I111" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #109.pdf</v>
+      </c>
+      <c r="J111" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -4548,8 +6626,15 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I112" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #110.pdf</v>
+      </c>
+      <c r="J112" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -4574,8 +6659,15 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I113" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #111.pdf</v>
+      </c>
+      <c r="J113" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -4600,8 +6692,15 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I114" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #112.pdf</v>
+      </c>
+      <c r="J114" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -4626,8 +6725,15 @@
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I115" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #113.pdf</v>
+      </c>
+      <c r="J115" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -4652,8 +6758,15 @@
       <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I116" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #114.pdf</v>
+      </c>
+      <c r="J116" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -4678,8 +6791,15 @@
       <c r="H117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I117" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #115.pdf</v>
+      </c>
+      <c r="J117" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -4704,8 +6824,15 @@
       <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I118" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #116.pdf</v>
+      </c>
+      <c r="J118" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -4730,8 +6857,15 @@
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I119" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #117.pdf</v>
+      </c>
+      <c r="J119" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -4756,8 +6890,15 @@
       <c r="H120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I120" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #118.pdf</v>
+      </c>
+      <c r="J120" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -4782,8 +6923,15 @@
       <c r="H121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I121" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #119.pdf</v>
+      </c>
+      <c r="J121" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -4808,8 +6956,15 @@
       <c r="H122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I122" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #120.pdf</v>
+      </c>
+      <c r="J122" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -4834,8 +6989,15 @@
       <c r="H123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I123" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #121.pdf</v>
+      </c>
+      <c r="J123" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -4860,8 +7022,15 @@
       <c r="H124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I124" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #122.pdf</v>
+      </c>
+      <c r="J124" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -4886,8 +7055,15 @@
       <c r="H125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I125" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #123.pdf</v>
+      </c>
+      <c r="J125" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -4912,8 +7088,15 @@
       <c r="H126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I126" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #124.pdf</v>
+      </c>
+      <c r="J126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -4938,8 +7121,15 @@
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I127" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #125.pdf</v>
+      </c>
+      <c r="J127" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -4964,8 +7154,15 @@
       <c r="H128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I128" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #126.pdf</v>
+      </c>
+      <c r="J128" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -4990,8 +7187,15 @@
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I129" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #127.pdf</v>
+      </c>
+      <c r="J129" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -5016,8 +7220,15 @@
       <c r="H130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I130" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #128.pdf</v>
+      </c>
+      <c r="J130" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -5042,8 +7253,15 @@
       <c r="H131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I131" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #129.pdf</v>
+      </c>
+      <c r="J131" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -5068,8 +7286,15 @@
       <c r="H132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I132" t="str">
+        <f t="shared" si="2"/>
+        <v>NA128/PS #130.pdf</v>
+      </c>
+      <c r="J132" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -5094,8 +7319,15 @@
       <c r="H133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I133" t="str">
+        <f t="shared" ref="I133:I196" si="3">_xlfn.CONCAT(J133,".pdf")</f>
+        <v>NA128/PS #131.pdf</v>
+      </c>
+      <c r="J133" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -5120,8 +7352,15 @@
       <c r="H134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I134" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #132.pdf</v>
+      </c>
+      <c r="J134" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -5146,8 +7385,15 @@
       <c r="H135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I135" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #133.pdf</v>
+      </c>
+      <c r="J135" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -5172,8 +7418,15 @@
       <c r="H136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I136" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #134.pdf</v>
+      </c>
+      <c r="J136" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -5198,8 +7451,15 @@
       <c r="H137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I137" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #135.pdf</v>
+      </c>
+      <c r="J137" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -5224,8 +7484,15 @@
       <c r="H138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I138" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #136.pdf</v>
+      </c>
+      <c r="J138" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -5246,8 +7513,15 @@
       <c r="H139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I139" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #137.pdf</v>
+      </c>
+      <c r="J139" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -5272,8 +7546,15 @@
       <c r="H140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I140" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #138.pdf</v>
+      </c>
+      <c r="J140" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -5294,8 +7575,15 @@
       <c r="H141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I141" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #139.pdf</v>
+      </c>
+      <c r="J141" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -5320,8 +7608,15 @@
       <c r="H142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I142" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #140.pdf</v>
+      </c>
+      <c r="J142" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -5346,8 +7641,15 @@
       <c r="H143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I143" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #141.pdf</v>
+      </c>
+      <c r="J143" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -5372,8 +7674,15 @@
       <c r="H144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I144" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #142.pdf</v>
+      </c>
+      <c r="J144" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -5398,8 +7707,15 @@
       <c r="H145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I145" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #143.pdf</v>
+      </c>
+      <c r="J145" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -5424,8 +7740,15 @@
       <c r="H146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I146" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #144.pdf</v>
+      </c>
+      <c r="J146" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -5450,8 +7773,15 @@
       <c r="H147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I147" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #145.pdf</v>
+      </c>
+      <c r="J147" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -5476,8 +7806,15 @@
       <c r="H148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I148" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #146.pdf</v>
+      </c>
+      <c r="J148" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -5502,8 +7839,15 @@
       <c r="H149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I149" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #147.pdf</v>
+      </c>
+      <c r="J149" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -5528,8 +7872,15 @@
       <c r="H150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I150" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #148.pdf</v>
+      </c>
+      <c r="J150" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -5554,8 +7905,15 @@
       <c r="H151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I151" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #149.pdf</v>
+      </c>
+      <c r="J151" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -5580,8 +7938,15 @@
       <c r="H152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I152" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #150.pdf</v>
+      </c>
+      <c r="J152" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>151</v>
       </c>
@@ -5606,8 +7971,15 @@
       <c r="H153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I153" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #151.pdf</v>
+      </c>
+      <c r="J153" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -5632,8 +8004,15 @@
       <c r="H154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I154" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #152.pdf</v>
+      </c>
+      <c r="J154" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>153</v>
       </c>
@@ -5658,8 +8037,15 @@
       <c r="H155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I155" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #153.pdf</v>
+      </c>
+      <c r="J155" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>154</v>
       </c>
@@ -5684,8 +8070,15 @@
       <c r="H156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I156" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #154.pdf</v>
+      </c>
+      <c r="J156" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>155</v>
       </c>
@@ -5710,8 +8103,15 @@
       <c r="H157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I157" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #155.pdf</v>
+      </c>
+      <c r="J157" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>156</v>
       </c>
@@ -5736,8 +8136,15 @@
       <c r="H158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I158" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #156.pdf</v>
+      </c>
+      <c r="J158" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>157</v>
       </c>
@@ -5762,8 +8169,15 @@
       <c r="H159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I159" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #157.pdf</v>
+      </c>
+      <c r="J159" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>158</v>
       </c>
@@ -5788,8 +8202,15 @@
       <c r="H160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I160" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #158.pdf</v>
+      </c>
+      <c r="J160" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>159</v>
       </c>
@@ -5814,8 +8235,15 @@
       <c r="H161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I161" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #159.pdf</v>
+      </c>
+      <c r="J161" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>160</v>
       </c>
@@ -5840,8 +8268,15 @@
       <c r="H162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I162" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #160.pdf</v>
+      </c>
+      <c r="J162" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>161</v>
       </c>
@@ -5866,8 +8301,15 @@
       <c r="H163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I163" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #161.pdf</v>
+      </c>
+      <c r="J163" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>162</v>
       </c>
@@ -5892,8 +8334,15 @@
       <c r="H164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I164" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #162.pdf</v>
+      </c>
+      <c r="J164" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>163</v>
       </c>
@@ -5918,8 +8367,15 @@
       <c r="H165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I165" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #163.pdf</v>
+      </c>
+      <c r="J165" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>164</v>
       </c>
@@ -5944,8 +8400,15 @@
       <c r="H166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I166" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #164.pdf</v>
+      </c>
+      <c r="J166" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>165</v>
       </c>
@@ -5970,8 +8433,15 @@
       <c r="H167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I167" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #165.pdf</v>
+      </c>
+      <c r="J167" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>166</v>
       </c>
@@ -5996,8 +8466,15 @@
       <c r="H168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I168" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #166.pdf</v>
+      </c>
+      <c r="J168" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>167</v>
       </c>
@@ -6022,8 +8499,15 @@
       <c r="H169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I169" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #167.pdf</v>
+      </c>
+      <c r="J169" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>168</v>
       </c>
@@ -6048,8 +8532,15 @@
       <c r="H170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I170" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #168.pdf</v>
+      </c>
+      <c r="J170" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>169</v>
       </c>
@@ -6070,8 +8561,15 @@
       <c r="H171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I171" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #169.pdf</v>
+      </c>
+      <c r="J171" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>170</v>
       </c>
@@ -6096,8 +8594,15 @@
       <c r="H172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I172" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #170.pdf</v>
+      </c>
+      <c r="J172" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>171</v>
       </c>
@@ -6118,8 +8623,15 @@
       <c r="H173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I173" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #171.pdf</v>
+      </c>
+      <c r="J173" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>172</v>
       </c>
@@ -6140,8 +8652,15 @@
       <c r="H174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I174" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #172.pdf</v>
+      </c>
+      <c r="J174" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>173</v>
       </c>
@@ -6166,8 +8685,15 @@
       <c r="H175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I175" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #173.pdf</v>
+      </c>
+      <c r="J175" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>174</v>
       </c>
@@ -6192,8 +8718,15 @@
       <c r="H176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I176" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #174.pdf</v>
+      </c>
+      <c r="J176" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>175</v>
       </c>
@@ -6218,8 +8751,15 @@
       <c r="H177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I177" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #175.pdf</v>
+      </c>
+      <c r="J177" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>176</v>
       </c>
@@ -6244,8 +8784,15 @@
       <c r="H178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I178" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #176.pdf</v>
+      </c>
+      <c r="J178" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>177</v>
       </c>
@@ -6270,8 +8817,15 @@
       <c r="H179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I179" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #177.pdf</v>
+      </c>
+      <c r="J179" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>178</v>
       </c>
@@ -6296,8 +8850,15 @@
       <c r="H180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I180" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #178.pdf</v>
+      </c>
+      <c r="J180" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>179</v>
       </c>
@@ -6322,8 +8883,15 @@
       <c r="H181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I181" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #179.pdf</v>
+      </c>
+      <c r="J181" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>180</v>
       </c>
@@ -6344,8 +8912,15 @@
       <c r="H182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I182" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #180.pdf</v>
+      </c>
+      <c r="J182" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>181</v>
       </c>
@@ -6370,8 +8945,15 @@
       <c r="H183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I183" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #181.pdf</v>
+      </c>
+      <c r="J183" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>182</v>
       </c>
@@ -6392,8 +8974,15 @@
       <c r="H184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I184" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #182.pdf</v>
+      </c>
+      <c r="J184" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>183</v>
       </c>
@@ -6418,8 +9007,15 @@
       <c r="H185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I185" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #183.pdf</v>
+      </c>
+      <c r="J185" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>184</v>
       </c>
@@ -6440,8 +9036,15 @@
       <c r="H186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I186" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #184.pdf</v>
+      </c>
+      <c r="J186" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>185</v>
       </c>
@@ -6466,8 +9069,15 @@
       <c r="H187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I187" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #185.pdf</v>
+      </c>
+      <c r="J187" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>186</v>
       </c>
@@ -6492,8 +9102,15 @@
       <c r="H188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I188" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #186.pdf</v>
+      </c>
+      <c r="J188" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>187</v>
       </c>
@@ -6518,8 +9135,15 @@
       <c r="H189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I189" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #187.pdf</v>
+      </c>
+      <c r="J189" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>188</v>
       </c>
@@ -6544,8 +9168,15 @@
       <c r="H190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I190" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #188.pdf</v>
+      </c>
+      <c r="J190" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>189</v>
       </c>
@@ -6570,8 +9201,15 @@
       <c r="H191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I191" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #189.pdf</v>
+      </c>
+      <c r="J191" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>190</v>
       </c>
@@ -6596,8 +9234,15 @@
       <c r="H192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I192" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #190.pdf</v>
+      </c>
+      <c r="J192" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>191</v>
       </c>
@@ -6618,8 +9263,15 @@
       <c r="H193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I193" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #191.pdf</v>
+      </c>
+      <c r="J193" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>192</v>
       </c>
@@ -6640,8 +9292,15 @@
       <c r="H194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I194" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #192.pdf</v>
+      </c>
+      <c r="J194" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>193</v>
       </c>
@@ -6666,8 +9325,15 @@
       <c r="H195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I195" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #193.pdf</v>
+      </c>
+      <c r="J195" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>194</v>
       </c>
@@ -6692,8 +9358,15 @@
       <c r="H196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I196" t="str">
+        <f t="shared" si="3"/>
+        <v>NA128/PS #194.pdf</v>
+      </c>
+      <c r="J196" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>195</v>
       </c>
@@ -6718,8 +9391,15 @@
       <c r="H197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I197" t="str">
+        <f t="shared" ref="I197:I260" si="4">_xlfn.CONCAT(J197,".pdf")</f>
+        <v>NA128/PS #195.pdf</v>
+      </c>
+      <c r="J197" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>196</v>
       </c>
@@ -6744,8 +9424,15 @@
       <c r="H198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I198" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #196.pdf</v>
+      </c>
+      <c r="J198" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>197</v>
       </c>
@@ -6770,8 +9457,15 @@
       <c r="H199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I199" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #197.pdf</v>
+      </c>
+      <c r="J199" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>198</v>
       </c>
@@ -6796,8 +9490,15 @@
       <c r="H200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I200" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #198.pdf</v>
+      </c>
+      <c r="J200" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>199</v>
       </c>
@@ -6822,8 +9523,15 @@
       <c r="H201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I201" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #199.pdf</v>
+      </c>
+      <c r="J201" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>200</v>
       </c>
@@ -6848,8 +9556,15 @@
       <c r="H202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I202" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #200.pdf</v>
+      </c>
+      <c r="J202" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>201</v>
       </c>
@@ -6874,8 +9589,15 @@
       <c r="H203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I203" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #201.pdf</v>
+      </c>
+      <c r="J203" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>202</v>
       </c>
@@ -6900,8 +9622,15 @@
       <c r="H204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I204" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #202.pdf</v>
+      </c>
+      <c r="J204" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>203</v>
       </c>
@@ -6926,8 +9655,15 @@
       <c r="H205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I205" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #203.pdf</v>
+      </c>
+      <c r="J205" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>204</v>
       </c>
@@ -6952,8 +9688,15 @@
       <c r="H206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I206" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #204.pdf</v>
+      </c>
+      <c r="J206" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>205</v>
       </c>
@@ -6978,8 +9721,15 @@
       <c r="H207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I207" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #205.pdf</v>
+      </c>
+      <c r="J207" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>206</v>
       </c>
@@ -7004,8 +9754,15 @@
       <c r="H208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I208" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #206.pdf</v>
+      </c>
+      <c r="J208" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>207</v>
       </c>
@@ -7030,8 +9787,15 @@
       <c r="H209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I209" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #207.pdf</v>
+      </c>
+      <c r="J209" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>208</v>
       </c>
@@ -7056,8 +9820,15 @@
       <c r="H210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I210" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #208.pdf</v>
+      </c>
+      <c r="J210" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>209</v>
       </c>
@@ -7082,8 +9853,15 @@
       <c r="H211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I211" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #209.pdf</v>
+      </c>
+      <c r="J211" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>210</v>
       </c>
@@ -7108,8 +9886,15 @@
       <c r="H212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I212" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #210.pdf</v>
+      </c>
+      <c r="J212" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>211</v>
       </c>
@@ -7134,8 +9919,15 @@
       <c r="H213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I213" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #211.pdf</v>
+      </c>
+      <c r="J213" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>212</v>
       </c>
@@ -7160,8 +9952,15 @@
       <c r="H214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I214" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #212.pdf</v>
+      </c>
+      <c r="J214" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>213</v>
       </c>
@@ -7186,8 +9985,15 @@
       <c r="H215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I215" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #213.pdf</v>
+      </c>
+      <c r="J215" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>214</v>
       </c>
@@ -7212,8 +10018,15 @@
       <c r="H216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I216" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #214.pdf</v>
+      </c>
+      <c r="J216" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>215</v>
       </c>
@@ -7238,8 +10051,15 @@
       <c r="H217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I217" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #215.pdf</v>
+      </c>
+      <c r="J217" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>216</v>
       </c>
@@ -7260,8 +10080,15 @@
       <c r="H218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I218" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #216.pdf</v>
+      </c>
+      <c r="J218" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>217</v>
       </c>
@@ -7282,8 +10109,15 @@
       <c r="H219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I219" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #217.pdf</v>
+      </c>
+      <c r="J219" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>218</v>
       </c>
@@ -7308,8 +10142,15 @@
       <c r="H220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I220" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #218.pdf</v>
+      </c>
+      <c r="J220" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>219</v>
       </c>
@@ -7334,8 +10175,15 @@
       <c r="H221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I221" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #219.pdf</v>
+      </c>
+      <c r="J221" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>220</v>
       </c>
@@ -7360,8 +10208,15 @@
       <c r="H222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I222" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #220.pdf</v>
+      </c>
+      <c r="J222" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>221</v>
       </c>
@@ -7386,8 +10241,15 @@
       <c r="H223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I223" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #221.pdf</v>
+      </c>
+      <c r="J223" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>222</v>
       </c>
@@ -7412,8 +10274,15 @@
       <c r="H224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I224" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #222.pdf</v>
+      </c>
+      <c r="J224" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>223</v>
       </c>
@@ -7438,8 +10307,15 @@
       <c r="H225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I225" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #223.pdf</v>
+      </c>
+      <c r="J225" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>224</v>
       </c>
@@ -7464,8 +10340,15 @@
       <c r="H226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I226" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #224.pdf</v>
+      </c>
+      <c r="J226" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>225</v>
       </c>
@@ -7490,8 +10373,15 @@
       <c r="H227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I227" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #225.pdf</v>
+      </c>
+      <c r="J227" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>226</v>
       </c>
@@ -7516,8 +10406,15 @@
       <c r="H228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I228" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #226.pdf</v>
+      </c>
+      <c r="J228" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>227</v>
       </c>
@@ -7542,8 +10439,15 @@
       <c r="H229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I229" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #227.pdf</v>
+      </c>
+      <c r="J229" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>228</v>
       </c>
@@ -7568,8 +10472,15 @@
       <c r="H230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I230" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #228.pdf</v>
+      </c>
+      <c r="J230" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>229</v>
       </c>
@@ -7594,8 +10505,15 @@
       <c r="H231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I231" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #229.pdf</v>
+      </c>
+      <c r="J231" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>230</v>
       </c>
@@ -7620,8 +10538,15 @@
       <c r="H232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I232" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #230.pdf</v>
+      </c>
+      <c r="J232" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>231</v>
       </c>
@@ -7646,8 +10571,15 @@
       <c r="H233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I233" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #231.pdf</v>
+      </c>
+      <c r="J233" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>232</v>
       </c>
@@ -7672,8 +10604,15 @@
       <c r="H234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I234" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #232.pdf</v>
+      </c>
+      <c r="J234" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>233</v>
       </c>
@@ -7698,8 +10637,15 @@
       <c r="H235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I235" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #233.pdf</v>
+      </c>
+      <c r="J235" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>234</v>
       </c>
@@ -7720,8 +10666,15 @@
       <c r="H236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I236" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #234.pdf</v>
+      </c>
+      <c r="J236" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>235</v>
       </c>
@@ -7746,8 +10699,15 @@
       <c r="H237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I237" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #235.pdf</v>
+      </c>
+      <c r="J237" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>236</v>
       </c>
@@ -7772,8 +10732,15 @@
       <c r="H238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I238" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #236.pdf</v>
+      </c>
+      <c r="J238" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>237</v>
       </c>
@@ -7798,8 +10765,15 @@
       <c r="H239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I239" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #237.pdf</v>
+      </c>
+      <c r="J239" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>238</v>
       </c>
@@ -7824,8 +10798,15 @@
       <c r="H240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I240" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #238.pdf</v>
+      </c>
+      <c r="J240" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>239</v>
       </c>
@@ -7846,8 +10827,15 @@
       <c r="H241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I241" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #239.pdf</v>
+      </c>
+      <c r="J241" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>240</v>
       </c>
@@ -7872,8 +10860,15 @@
       <c r="H242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I242" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #240.pdf</v>
+      </c>
+      <c r="J242" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>241</v>
       </c>
@@ -7898,8 +10893,15 @@
       <c r="H243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I243" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #241.pdf</v>
+      </c>
+      <c r="J243" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>242</v>
       </c>
@@ -7920,8 +10922,15 @@
       <c r="H244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I244" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #242.pdf</v>
+      </c>
+      <c r="J244" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>243</v>
       </c>
@@ -7946,8 +10955,15 @@
       <c r="H245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I245" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #243.pdf</v>
+      </c>
+      <c r="J245" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>244</v>
       </c>
@@ -7972,8 +10988,15 @@
       <c r="H246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I246" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #244.pdf</v>
+      </c>
+      <c r="J246" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>245</v>
       </c>
@@ -7998,8 +11021,15 @@
       <c r="H247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I247" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #245.pdf</v>
+      </c>
+      <c r="J247" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>246</v>
       </c>
@@ -8020,8 +11050,15 @@
       <c r="H248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I248" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #246.pdf</v>
+      </c>
+      <c r="J248" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>247</v>
       </c>
@@ -8042,8 +11079,15 @@
       <c r="H249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I249" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #247.pdf</v>
+      </c>
+      <c r="J249" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>248</v>
       </c>
@@ -8068,8 +11112,15 @@
       <c r="H250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I250" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #248.pdf</v>
+      </c>
+      <c r="J250" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>249</v>
       </c>
@@ -8094,8 +11145,15 @@
       <c r="H251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I251" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #249.pdf</v>
+      </c>
+      <c r="J251" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>250</v>
       </c>
@@ -8120,8 +11178,15 @@
       <c r="H252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I252" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #250.pdf</v>
+      </c>
+      <c r="J252" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>251</v>
       </c>
@@ -8146,8 +11211,15 @@
       <c r="H253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I253" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #251.pdf</v>
+      </c>
+      <c r="J253" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>252</v>
       </c>
@@ -8172,8 +11244,15 @@
       <c r="H254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I254" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #252.pdf</v>
+      </c>
+      <c r="J254" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>253</v>
       </c>
@@ -8198,8 +11277,15 @@
       <c r="H255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I255" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #253.pdf</v>
+      </c>
+      <c r="J255" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>254</v>
       </c>
@@ -8224,8 +11310,15 @@
       <c r="H256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I256" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #254.pdf</v>
+      </c>
+      <c r="J256" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>255</v>
       </c>
@@ -8250,8 +11343,15 @@
       <c r="H257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I257" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #255.pdf</v>
+      </c>
+      <c r="J257" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>256</v>
       </c>
@@ -8276,8 +11376,15 @@
       <c r="H258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I258" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #256.pdf</v>
+      </c>
+      <c r="J258" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>257</v>
       </c>
@@ -8302,8 +11409,15 @@
       <c r="H259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I259" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #257.pdf</v>
+      </c>
+      <c r="J259" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>258</v>
       </c>
@@ -8328,8 +11442,15 @@
       <c r="H260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I260" t="str">
+        <f t="shared" si="4"/>
+        <v>NA128/PS #258.pdf</v>
+      </c>
+      <c r="J260" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>259</v>
       </c>
@@ -8354,8 +11475,15 @@
       <c r="H261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I261" t="str">
+        <f t="shared" ref="I261:I324" si="5">_xlfn.CONCAT(J261,".pdf")</f>
+        <v>NA128/PS #259.pdf</v>
+      </c>
+      <c r="J261" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>260</v>
       </c>
@@ -8380,8 +11508,15 @@
       <c r="H262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I262" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #260.pdf</v>
+      </c>
+      <c r="J262" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>261</v>
       </c>
@@ -8406,8 +11541,15 @@
       <c r="H263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I263" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #261.pdf</v>
+      </c>
+      <c r="J263" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>262</v>
       </c>
@@ -8432,8 +11574,15 @@
       <c r="H264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I264" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #262.pdf</v>
+      </c>
+      <c r="J264" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>263</v>
       </c>
@@ -8458,8 +11607,15 @@
       <c r="H265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I265" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #263.pdf</v>
+      </c>
+      <c r="J265" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>264</v>
       </c>
@@ -8484,8 +11640,15 @@
       <c r="H266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I266" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #264.pdf</v>
+      </c>
+      <c r="J266" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>265</v>
       </c>
@@ -8510,8 +11673,15 @@
       <c r="H267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I267" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #265.pdf</v>
+      </c>
+      <c r="J267" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>266</v>
       </c>
@@ -8536,8 +11706,15 @@
       <c r="H268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I268" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #266.pdf</v>
+      </c>
+      <c r="J268" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>267</v>
       </c>
@@ -8562,8 +11739,15 @@
       <c r="H269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I269" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #267.pdf</v>
+      </c>
+      <c r="J269" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>268</v>
       </c>
@@ -8588,8 +11772,15 @@
       <c r="H270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I270" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #268.pdf</v>
+      </c>
+      <c r="J270" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>269</v>
       </c>
@@ -8614,8 +11805,15 @@
       <c r="H271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I271" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #269.pdf</v>
+      </c>
+      <c r="J271" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>270</v>
       </c>
@@ -8640,8 +11838,15 @@
       <c r="H272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I272" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #270.pdf</v>
+      </c>
+      <c r="J272" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>271</v>
       </c>
@@ -8666,8 +11871,15 @@
       <c r="H273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I273" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #271.pdf</v>
+      </c>
+      <c r="J273" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>272</v>
       </c>
@@ -8692,8 +11904,15 @@
       <c r="H274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I274" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #272.pdf</v>
+      </c>
+      <c r="J274" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>273</v>
       </c>
@@ -8718,8 +11937,15 @@
       <c r="H275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I275" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #273.pdf</v>
+      </c>
+      <c r="J275" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>274</v>
       </c>
@@ -8744,8 +11970,15 @@
       <c r="H276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I276" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #274.pdf</v>
+      </c>
+      <c r="J276" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>275</v>
       </c>
@@ -8770,8 +12003,15 @@
       <c r="H277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I277" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #275.pdf</v>
+      </c>
+      <c r="J277" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>276</v>
       </c>
@@ -8796,8 +12036,15 @@
       <c r="H278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I278" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #276.pdf</v>
+      </c>
+      <c r="J278" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>277</v>
       </c>
@@ -8822,8 +12069,15 @@
       <c r="H279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I279" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #277.pdf</v>
+      </c>
+      <c r="J279" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>278</v>
       </c>
@@ -8848,8 +12102,15 @@
       <c r="H280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I280" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #278.pdf</v>
+      </c>
+      <c r="J280" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>279</v>
       </c>
@@ -8874,8 +12135,15 @@
       <c r="H281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I281" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #279.pdf</v>
+      </c>
+      <c r="J281" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>280</v>
       </c>
@@ -8896,8 +12164,15 @@
       <c r="H282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I282" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #280.pdf</v>
+      </c>
+      <c r="J282" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>281</v>
       </c>
@@ -8922,8 +12197,15 @@
       <c r="H283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I283" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #281.pdf</v>
+      </c>
+      <c r="J283" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>282</v>
       </c>
@@ -8948,8 +12230,15 @@
       <c r="H284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I284" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #282.pdf</v>
+      </c>
+      <c r="J284" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>283</v>
       </c>
@@ -8974,8 +12263,15 @@
       <c r="H285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I285" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #283.pdf</v>
+      </c>
+      <c r="J285" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>284</v>
       </c>
@@ -9000,8 +12296,15 @@
       <c r="H286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I286" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #284.pdf</v>
+      </c>
+      <c r="J286" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>285</v>
       </c>
@@ -9022,8 +12325,15 @@
       <c r="H287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I287" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #285.pdf</v>
+      </c>
+      <c r="J287" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>286</v>
       </c>
@@ -9048,8 +12358,15 @@
       <c r="H288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I288" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #286.pdf</v>
+      </c>
+      <c r="J288" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>287</v>
       </c>
@@ -9074,8 +12391,15 @@
       <c r="H289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I289" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #287.pdf</v>
+      </c>
+      <c r="J289" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>288</v>
       </c>
@@ -9100,8 +12424,15 @@
       <c r="H290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I290" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #288.pdf</v>
+      </c>
+      <c r="J290" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>289</v>
       </c>
@@ -9126,8 +12457,15 @@
       <c r="H291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I291" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #289.pdf</v>
+      </c>
+      <c r="J291" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>290</v>
       </c>
@@ -9152,8 +12490,15 @@
       <c r="H292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I292" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #290.pdf</v>
+      </c>
+      <c r="J292" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>291</v>
       </c>
@@ -9178,8 +12523,15 @@
       <c r="H293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I293" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #291.pdf</v>
+      </c>
+      <c r="J293" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>292</v>
       </c>
@@ -9204,8 +12556,15 @@
       <c r="H294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I294" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #292.pdf</v>
+      </c>
+      <c r="J294" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>293</v>
       </c>
@@ -9230,8 +12589,15 @@
       <c r="H295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I295" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #293.pdf</v>
+      </c>
+      <c r="J295" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>294</v>
       </c>
@@ -9256,8 +12622,15 @@
       <c r="H296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I296" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #294.pdf</v>
+      </c>
+      <c r="J296" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>295</v>
       </c>
@@ -9282,8 +12655,15 @@
       <c r="H297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I297" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #295.pdf</v>
+      </c>
+      <c r="J297" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>296</v>
       </c>
@@ -9308,8 +12688,15 @@
       <c r="H298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I298" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #296.pdf</v>
+      </c>
+      <c r="J298" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>297</v>
       </c>
@@ -9334,8 +12721,15 @@
       <c r="H299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I299" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #297.pdf</v>
+      </c>
+      <c r="J299" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>298</v>
       </c>
@@ -9360,8 +12754,15 @@
       <c r="H300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I300" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #298.pdf</v>
+      </c>
+      <c r="J300" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>299</v>
       </c>
@@ -9386,8 +12787,15 @@
       <c r="H301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I301" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #299.pdf</v>
+      </c>
+      <c r="J301" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>300</v>
       </c>
@@ -9412,8 +12820,15 @@
       <c r="H302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I302" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #300.pdf</v>
+      </c>
+      <c r="J302" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>301</v>
       </c>
@@ -9438,8 +12853,15 @@
       <c r="H303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I303" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #301.pdf</v>
+      </c>
+      <c r="J303" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>302</v>
       </c>
@@ -9464,8 +12886,15 @@
       <c r="H304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I304" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #302.pdf</v>
+      </c>
+      <c r="J304" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>303</v>
       </c>
@@ -9490,8 +12919,15 @@
       <c r="H305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I305" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #303.pdf</v>
+      </c>
+      <c r="J305" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>304</v>
       </c>
@@ -9516,8 +12952,15 @@
       <c r="H306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I306" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #304.pdf</v>
+      </c>
+      <c r="J306" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>305</v>
       </c>
@@ -9542,8 +12985,15 @@
       <c r="H307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I307" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #305.pdf</v>
+      </c>
+      <c r="J307" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>306</v>
       </c>
@@ -9568,8 +13018,15 @@
       <c r="H308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I308" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #306.pdf</v>
+      </c>
+      <c r="J308" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>307</v>
       </c>
@@ -9594,8 +13051,15 @@
       <c r="H309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I309" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #307.pdf</v>
+      </c>
+      <c r="J309" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <v>308</v>
       </c>
@@ -9620,8 +13084,15 @@
       <c r="H310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I310" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #308.pdf</v>
+      </c>
+      <c r="J310" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>309</v>
       </c>
@@ -9646,8 +13117,15 @@
       <c r="H311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I311" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #309.pdf</v>
+      </c>
+      <c r="J311" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>310</v>
       </c>
@@ -9672,8 +13150,15 @@
       <c r="H312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I312" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #310.pdf</v>
+      </c>
+      <c r="J312" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>311</v>
       </c>
@@ -9698,8 +13183,15 @@
       <c r="H313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I313" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #311.pdf</v>
+      </c>
+      <c r="J313" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <v>312</v>
       </c>
@@ -9720,8 +13212,15 @@
       <c r="H314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I314" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #312.pdf</v>
+      </c>
+      <c r="J314" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>313</v>
       </c>
@@ -9746,8 +13245,15 @@
       <c r="H315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I315" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #313.pdf</v>
+      </c>
+      <c r="J315" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <v>314</v>
       </c>
@@ -9772,8 +13278,15 @@
       <c r="H316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I316" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #314.pdf</v>
+      </c>
+      <c r="J316" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <v>315</v>
       </c>
@@ -9798,8 +13311,15 @@
       <c r="H317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I317" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #315.pdf</v>
+      </c>
+      <c r="J317" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <v>316</v>
       </c>
@@ -9824,8 +13344,15 @@
       <c r="H318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I318" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #316.pdf</v>
+      </c>
+      <c r="J318" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>317</v>
       </c>
@@ -9850,8 +13377,15 @@
       <c r="H319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I319" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #317.pdf</v>
+      </c>
+      <c r="J319" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>318</v>
       </c>
@@ -9876,8 +13410,15 @@
       <c r="H320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I320" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #318.pdf</v>
+      </c>
+      <c r="J320" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>319</v>
       </c>
@@ -9902,8 +13443,15 @@
       <c r="H321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I321" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #319.pdf</v>
+      </c>
+      <c r="J321" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>320</v>
       </c>
@@ -9928,8 +13476,15 @@
       <c r="H322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I322" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #320.pdf</v>
+      </c>
+      <c r="J322" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>321</v>
       </c>
@@ -9954,8 +13509,15 @@
       <c r="H323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I323" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #321.pdf</v>
+      </c>
+      <c r="J323" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>322</v>
       </c>
@@ -9980,8 +13542,15 @@
       <c r="H324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I324" t="str">
+        <f t="shared" si="5"/>
+        <v>NA128/PS #322.pdf</v>
+      </c>
+      <c r="J324" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <v>323</v>
       </c>
@@ -10006,8 +13575,15 @@
       <c r="H325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I325" t="str">
+        <f t="shared" ref="I325:I388" si="6">_xlfn.CONCAT(J325,".pdf")</f>
+        <v>NA128/PS #323.pdf</v>
+      </c>
+      <c r="J325" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>324</v>
       </c>
@@ -10032,8 +13608,15 @@
       <c r="H326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I326" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #324.pdf</v>
+      </c>
+      <c r="J326" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>325</v>
       </c>
@@ -10058,8 +13641,15 @@
       <c r="H327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I327" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #325.pdf</v>
+      </c>
+      <c r="J327" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <v>326</v>
       </c>
@@ -10084,8 +13674,15 @@
       <c r="H328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I328" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #326.pdf</v>
+      </c>
+      <c r="J328" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>327</v>
       </c>
@@ -10110,8 +13707,15 @@
       <c r="H329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I329" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #327.pdf</v>
+      </c>
+      <c r="J329" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <v>328</v>
       </c>
@@ -10136,8 +13740,15 @@
       <c r="H330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I330" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #328.pdf</v>
+      </c>
+      <c r="J330" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <v>329</v>
       </c>
@@ -10162,8 +13773,15 @@
       <c r="H331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I331" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #329.pdf</v>
+      </c>
+      <c r="J331" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <v>330</v>
       </c>
@@ -10188,8 +13806,15 @@
       <c r="H332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I332" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #330.pdf</v>
+      </c>
+      <c r="J332" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <v>331</v>
       </c>
@@ -10214,8 +13839,15 @@
       <c r="H333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I333" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #331.pdf</v>
+      </c>
+      <c r="J333" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <v>332</v>
       </c>
@@ -10240,8 +13872,15 @@
       <c r="H334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I334" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #332.pdf</v>
+      </c>
+      <c r="J334" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>333</v>
       </c>
@@ -10262,8 +13901,15 @@
       <c r="H335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I335" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #333.pdf</v>
+      </c>
+      <c r="J335" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>334</v>
       </c>
@@ -10288,8 +13934,15 @@
       <c r="H336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I336" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #334.pdf</v>
+      </c>
+      <c r="J336" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <v>335</v>
       </c>
@@ -10314,8 +13967,15 @@
       <c r="H337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I337" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #335.pdf</v>
+      </c>
+      <c r="J337" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>336</v>
       </c>
@@ -10340,8 +14000,15 @@
       <c r="H338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I338" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #336.pdf</v>
+      </c>
+      <c r="J338" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>337</v>
       </c>
@@ -10366,8 +14033,15 @@
       <c r="H339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I339" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #337.pdf</v>
+      </c>
+      <c r="J339" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>338</v>
       </c>
@@ -10392,8 +14066,15 @@
       <c r="H340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I340" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #338.pdf</v>
+      </c>
+      <c r="J340" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>339</v>
       </c>
@@ -10418,8 +14099,15 @@
       <c r="H341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I341" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #339.pdf</v>
+      </c>
+      <c r="J341" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>340</v>
       </c>
@@ -10444,8 +14132,15 @@
       <c r="H342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I342" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #340.pdf</v>
+      </c>
+      <c r="J342" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>341</v>
       </c>
@@ -10470,8 +14165,15 @@
       <c r="H343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I343" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #341.pdf</v>
+      </c>
+      <c r="J343" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>342</v>
       </c>
@@ -10496,8 +14198,15 @@
       <c r="H344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I344" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #342.pdf</v>
+      </c>
+      <c r="J344" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>343</v>
       </c>
@@ -10518,8 +14227,15 @@
       <c r="H345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I345" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #343.pdf</v>
+      </c>
+      <c r="J345" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <v>344</v>
       </c>
@@ -10544,8 +14260,15 @@
       <c r="H346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I346" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #344.pdf</v>
+      </c>
+      <c r="J346" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <v>345</v>
       </c>
@@ -10570,8 +14293,15 @@
       <c r="H347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I347" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #345.pdf</v>
+      </c>
+      <c r="J347" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>346</v>
       </c>
@@ -10596,8 +14326,15 @@
       <c r="H348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I348" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #346.pdf</v>
+      </c>
+      <c r="J348" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>347</v>
       </c>
@@ -10622,8 +14359,15 @@
       <c r="H349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I349" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #347.pdf</v>
+      </c>
+      <c r="J349" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>348</v>
       </c>
@@ -10648,8 +14392,15 @@
       <c r="H350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I350" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #348.pdf</v>
+      </c>
+      <c r="J350" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>349</v>
       </c>
@@ -10674,8 +14425,15 @@
       <c r="H351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I351" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #349.pdf</v>
+      </c>
+      <c r="J351" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>350</v>
       </c>
@@ -10700,8 +14458,15 @@
       <c r="H352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I352" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #350.pdf</v>
+      </c>
+      <c r="J352" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>351</v>
       </c>
@@ -10726,8 +14491,15 @@
       <c r="H353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I353" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #351.pdf</v>
+      </c>
+      <c r="J353" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>352</v>
       </c>
@@ -10752,8 +14524,15 @@
       <c r="H354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I354" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #352.pdf</v>
+      </c>
+      <c r="J354" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>353</v>
       </c>
@@ -10778,8 +14557,15 @@
       <c r="H355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I355" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #353.pdf</v>
+      </c>
+      <c r="J355" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>354</v>
       </c>
@@ -10800,8 +14586,15 @@
       <c r="H356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I356" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #354.pdf</v>
+      </c>
+      <c r="J356" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <v>355</v>
       </c>
@@ -10826,8 +14619,15 @@
       <c r="H357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I357" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #355.pdf</v>
+      </c>
+      <c r="J357" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <v>356</v>
       </c>
@@ -10852,8 +14652,15 @@
       <c r="H358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I358" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #356.pdf</v>
+      </c>
+      <c r="J358" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <v>357</v>
       </c>
@@ -10878,8 +14685,15 @@
       <c r="H359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I359" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #357.pdf</v>
+      </c>
+      <c r="J359" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <v>358</v>
       </c>
@@ -10904,8 +14718,15 @@
       <c r="H360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I360" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #358.pdf</v>
+      </c>
+      <c r="J360" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <v>359</v>
       </c>
@@ -10926,8 +14747,15 @@
       <c r="H361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I361" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #359.pdf</v>
+      </c>
+      <c r="J361" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>360</v>
       </c>
@@ -10952,8 +14780,15 @@
       <c r="H362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I362" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #360.pdf</v>
+      </c>
+      <c r="J362" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <v>361</v>
       </c>
@@ -10978,8 +14813,15 @@
       <c r="H363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I363" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #361.pdf</v>
+      </c>
+      <c r="J363" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>362</v>
       </c>
@@ -11004,8 +14846,15 @@
       <c r="H364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I364" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #362.pdf</v>
+      </c>
+      <c r="J364" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>363</v>
       </c>
@@ -11030,8 +14879,15 @@
       <c r="H365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I365" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #363.pdf</v>
+      </c>
+      <c r="J365" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>364</v>
       </c>
@@ -11056,8 +14912,15 @@
       <c r="H366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I366" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #364.pdf</v>
+      </c>
+      <c r="J366" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <v>365</v>
       </c>
@@ -11082,8 +14945,15 @@
       <c r="H367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I367" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #365.pdf</v>
+      </c>
+      <c r="J367" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <v>366</v>
       </c>
@@ -11108,8 +14978,15 @@
       <c r="H368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I368" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #366.pdf</v>
+      </c>
+      <c r="J368" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>367</v>
       </c>
@@ -11134,8 +15011,15 @@
       <c r="H369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I369" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #367.pdf</v>
+      </c>
+      <c r="J369" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>368</v>
       </c>
@@ -11160,8 +15044,15 @@
       <c r="H370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I370" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #368.pdf</v>
+      </c>
+      <c r="J370" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>369</v>
       </c>
@@ -11186,8 +15077,15 @@
       <c r="H371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I371" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #369.pdf</v>
+      </c>
+      <c r="J371" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>370</v>
       </c>
@@ -11212,8 +15110,15 @@
       <c r="H372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I372" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #370.pdf</v>
+      </c>
+      <c r="J372" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>371</v>
       </c>
@@ -11238,8 +15143,15 @@
       <c r="H373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I373" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #371.pdf</v>
+      </c>
+      <c r="J373" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>372</v>
       </c>
@@ -11260,8 +15172,15 @@
       <c r="H374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I374" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #372.pdf</v>
+      </c>
+      <c r="J374" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>373</v>
       </c>
@@ -11286,8 +15205,15 @@
       <c r="H375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I375" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #373.pdf</v>
+      </c>
+      <c r="J375" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>374</v>
       </c>
@@ -11312,8 +15238,15 @@
       <c r="H376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I376" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #374.pdf</v>
+      </c>
+      <c r="J376" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>375</v>
       </c>
@@ -11338,8 +15271,15 @@
       <c r="H377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I377" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #375.pdf</v>
+      </c>
+      <c r="J377" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>376</v>
       </c>
@@ -11364,8 +15304,15 @@
       <c r="H378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I378" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #376.pdf</v>
+      </c>
+      <c r="J378" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>377</v>
       </c>
@@ -11390,8 +15337,15 @@
       <c r="H379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I379" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #377.pdf</v>
+      </c>
+      <c r="J379" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>378</v>
       </c>
@@ -11412,8 +15366,15 @@
       <c r="H380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I380" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #378.pdf</v>
+      </c>
+      <c r="J380" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>379</v>
       </c>
@@ -11438,8 +15399,15 @@
       <c r="H381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I381" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #379.pdf</v>
+      </c>
+      <c r="J381" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>380</v>
       </c>
@@ -11464,8 +15432,15 @@
       <c r="H382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I382" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #380.pdf</v>
+      </c>
+      <c r="J382" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>381</v>
       </c>
@@ -11490,8 +15465,15 @@
       <c r="H383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I383" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #381.pdf</v>
+      </c>
+      <c r="J383" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>382</v>
       </c>
@@ -11516,8 +15498,15 @@
       <c r="H384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I384" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #382.pdf</v>
+      </c>
+      <c r="J384" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>383</v>
       </c>
@@ -11542,8 +15531,15 @@
       <c r="H385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I385" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #383.pdf</v>
+      </c>
+      <c r="J385" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>384</v>
       </c>
@@ -11568,8 +15564,15 @@
       <c r="H386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I386" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #384.pdf</v>
+      </c>
+      <c r="J386" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <v>385</v>
       </c>
@@ -11594,8 +15597,15 @@
       <c r="H387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I387" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #385.pdf</v>
+      </c>
+      <c r="J387" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <v>386</v>
       </c>
@@ -11620,8 +15630,15 @@
       <c r="H388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I388" t="str">
+        <f t="shared" si="6"/>
+        <v>NA128/PS #386.pdf</v>
+      </c>
+      <c r="J388" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>387</v>
       </c>
@@ -11646,8 +15663,15 @@
       <c r="H389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I389" t="str">
+        <f t="shared" ref="I389:I435" si="7">_xlfn.CONCAT(J389,".pdf")</f>
+        <v>NA128/PS #387.pdf</v>
+      </c>
+      <c r="J389" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>388</v>
       </c>
@@ -11672,8 +15696,15 @@
       <c r="H390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I390" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #388.pdf</v>
+      </c>
+      <c r="J390" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <v>389</v>
       </c>
@@ -11698,8 +15729,15 @@
       <c r="H391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I391" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #389.pdf</v>
+      </c>
+      <c r="J391" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
         <v>390</v>
       </c>
@@ -11724,8 +15762,15 @@
       <c r="H392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I392" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #390.pdf</v>
+      </c>
+      <c r="J392" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
         <v>391</v>
       </c>
@@ -11750,8 +15795,15 @@
       <c r="H393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I393" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #391.pdf</v>
+      </c>
+      <c r="J393" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <v>392</v>
       </c>
@@ -11776,8 +15828,15 @@
       <c r="H394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I394" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #392.pdf</v>
+      </c>
+      <c r="J394" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <v>393</v>
       </c>
@@ -11802,8 +15861,15 @@
       <c r="H395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I395" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #393.pdf</v>
+      </c>
+      <c r="J395" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
         <v>394</v>
       </c>
@@ -11828,8 +15894,15 @@
       <c r="H396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I396" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #394.pdf</v>
+      </c>
+      <c r="J396" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
         <v>395</v>
       </c>
@@ -11854,8 +15927,15 @@
       <c r="H397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I397" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #395.pdf</v>
+      </c>
+      <c r="J397" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>396</v>
       </c>
@@ -11880,8 +15960,15 @@
       <c r="H398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I398" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #396.pdf</v>
+      </c>
+      <c r="J398" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <v>397</v>
       </c>
@@ -11906,8 +15993,15 @@
       <c r="H399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I399" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #397.pdf</v>
+      </c>
+      <c r="J399" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>398</v>
       </c>
@@ -11928,8 +16022,15 @@
       <c r="H400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I400" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #398.pdf</v>
+      </c>
+      <c r="J400" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>399</v>
       </c>
@@ -11954,8 +16055,15 @@
       <c r="H401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I401" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #399.pdf</v>
+      </c>
+      <c r="J401" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>400</v>
       </c>
@@ -11976,8 +16084,15 @@
       <c r="H402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I402" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #400.pdf</v>
+      </c>
+      <c r="J402" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>401</v>
       </c>
@@ -12002,8 +16117,15 @@
       <c r="H403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I403" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #401.pdf</v>
+      </c>
+      <c r="J403" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>402</v>
       </c>
@@ -12028,8 +16150,15 @@
       <c r="H404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I404" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #402.pdf</v>
+      </c>
+      <c r="J404" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>403</v>
       </c>
@@ -12054,8 +16183,15 @@
       <c r="H405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I405" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #403.pdf</v>
+      </c>
+      <c r="J405" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>404</v>
       </c>
@@ -12080,8 +16216,15 @@
       <c r="H406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I406" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #404.pdf</v>
+      </c>
+      <c r="J406" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>405</v>
       </c>
@@ -12102,8 +16245,15 @@
       <c r="H407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I407" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #405.pdf</v>
+      </c>
+      <c r="J407" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>406</v>
       </c>
@@ -12128,8 +16278,15 @@
       <c r="H408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I408" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #406.pdf</v>
+      </c>
+      <c r="J408" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>407</v>
       </c>
@@ -12154,8 +16311,15 @@
       <c r="H409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I409" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #407.pdf</v>
+      </c>
+      <c r="J409" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>408</v>
       </c>
@@ -12180,8 +16344,15 @@
       <c r="H410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I410" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #408.pdf</v>
+      </c>
+      <c r="J410" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>409</v>
       </c>
@@ -12206,8 +16377,15 @@
       <c r="H411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I411" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #409.pdf</v>
+      </c>
+      <c r="J411" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>410</v>
       </c>
@@ -12232,8 +16410,15 @@
       <c r="H412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I412" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #410.pdf</v>
+      </c>
+      <c r="J412" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>411</v>
       </c>
@@ -12258,8 +16443,15 @@
       <c r="H413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I413" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #411.pdf</v>
+      </c>
+      <c r="J413" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>412</v>
       </c>
@@ -12284,8 +16476,15 @@
       <c r="H414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I414" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #412.pdf</v>
+      </c>
+      <c r="J414" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>413</v>
       </c>
@@ -12310,8 +16509,15 @@
       <c r="H415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I415" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #413.pdf</v>
+      </c>
+      <c r="J415" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>414</v>
       </c>
@@ -12336,8 +16542,15 @@
       <c r="H416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I416" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #414.pdf</v>
+      </c>
+      <c r="J416" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>415</v>
       </c>
@@ -12362,8 +16575,15 @@
       <c r="H417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I417" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #415.pdf</v>
+      </c>
+      <c r="J417" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>416</v>
       </c>
@@ -12388,8 +16608,15 @@
       <c r="H418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I418" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #416.pdf</v>
+      </c>
+      <c r="J418" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
         <v>417</v>
       </c>
@@ -12414,8 +16641,15 @@
       <c r="H419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I419" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #417.pdf</v>
+      </c>
+      <c r="J419" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <v>418</v>
       </c>
@@ -12440,8 +16674,15 @@
       <c r="H420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I420" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #418.pdf</v>
+      </c>
+      <c r="J420" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <v>419</v>
       </c>
@@ -12466,8 +16707,15 @@
       <c r="H421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I421" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #419.pdf</v>
+      </c>
+      <c r="J421" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <v>420</v>
       </c>
@@ -12492,8 +16740,15 @@
       <c r="H422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I422" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #420.pdf</v>
+      </c>
+      <c r="J422" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
         <v>421</v>
       </c>
@@ -12518,8 +16773,15 @@
       <c r="H423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I423" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #421.pdf</v>
+      </c>
+      <c r="J423" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4">
         <v>422</v>
       </c>
@@ -12544,8 +16806,15 @@
       <c r="H424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I424" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #422.pdf</v>
+      </c>
+      <c r="J424" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4">
         <v>423</v>
       </c>
@@ -12570,8 +16839,15 @@
       <c r="H425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I425" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #423.pdf</v>
+      </c>
+      <c r="J425" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <v>424</v>
       </c>
@@ -12596,8 +16872,15 @@
       <c r="H426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I426" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #424.pdf</v>
+      </c>
+      <c r="J426" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4">
         <v>425</v>
       </c>
@@ -12622,8 +16905,15 @@
       <c r="H427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I427" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #425.pdf</v>
+      </c>
+      <c r="J427" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4">
         <v>426</v>
       </c>
@@ -12648,8 +16938,15 @@
       <c r="H428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I428" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #426.pdf</v>
+      </c>
+      <c r="J428" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4">
         <v>427</v>
       </c>
@@ -12674,8 +16971,15 @@
       <c r="H429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I429" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #427.pdf</v>
+      </c>
+      <c r="J429" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4">
         <v>428</v>
       </c>
@@ -12700,8 +17004,15 @@
       <c r="H430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I430" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #428.pdf</v>
+      </c>
+      <c r="J430" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4">
         <v>429</v>
       </c>
@@ -12726,8 +17037,15 @@
       <c r="H431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I431" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #429.pdf</v>
+      </c>
+      <c r="J431" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4">
         <v>430</v>
       </c>
@@ -12752,8 +17070,15 @@
       <c r="H432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I432" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #430.pdf</v>
+      </c>
+      <c r="J432" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <v>431</v>
       </c>
@@ -12778,8 +17103,15 @@
       <c r="H433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I433" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #431.pdf</v>
+      </c>
+      <c r="J433" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4">
         <v>432</v>
       </c>
@@ -12804,8 +17136,15 @@
       <c r="H434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I434" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #432.pdf</v>
+      </c>
+      <c r="J434" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4">
         <v>433</v>
       </c>
@@ -12830,80 +17169,87 @@
       <c r="H435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I435" t="str">
+        <f t="shared" si="7"/>
+        <v>NA128/PS #433.pdf</v>
+      </c>
+      <c r="J435" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
     </row>
-    <row r="438" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
     </row>
-    <row r="439" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
     </row>
-    <row r="440" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
     </row>
-    <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
     </row>
-    <row r="443" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
     </row>
-    <row r="444" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
     </row>
-    <row r="445" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
     </row>
-    <row r="446" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
     </row>
-    <row r="447" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
     </row>
-    <row r="448" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="4"/>
@@ -13156,6 +17502,7 @@
       <c r="D489" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/assets/xls/NAT/128.xlsx
+++ b/assets/xls/NAT/128.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\form45\assets\xls\NAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD418D52-534B-46CC-817E-2B1857AFCB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9D43B-3623-49FB-A2B4-392CBE112009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,1303 +1359,1303 @@
     <t>See Proof</t>
   </si>
   <si>
-    <t>NA128/PS #01</t>
-  </si>
-  <si>
-    <t>NA128/PS #02</t>
-  </si>
-  <si>
-    <t>NA128/PS #03</t>
-  </si>
-  <si>
-    <t>NA128/PS #04</t>
-  </si>
-  <si>
-    <t>NA128/PS #05</t>
-  </si>
-  <si>
-    <t>NA128/PS #06</t>
-  </si>
-  <si>
-    <t>NA128/PS #07</t>
-  </si>
-  <si>
-    <t>NA128/PS #08</t>
-  </si>
-  <si>
-    <t>NA128/PS #09</t>
-  </si>
-  <si>
-    <t>NA128/PS #10</t>
-  </si>
-  <si>
-    <t>NA128/PS #11</t>
-  </si>
-  <si>
-    <t>NA128/PS #12</t>
-  </si>
-  <si>
-    <t>NA128/PS #13</t>
-  </si>
-  <si>
-    <t>NA128/PS #14</t>
-  </si>
-  <si>
-    <t>NA128/PS #15</t>
-  </si>
-  <si>
-    <t>NA128/PS #16</t>
-  </si>
-  <si>
-    <t>NA128/PS #17</t>
-  </si>
-  <si>
-    <t>NA128/PS #18</t>
-  </si>
-  <si>
-    <t>NA128/PS #19</t>
-  </si>
-  <si>
-    <t>NA128/PS #20</t>
-  </si>
-  <si>
-    <t>NA128/PS #21</t>
-  </si>
-  <si>
-    <t>NA128/PS #22</t>
-  </si>
-  <si>
-    <t>NA128/PS #23</t>
-  </si>
-  <si>
-    <t>NA128/PS #24</t>
-  </si>
-  <si>
-    <t>NA128/PS #25</t>
-  </si>
-  <si>
-    <t>NA128/PS #26</t>
-  </si>
-  <si>
-    <t>NA128/PS #27</t>
-  </si>
-  <si>
-    <t>NA128/PS #28</t>
-  </si>
-  <si>
-    <t>NA128/PS #29</t>
-  </si>
-  <si>
-    <t>NA128/PS #30</t>
-  </si>
-  <si>
-    <t>NA128/PS #31</t>
-  </si>
-  <si>
-    <t>NA128/PS #32</t>
-  </si>
-  <si>
-    <t>NA128/PS #33</t>
-  </si>
-  <si>
-    <t>NA128/PS #34</t>
-  </si>
-  <si>
-    <t>NA128/PS #35</t>
-  </si>
-  <si>
-    <t>NA128/PS #36</t>
-  </si>
-  <si>
-    <t>NA128/PS #37</t>
-  </si>
-  <si>
-    <t>NA128/PS #38</t>
-  </si>
-  <si>
-    <t>NA128/PS #39</t>
-  </si>
-  <si>
-    <t>NA128/PS #40</t>
-  </si>
-  <si>
-    <t>NA128/PS #41</t>
-  </si>
-  <si>
-    <t>NA128/PS #42</t>
-  </si>
-  <si>
-    <t>NA128/PS #43</t>
-  </si>
-  <si>
-    <t>NA128/PS #44</t>
-  </si>
-  <si>
-    <t>NA128/PS #45</t>
-  </si>
-  <si>
-    <t>NA128/PS #46</t>
-  </si>
-  <si>
-    <t>NA128/PS #47</t>
-  </si>
-  <si>
-    <t>NA128/PS #48</t>
-  </si>
-  <si>
-    <t>NA128/PS #49</t>
-  </si>
-  <si>
-    <t>NA128/PS #50</t>
-  </si>
-  <si>
-    <t>NA128/PS #51</t>
-  </si>
-  <si>
-    <t>NA128/PS #52</t>
-  </si>
-  <si>
-    <t>NA128/PS #53</t>
-  </si>
-  <si>
-    <t>NA128/PS #54</t>
-  </si>
-  <si>
-    <t>NA128/PS #55</t>
-  </si>
-  <si>
-    <t>NA128/PS #56</t>
-  </si>
-  <si>
-    <t>NA128/PS #57</t>
-  </si>
-  <si>
-    <t>NA128/PS #58</t>
-  </si>
-  <si>
-    <t>NA128/PS #59</t>
-  </si>
-  <si>
-    <t>NA128/PS #60</t>
-  </si>
-  <si>
-    <t>NA128/PS #61</t>
-  </si>
-  <si>
-    <t>NA128/PS #62</t>
-  </si>
-  <si>
-    <t>NA128/PS #63</t>
-  </si>
-  <si>
-    <t>NA128/PS #64</t>
-  </si>
-  <si>
-    <t>NA128/PS #65</t>
-  </si>
-  <si>
-    <t>NA128/PS #66</t>
-  </si>
-  <si>
-    <t>NA128/PS #67</t>
-  </si>
-  <si>
-    <t>NA128/PS #68</t>
-  </si>
-  <si>
-    <t>NA128/PS #69</t>
-  </si>
-  <si>
-    <t>NA128/PS #70</t>
-  </si>
-  <si>
-    <t>NA128/PS #71</t>
-  </si>
-  <si>
-    <t>NA128/PS #72</t>
-  </si>
-  <si>
-    <t>NA128/PS #73</t>
-  </si>
-  <si>
-    <t>NA128/PS #74</t>
-  </si>
-  <si>
-    <t>NA128/PS #75</t>
-  </si>
-  <si>
-    <t>NA128/PS #76</t>
-  </si>
-  <si>
-    <t>NA128/PS #77</t>
-  </si>
-  <si>
-    <t>NA128/PS #78</t>
-  </si>
-  <si>
-    <t>NA128/PS #79</t>
-  </si>
-  <si>
-    <t>NA128/PS #80</t>
-  </si>
-  <si>
-    <t>NA128/PS #81</t>
-  </si>
-  <si>
-    <t>NA128/PS #82</t>
-  </si>
-  <si>
-    <t>NA128/PS #83</t>
-  </si>
-  <si>
-    <t>NA128/PS #84</t>
-  </si>
-  <si>
-    <t>NA128/PS #85</t>
-  </si>
-  <si>
-    <t>NA128/PS #86</t>
-  </si>
-  <si>
-    <t>NA128/PS #87</t>
-  </si>
-  <si>
-    <t>NA128/PS #88</t>
-  </si>
-  <si>
-    <t>NA128/PS #89</t>
-  </si>
-  <si>
-    <t>NA128/PS #90</t>
-  </si>
-  <si>
-    <t>NA128/PS #91</t>
-  </si>
-  <si>
-    <t>NA128/PS #92</t>
-  </si>
-  <si>
-    <t>NA128/PS #93</t>
-  </si>
-  <si>
-    <t>NA128/PS #94</t>
-  </si>
-  <si>
-    <t>NA128/PS #95</t>
-  </si>
-  <si>
-    <t>NA128/PS #96</t>
-  </si>
-  <si>
-    <t>NA128/PS #97</t>
-  </si>
-  <si>
-    <t>NA128/PS #98</t>
-  </si>
-  <si>
-    <t>NA128/PS #99</t>
-  </si>
-  <si>
-    <t>NA128/PS #100</t>
-  </si>
-  <si>
-    <t>NA128/PS #101</t>
-  </si>
-  <si>
-    <t>NA128/PS #102</t>
-  </si>
-  <si>
-    <t>NA128/PS #103</t>
-  </si>
-  <si>
-    <t>NA128/PS #104</t>
-  </si>
-  <si>
-    <t>NA128/PS #105</t>
-  </si>
-  <si>
-    <t>NA128/PS #106</t>
-  </si>
-  <si>
-    <t>NA128/PS #107</t>
-  </si>
-  <si>
-    <t>NA128/PS #108</t>
-  </si>
-  <si>
-    <t>NA128/PS #109</t>
-  </si>
-  <si>
-    <t>NA128/PS #110</t>
-  </si>
-  <si>
-    <t>NA128/PS #111</t>
-  </si>
-  <si>
-    <t>NA128/PS #112</t>
-  </si>
-  <si>
-    <t>NA128/PS #113</t>
-  </si>
-  <si>
-    <t>NA128/PS #114</t>
-  </si>
-  <si>
-    <t>NA128/PS #115</t>
-  </si>
-  <si>
-    <t>NA128/PS #116</t>
-  </si>
-  <si>
-    <t>NA128/PS #117</t>
-  </si>
-  <si>
-    <t>NA128/PS #118</t>
-  </si>
-  <si>
-    <t>NA128/PS #119</t>
-  </si>
-  <si>
-    <t>NA128/PS #120</t>
-  </si>
-  <si>
-    <t>NA128/PS #121</t>
-  </si>
-  <si>
-    <t>NA128/PS #122</t>
-  </si>
-  <si>
-    <t>NA128/PS #123</t>
-  </si>
-  <si>
-    <t>NA128/PS #124</t>
-  </si>
-  <si>
-    <t>NA128/PS #125</t>
-  </si>
-  <si>
-    <t>NA128/PS #126</t>
-  </si>
-  <si>
-    <t>NA128/PS #127</t>
-  </si>
-  <si>
-    <t>NA128/PS #128</t>
-  </si>
-  <si>
-    <t>NA128/PS #129</t>
-  </si>
-  <si>
-    <t>NA128/PS #130</t>
-  </si>
-  <si>
-    <t>NA128/PS #131</t>
-  </si>
-  <si>
-    <t>NA128/PS #132</t>
-  </si>
-  <si>
-    <t>NA128/PS #133</t>
-  </si>
-  <si>
-    <t>NA128/PS #134</t>
-  </si>
-  <si>
-    <t>NA128/PS #135</t>
-  </si>
-  <si>
-    <t>NA128/PS #136</t>
-  </si>
-  <si>
-    <t>NA128/PS #137</t>
-  </si>
-  <si>
-    <t>NA128/PS #138</t>
-  </si>
-  <si>
-    <t>NA128/PS #139</t>
-  </si>
-  <si>
-    <t>NA128/PS #140</t>
-  </si>
-  <si>
-    <t>NA128/PS #141</t>
-  </si>
-  <si>
-    <t>NA128/PS #142</t>
-  </si>
-  <si>
-    <t>NA128/PS #143</t>
-  </si>
-  <si>
-    <t>NA128/PS #144</t>
-  </si>
-  <si>
-    <t>NA128/PS #145</t>
-  </si>
-  <si>
-    <t>NA128/PS #146</t>
-  </si>
-  <si>
-    <t>NA128/PS #147</t>
-  </si>
-  <si>
-    <t>NA128/PS #148</t>
-  </si>
-  <si>
-    <t>NA128/PS #149</t>
-  </si>
-  <si>
-    <t>NA128/PS #150</t>
-  </si>
-  <si>
-    <t>NA128/PS #151</t>
-  </si>
-  <si>
-    <t>NA128/PS #152</t>
-  </si>
-  <si>
-    <t>NA128/PS #153</t>
-  </si>
-  <si>
-    <t>NA128/PS #154</t>
-  </si>
-  <si>
-    <t>NA128/PS #155</t>
-  </si>
-  <si>
-    <t>NA128/PS #156</t>
-  </si>
-  <si>
-    <t>NA128/PS #157</t>
-  </si>
-  <si>
-    <t>NA128/PS #158</t>
-  </si>
-  <si>
-    <t>NA128/PS #159</t>
-  </si>
-  <si>
-    <t>NA128/PS #160</t>
-  </si>
-  <si>
-    <t>NA128/PS #161</t>
-  </si>
-  <si>
-    <t>NA128/PS #162</t>
-  </si>
-  <si>
-    <t>NA128/PS #163</t>
-  </si>
-  <si>
-    <t>NA128/PS #164</t>
-  </si>
-  <si>
-    <t>NA128/PS #165</t>
-  </si>
-  <si>
-    <t>NA128/PS #166</t>
-  </si>
-  <si>
-    <t>NA128/PS #167</t>
-  </si>
-  <si>
-    <t>NA128/PS #168</t>
-  </si>
-  <si>
-    <t>NA128/PS #169</t>
-  </si>
-  <si>
-    <t>NA128/PS #170</t>
-  </si>
-  <si>
-    <t>NA128/PS #171</t>
-  </si>
-  <si>
-    <t>NA128/PS #172</t>
-  </si>
-  <si>
-    <t>NA128/PS #173</t>
-  </si>
-  <si>
-    <t>NA128/PS #174</t>
-  </si>
-  <si>
-    <t>NA128/PS #175</t>
-  </si>
-  <si>
-    <t>NA128/PS #176</t>
-  </si>
-  <si>
-    <t>NA128/PS #177</t>
-  </si>
-  <si>
-    <t>NA128/PS #178</t>
-  </si>
-  <si>
-    <t>NA128/PS #179</t>
-  </si>
-  <si>
-    <t>NA128/PS #180</t>
-  </si>
-  <si>
-    <t>NA128/PS #181</t>
-  </si>
-  <si>
-    <t>NA128/PS #182</t>
-  </si>
-  <si>
-    <t>NA128/PS #183</t>
-  </si>
-  <si>
-    <t>NA128/PS #184</t>
-  </si>
-  <si>
-    <t>NA128/PS #185</t>
-  </si>
-  <si>
-    <t>NA128/PS #186</t>
-  </si>
-  <si>
-    <t>NA128/PS #187</t>
-  </si>
-  <si>
-    <t>NA128/PS #188</t>
-  </si>
-  <si>
-    <t>NA128/PS #189</t>
-  </si>
-  <si>
-    <t>NA128/PS #190</t>
-  </si>
-  <si>
-    <t>NA128/PS #191</t>
-  </si>
-  <si>
-    <t>NA128/PS #192</t>
-  </si>
-  <si>
-    <t>NA128/PS #193</t>
-  </si>
-  <si>
-    <t>NA128/PS #194</t>
-  </si>
-  <si>
-    <t>NA128/PS #195</t>
-  </si>
-  <si>
-    <t>NA128/PS #196</t>
-  </si>
-  <si>
-    <t>NA128/PS #197</t>
-  </si>
-  <si>
-    <t>NA128/PS #198</t>
-  </si>
-  <si>
-    <t>NA128/PS #199</t>
-  </si>
-  <si>
-    <t>NA128/PS #200</t>
-  </si>
-  <si>
-    <t>NA128/PS #201</t>
-  </si>
-  <si>
-    <t>NA128/PS #202</t>
-  </si>
-  <si>
-    <t>NA128/PS #203</t>
-  </si>
-  <si>
-    <t>NA128/PS #204</t>
-  </si>
-  <si>
-    <t>NA128/PS #205</t>
-  </si>
-  <si>
-    <t>NA128/PS #206</t>
-  </si>
-  <si>
-    <t>NA128/PS #207</t>
-  </si>
-  <si>
-    <t>NA128/PS #208</t>
-  </si>
-  <si>
-    <t>NA128/PS #209</t>
-  </si>
-  <si>
-    <t>NA128/PS #210</t>
-  </si>
-  <si>
-    <t>NA128/PS #211</t>
-  </si>
-  <si>
-    <t>NA128/PS #212</t>
-  </si>
-  <si>
-    <t>NA128/PS #213</t>
-  </si>
-  <si>
-    <t>NA128/PS #214</t>
-  </si>
-  <si>
-    <t>NA128/PS #215</t>
-  </si>
-  <si>
-    <t>NA128/PS #216</t>
-  </si>
-  <si>
-    <t>NA128/PS #217</t>
-  </si>
-  <si>
-    <t>NA128/PS #218</t>
-  </si>
-  <si>
-    <t>NA128/PS #219</t>
-  </si>
-  <si>
-    <t>NA128/PS #220</t>
-  </si>
-  <si>
-    <t>NA128/PS #221</t>
-  </si>
-  <si>
-    <t>NA128/PS #222</t>
-  </si>
-  <si>
-    <t>NA128/PS #223</t>
-  </si>
-  <si>
-    <t>NA128/PS #224</t>
-  </si>
-  <si>
-    <t>NA128/PS #225</t>
-  </si>
-  <si>
-    <t>NA128/PS #226</t>
-  </si>
-  <si>
-    <t>NA128/PS #227</t>
-  </si>
-  <si>
-    <t>NA128/PS #228</t>
-  </si>
-  <si>
-    <t>NA128/PS #229</t>
-  </si>
-  <si>
-    <t>NA128/PS #230</t>
-  </si>
-  <si>
-    <t>NA128/PS #231</t>
-  </si>
-  <si>
-    <t>NA128/PS #232</t>
-  </si>
-  <si>
-    <t>NA128/PS #233</t>
-  </si>
-  <si>
-    <t>NA128/PS #234</t>
-  </si>
-  <si>
-    <t>NA128/PS #235</t>
-  </si>
-  <si>
-    <t>NA128/PS #236</t>
-  </si>
-  <si>
-    <t>NA128/PS #237</t>
-  </si>
-  <si>
-    <t>NA128/PS #238</t>
-  </si>
-  <si>
-    <t>NA128/PS #239</t>
-  </si>
-  <si>
-    <t>NA128/PS #240</t>
-  </si>
-  <si>
-    <t>NA128/PS #241</t>
-  </si>
-  <si>
-    <t>NA128/PS #242</t>
-  </si>
-  <si>
-    <t>NA128/PS #243</t>
-  </si>
-  <si>
-    <t>NA128/PS #244</t>
-  </si>
-  <si>
-    <t>NA128/PS #245</t>
-  </si>
-  <si>
-    <t>NA128/PS #246</t>
-  </si>
-  <si>
-    <t>NA128/PS #247</t>
-  </si>
-  <si>
-    <t>NA128/PS #248</t>
-  </si>
-  <si>
-    <t>NA128/PS #249</t>
-  </si>
-  <si>
-    <t>NA128/PS #250</t>
-  </si>
-  <si>
-    <t>NA128/PS #251</t>
-  </si>
-  <si>
-    <t>NA128/PS #252</t>
-  </si>
-  <si>
-    <t>NA128/PS #253</t>
-  </si>
-  <si>
-    <t>NA128/PS #254</t>
-  </si>
-  <si>
-    <t>NA128/PS #255</t>
-  </si>
-  <si>
-    <t>NA128/PS #256</t>
-  </si>
-  <si>
-    <t>NA128/PS #257</t>
-  </si>
-  <si>
-    <t>NA128/PS #258</t>
-  </si>
-  <si>
-    <t>NA128/PS #259</t>
-  </si>
-  <si>
-    <t>NA128/PS #260</t>
-  </si>
-  <si>
-    <t>NA128/PS #261</t>
-  </si>
-  <si>
-    <t>NA128/PS #262</t>
-  </si>
-  <si>
-    <t>NA128/PS #263</t>
-  </si>
-  <si>
-    <t>NA128/PS #264</t>
-  </si>
-  <si>
-    <t>NA128/PS #265</t>
-  </si>
-  <si>
-    <t>NA128/PS #266</t>
-  </si>
-  <si>
-    <t>NA128/PS #267</t>
-  </si>
-  <si>
-    <t>NA128/PS #268</t>
-  </si>
-  <si>
-    <t>NA128/PS #269</t>
-  </si>
-  <si>
-    <t>NA128/PS #270</t>
-  </si>
-  <si>
-    <t>NA128/PS #271</t>
-  </si>
-  <si>
-    <t>NA128/PS #272</t>
-  </si>
-  <si>
-    <t>NA128/PS #273</t>
-  </si>
-  <si>
-    <t>NA128/PS #274</t>
-  </si>
-  <si>
-    <t>NA128/PS #275</t>
-  </si>
-  <si>
-    <t>NA128/PS #276</t>
-  </si>
-  <si>
-    <t>NA128/PS #277</t>
-  </si>
-  <si>
-    <t>NA128/PS #278</t>
-  </si>
-  <si>
-    <t>NA128/PS #279</t>
-  </si>
-  <si>
-    <t>NA128/PS #280</t>
-  </si>
-  <si>
-    <t>NA128/PS #281</t>
-  </si>
-  <si>
-    <t>NA128/PS #282</t>
-  </si>
-  <si>
-    <t>NA128/PS #283</t>
-  </si>
-  <si>
-    <t>NA128/PS #284</t>
-  </si>
-  <si>
-    <t>NA128/PS #285</t>
-  </si>
-  <si>
-    <t>NA128/PS #286</t>
-  </si>
-  <si>
-    <t>NA128/PS #287</t>
-  </si>
-  <si>
-    <t>NA128/PS #288</t>
-  </si>
-  <si>
-    <t>NA128/PS #289</t>
-  </si>
-  <si>
-    <t>NA128/PS #290</t>
-  </si>
-  <si>
-    <t>NA128/PS #291</t>
-  </si>
-  <si>
-    <t>NA128/PS #292</t>
-  </si>
-  <si>
-    <t>NA128/PS #293</t>
-  </si>
-  <si>
-    <t>NA128/PS #294</t>
-  </si>
-  <si>
-    <t>NA128/PS #295</t>
-  </si>
-  <si>
-    <t>NA128/PS #296</t>
-  </si>
-  <si>
-    <t>NA128/PS #297</t>
-  </si>
-  <si>
-    <t>NA128/PS #298</t>
-  </si>
-  <si>
-    <t>NA128/PS #299</t>
-  </si>
-  <si>
-    <t>NA128/PS #300</t>
-  </si>
-  <si>
-    <t>NA128/PS #301</t>
-  </si>
-  <si>
-    <t>NA128/PS #302</t>
-  </si>
-  <si>
-    <t>NA128/PS #303</t>
-  </si>
-  <si>
-    <t>NA128/PS #304</t>
-  </si>
-  <si>
-    <t>NA128/PS #305</t>
-  </si>
-  <si>
-    <t>NA128/PS #306</t>
-  </si>
-  <si>
-    <t>NA128/PS #307</t>
-  </si>
-  <si>
-    <t>NA128/PS #308</t>
-  </si>
-  <si>
-    <t>NA128/PS #309</t>
-  </si>
-  <si>
-    <t>NA128/PS #310</t>
-  </si>
-  <si>
-    <t>NA128/PS #311</t>
-  </si>
-  <si>
-    <t>NA128/PS #312</t>
-  </si>
-  <si>
-    <t>NA128/PS #313</t>
-  </si>
-  <si>
-    <t>NA128/PS #314</t>
-  </si>
-  <si>
-    <t>NA128/PS #315</t>
-  </si>
-  <si>
-    <t>NA128/PS #316</t>
-  </si>
-  <si>
-    <t>NA128/PS #317</t>
-  </si>
-  <si>
-    <t>NA128/PS #318</t>
-  </si>
-  <si>
-    <t>NA128/PS #319</t>
-  </si>
-  <si>
-    <t>NA128/PS #320</t>
-  </si>
-  <si>
-    <t>NA128/PS #321</t>
-  </si>
-  <si>
-    <t>NA128/PS #322</t>
-  </si>
-  <si>
-    <t>NA128/PS #323</t>
-  </si>
-  <si>
-    <t>NA128/PS #324</t>
-  </si>
-  <si>
-    <t>NA128/PS #325</t>
-  </si>
-  <si>
-    <t>NA128/PS #326</t>
-  </si>
-  <si>
-    <t>NA128/PS #327</t>
-  </si>
-  <si>
-    <t>NA128/PS #328</t>
-  </si>
-  <si>
-    <t>NA128/PS #329</t>
-  </si>
-  <si>
-    <t>NA128/PS #330</t>
-  </si>
-  <si>
-    <t>NA128/PS #331</t>
-  </si>
-  <si>
-    <t>NA128/PS #332</t>
-  </si>
-  <si>
-    <t>NA128/PS #333</t>
-  </si>
-  <si>
-    <t>NA128/PS #334</t>
-  </si>
-  <si>
-    <t>NA128/PS #335</t>
-  </si>
-  <si>
-    <t>NA128/PS #336</t>
-  </si>
-  <si>
-    <t>NA128/PS #337</t>
-  </si>
-  <si>
-    <t>NA128/PS #338</t>
-  </si>
-  <si>
-    <t>NA128/PS #339</t>
-  </si>
-  <si>
-    <t>NA128/PS #340</t>
-  </si>
-  <si>
-    <t>NA128/PS #341</t>
-  </si>
-  <si>
-    <t>NA128/PS #342</t>
-  </si>
-  <si>
-    <t>NA128/PS #343</t>
-  </si>
-  <si>
-    <t>NA128/PS #344</t>
-  </si>
-  <si>
-    <t>NA128/PS #345</t>
-  </si>
-  <si>
-    <t>NA128/PS #346</t>
-  </si>
-  <si>
-    <t>NA128/PS #347</t>
-  </si>
-  <si>
-    <t>NA128/PS #348</t>
-  </si>
-  <si>
-    <t>NA128/PS #349</t>
-  </si>
-  <si>
-    <t>NA128/PS #350</t>
-  </si>
-  <si>
-    <t>NA128/PS #351</t>
-  </si>
-  <si>
-    <t>NA128/PS #352</t>
-  </si>
-  <si>
-    <t>NA128/PS #353</t>
-  </si>
-  <si>
-    <t>NA128/PS #354</t>
-  </si>
-  <si>
-    <t>NA128/PS #355</t>
-  </si>
-  <si>
-    <t>NA128/PS #356</t>
-  </si>
-  <si>
-    <t>NA128/PS #357</t>
-  </si>
-  <si>
-    <t>NA128/PS #358</t>
-  </si>
-  <si>
-    <t>NA128/PS #359</t>
-  </si>
-  <si>
-    <t>NA128/PS #360</t>
-  </si>
-  <si>
-    <t>NA128/PS #361</t>
-  </si>
-  <si>
-    <t>NA128/PS #362</t>
-  </si>
-  <si>
-    <t>NA128/PS #363</t>
-  </si>
-  <si>
-    <t>NA128/PS #364</t>
-  </si>
-  <si>
-    <t>NA128/PS #365</t>
-  </si>
-  <si>
-    <t>NA128/PS #366</t>
-  </si>
-  <si>
-    <t>NA128/PS #367</t>
-  </si>
-  <si>
-    <t>NA128/PS #368</t>
-  </si>
-  <si>
-    <t>NA128/PS #369</t>
-  </si>
-  <si>
-    <t>NA128/PS #370</t>
-  </si>
-  <si>
-    <t>NA128/PS #371</t>
-  </si>
-  <si>
-    <t>NA128/PS #372</t>
-  </si>
-  <si>
-    <t>NA128/PS #373</t>
-  </si>
-  <si>
-    <t>NA128/PS #374</t>
-  </si>
-  <si>
-    <t>NA128/PS #375</t>
-  </si>
-  <si>
-    <t>NA128/PS #376</t>
-  </si>
-  <si>
-    <t>NA128/PS #377</t>
-  </si>
-  <si>
-    <t>NA128/PS #378</t>
-  </si>
-  <si>
-    <t>NA128/PS #379</t>
-  </si>
-  <si>
-    <t>NA128/PS #380</t>
-  </si>
-  <si>
-    <t>NA128/PS #381</t>
-  </si>
-  <si>
-    <t>NA128/PS #382</t>
-  </si>
-  <si>
-    <t>NA128/PS #383</t>
-  </si>
-  <si>
-    <t>NA128/PS #384</t>
-  </si>
-  <si>
-    <t>NA128/PS #385</t>
-  </si>
-  <si>
-    <t>NA128/PS #386</t>
-  </si>
-  <si>
-    <t>NA128/PS #387</t>
-  </si>
-  <si>
-    <t>NA128/PS #388</t>
-  </si>
-  <si>
-    <t>NA128/PS #389</t>
-  </si>
-  <si>
-    <t>NA128/PS #390</t>
-  </si>
-  <si>
-    <t>NA128/PS #391</t>
-  </si>
-  <si>
-    <t>NA128/PS #392</t>
-  </si>
-  <si>
-    <t>NA128/PS #393</t>
-  </si>
-  <si>
-    <t>NA128/PS #394</t>
-  </si>
-  <si>
-    <t>NA128/PS #395</t>
-  </si>
-  <si>
-    <t>NA128/PS #396</t>
-  </si>
-  <si>
-    <t>NA128/PS #397</t>
-  </si>
-  <si>
-    <t>NA128/PS #398</t>
-  </si>
-  <si>
-    <t>NA128/PS #399</t>
-  </si>
-  <si>
-    <t>NA128/PS #400</t>
-  </si>
-  <si>
-    <t>NA128/PS #401</t>
-  </si>
-  <si>
-    <t>NA128/PS #402</t>
-  </si>
-  <si>
-    <t>NA128/PS #403</t>
-  </si>
-  <si>
-    <t>NA128/PS #404</t>
-  </si>
-  <si>
-    <t>NA128/PS #405</t>
-  </si>
-  <si>
-    <t>NA128/PS #406</t>
-  </si>
-  <si>
-    <t>NA128/PS #407</t>
-  </si>
-  <si>
-    <t>NA128/PS #408</t>
-  </si>
-  <si>
-    <t>NA128/PS #409</t>
-  </si>
-  <si>
-    <t>NA128/PS #410</t>
-  </si>
-  <si>
-    <t>NA128/PS #411</t>
-  </si>
-  <si>
-    <t>NA128/PS #412</t>
-  </si>
-  <si>
-    <t>NA128/PS #413</t>
-  </si>
-  <si>
-    <t>NA128/PS #414</t>
-  </si>
-  <si>
-    <t>NA128/PS #415</t>
-  </si>
-  <si>
-    <t>NA128/PS #416</t>
-  </si>
-  <si>
-    <t>NA128/PS #417</t>
-  </si>
-  <si>
-    <t>NA128/PS #418</t>
-  </si>
-  <si>
-    <t>NA128/PS #419</t>
-  </si>
-  <si>
-    <t>NA128/PS #420</t>
-  </si>
-  <si>
-    <t>NA128/PS #421</t>
-  </si>
-  <si>
-    <t>NA128/PS #422</t>
-  </si>
-  <si>
-    <t>NA128/PS #423</t>
-  </si>
-  <si>
-    <t>NA128/PS #424</t>
-  </si>
-  <si>
-    <t>NA128/PS #425</t>
-  </si>
-  <si>
-    <t>NA128/PS #426</t>
-  </si>
-  <si>
-    <t>NA128/PS #427</t>
-  </si>
-  <si>
-    <t>NA128/PS #428</t>
-  </si>
-  <si>
-    <t>NA128/PS #429</t>
-  </si>
-  <si>
-    <t>NA128/PS #430</t>
-  </si>
-  <si>
-    <t>NA128/PS #431</t>
-  </si>
-  <si>
-    <t>NA128/PS #432</t>
-  </si>
-  <si>
-    <t>NA128/PS #433</t>
+    <t>PS%20%2301</t>
+  </si>
+  <si>
+    <t>PS%20%2302</t>
+  </si>
+  <si>
+    <t>PS%20%2303</t>
+  </si>
+  <si>
+    <t>PS%20%2304</t>
+  </si>
+  <si>
+    <t>PS%20%2305</t>
+  </si>
+  <si>
+    <t>PS%20%2306</t>
+  </si>
+  <si>
+    <t>PS%20%2307</t>
+  </si>
+  <si>
+    <t>PS%20%2308</t>
+  </si>
+  <si>
+    <t>PS%20%2309</t>
+  </si>
+  <si>
+    <t>PS%20%2310</t>
+  </si>
+  <si>
+    <t>PS%20%2311</t>
+  </si>
+  <si>
+    <t>PS%20%2312</t>
+  </si>
+  <si>
+    <t>PS%20%2313</t>
+  </si>
+  <si>
+    <t>PS%20%2314</t>
+  </si>
+  <si>
+    <t>PS%20%2315</t>
+  </si>
+  <si>
+    <t>PS%20%2316</t>
+  </si>
+  <si>
+    <t>PS%20%2317</t>
+  </si>
+  <si>
+    <t>PS%20%2318</t>
+  </si>
+  <si>
+    <t>PS%20%2319</t>
+  </si>
+  <si>
+    <t>PS%20%2320</t>
+  </si>
+  <si>
+    <t>PS%20%2321</t>
+  </si>
+  <si>
+    <t>PS%20%2322</t>
+  </si>
+  <si>
+    <t>PS%20%2323</t>
+  </si>
+  <si>
+    <t>PS%20%2324</t>
+  </si>
+  <si>
+    <t>PS%20%2325</t>
+  </si>
+  <si>
+    <t>PS%20%2326</t>
+  </si>
+  <si>
+    <t>PS%20%2327</t>
+  </si>
+  <si>
+    <t>PS%20%2328</t>
+  </si>
+  <si>
+    <t>PS%20%2329</t>
+  </si>
+  <si>
+    <t>PS%20%2330</t>
+  </si>
+  <si>
+    <t>PS%20%2331</t>
+  </si>
+  <si>
+    <t>PS%20%2332</t>
+  </si>
+  <si>
+    <t>PS%20%2333</t>
+  </si>
+  <si>
+    <t>PS%20%2334</t>
+  </si>
+  <si>
+    <t>PS%20%2335</t>
+  </si>
+  <si>
+    <t>PS%20%2336</t>
+  </si>
+  <si>
+    <t>PS%20%2337</t>
+  </si>
+  <si>
+    <t>PS%20%2338</t>
+  </si>
+  <si>
+    <t>PS%20%2339</t>
+  </si>
+  <si>
+    <t>PS%20%2340</t>
+  </si>
+  <si>
+    <t>PS%20%2341</t>
+  </si>
+  <si>
+    <t>PS%20%2342</t>
+  </si>
+  <si>
+    <t>PS%20%2343</t>
+  </si>
+  <si>
+    <t>PS%20%2344</t>
+  </si>
+  <si>
+    <t>PS%20%2345</t>
+  </si>
+  <si>
+    <t>PS%20%2346</t>
+  </si>
+  <si>
+    <t>PS%20%2347</t>
+  </si>
+  <si>
+    <t>PS%20%2348</t>
+  </si>
+  <si>
+    <t>PS%20%2349</t>
+  </si>
+  <si>
+    <t>PS%20%2350</t>
+  </si>
+  <si>
+    <t>PS%20%2351</t>
+  </si>
+  <si>
+    <t>PS%20%2352</t>
+  </si>
+  <si>
+    <t>PS%20%2353</t>
+  </si>
+  <si>
+    <t>PS%20%2354</t>
+  </si>
+  <si>
+    <t>PS%20%2355</t>
+  </si>
+  <si>
+    <t>PS%20%2356</t>
+  </si>
+  <si>
+    <t>PS%20%2357</t>
+  </si>
+  <si>
+    <t>PS%20%2358</t>
+  </si>
+  <si>
+    <t>PS%20%2359</t>
+  </si>
+  <si>
+    <t>PS%20%2360</t>
+  </si>
+  <si>
+    <t>PS%20%2361</t>
+  </si>
+  <si>
+    <t>PS%20%2362</t>
+  </si>
+  <si>
+    <t>PS%20%2363</t>
+  </si>
+  <si>
+    <t>PS%20%2364</t>
+  </si>
+  <si>
+    <t>PS%20%2365</t>
+  </si>
+  <si>
+    <t>PS%20%2366</t>
+  </si>
+  <si>
+    <t>PS%20%2367</t>
+  </si>
+  <si>
+    <t>PS%20%2368</t>
+  </si>
+  <si>
+    <t>PS%20%2369</t>
+  </si>
+  <si>
+    <t>PS%20%2370</t>
+  </si>
+  <si>
+    <t>PS%20%2371</t>
+  </si>
+  <si>
+    <t>PS%20%2372</t>
+  </si>
+  <si>
+    <t>PS%20%2373</t>
+  </si>
+  <si>
+    <t>PS%20%2374</t>
+  </si>
+  <si>
+    <t>PS%20%2375</t>
+  </si>
+  <si>
+    <t>PS%20%2376</t>
+  </si>
+  <si>
+    <t>PS%20%2377</t>
+  </si>
+  <si>
+    <t>PS%20%2378</t>
+  </si>
+  <si>
+    <t>PS%20%2379</t>
+  </si>
+  <si>
+    <t>PS%20%2380</t>
+  </si>
+  <si>
+    <t>PS%20%2381</t>
+  </si>
+  <si>
+    <t>PS%20%2382</t>
+  </si>
+  <si>
+    <t>PS%20%2383</t>
+  </si>
+  <si>
+    <t>PS%20%2384</t>
+  </si>
+  <si>
+    <t>PS%20%2385</t>
+  </si>
+  <si>
+    <t>PS%20%2386</t>
+  </si>
+  <si>
+    <t>PS%20%2387</t>
+  </si>
+  <si>
+    <t>PS%20%2388</t>
+  </si>
+  <si>
+    <t>PS%20%2389</t>
+  </si>
+  <si>
+    <t>PS%20%2390</t>
+  </si>
+  <si>
+    <t>PS%20%2391</t>
+  </si>
+  <si>
+    <t>PS%20%2392</t>
+  </si>
+  <si>
+    <t>PS%20%2393</t>
+  </si>
+  <si>
+    <t>PS%20%2394</t>
+  </si>
+  <si>
+    <t>PS%20%2395</t>
+  </si>
+  <si>
+    <t>PS%20%2396</t>
+  </si>
+  <si>
+    <t>PS%20%2397</t>
+  </si>
+  <si>
+    <t>PS%20%2398</t>
+  </si>
+  <si>
+    <t>PS%20%2399</t>
+  </si>
+  <si>
+    <t>PS%20%23100</t>
+  </si>
+  <si>
+    <t>PS%20%23101</t>
+  </si>
+  <si>
+    <t>PS%20%23103</t>
+  </si>
+  <si>
+    <t>PS%20%23104</t>
+  </si>
+  <si>
+    <t>PS%20%23102</t>
+  </si>
+  <si>
+    <t>PS%20%23105</t>
+  </si>
+  <si>
+    <t>PS%20%23106</t>
+  </si>
+  <si>
+    <t>PS%20%23107</t>
+  </si>
+  <si>
+    <t>PS%20%23108</t>
+  </si>
+  <si>
+    <t>PS%20%23109</t>
+  </si>
+  <si>
+    <t>PS%20%23110</t>
+  </si>
+  <si>
+    <t>PS%20%23111</t>
+  </si>
+  <si>
+    <t>PS%20%23112</t>
+  </si>
+  <si>
+    <t>PS%20%23113</t>
+  </si>
+  <si>
+    <t>PS%20%23114</t>
+  </si>
+  <si>
+    <t>PS%20%23115</t>
+  </si>
+  <si>
+    <t>PS%20%23116</t>
+  </si>
+  <si>
+    <t>PS%20%23117</t>
+  </si>
+  <si>
+    <t>PS%20%23118</t>
+  </si>
+  <si>
+    <t>PS%20%23119</t>
+  </si>
+  <si>
+    <t>PS%20%23120</t>
+  </si>
+  <si>
+    <t>PS%20%23121</t>
+  </si>
+  <si>
+    <t>PS%20%23122</t>
+  </si>
+  <si>
+    <t>PS%20%23123</t>
+  </si>
+  <si>
+    <t>PS%20%23124</t>
+  </si>
+  <si>
+    <t>PS%20%23125</t>
+  </si>
+  <si>
+    <t>PS%20%23126</t>
+  </si>
+  <si>
+    <t>PS%20%23127</t>
+  </si>
+  <si>
+    <t>PS%20%23128</t>
+  </si>
+  <si>
+    <t>PS%20%23129</t>
+  </si>
+  <si>
+    <t>PS%20%23130</t>
+  </si>
+  <si>
+    <t>PS%20%23131</t>
+  </si>
+  <si>
+    <t>PS%20%23132</t>
+  </si>
+  <si>
+    <t>PS%20%23133</t>
+  </si>
+  <si>
+    <t>PS%20%23134</t>
+  </si>
+  <si>
+    <t>PS%20%23135</t>
+  </si>
+  <si>
+    <t>PS%20%23136</t>
+  </si>
+  <si>
+    <t>PS%20%23137</t>
+  </si>
+  <si>
+    <t>PS%20%23138</t>
+  </si>
+  <si>
+    <t>PS%20%23139</t>
+  </si>
+  <si>
+    <t>PS%20%23140</t>
+  </si>
+  <si>
+    <t>PS%20%23141</t>
+  </si>
+  <si>
+    <t>PS%20%23142</t>
+  </si>
+  <si>
+    <t>PS%20%23143</t>
+  </si>
+  <si>
+    <t>PS%20%23144</t>
+  </si>
+  <si>
+    <t>PS%20%23145</t>
+  </si>
+  <si>
+    <t>PS%20%23146</t>
+  </si>
+  <si>
+    <t>PS%20%23147</t>
+  </si>
+  <si>
+    <t>PS%20%23148</t>
+  </si>
+  <si>
+    <t>PS%20%23149</t>
+  </si>
+  <si>
+    <t>PS%20%23150</t>
+  </si>
+  <si>
+    <t>PS%20%23151</t>
+  </si>
+  <si>
+    <t>PS%20%23152</t>
+  </si>
+  <si>
+    <t>PS%20%23153</t>
+  </si>
+  <si>
+    <t>PS%20%23154</t>
+  </si>
+  <si>
+    <t>PS%20%23155</t>
+  </si>
+  <si>
+    <t>PS%20%23156</t>
+  </si>
+  <si>
+    <t>PS%20%23157</t>
+  </si>
+  <si>
+    <t>PS%20%23158</t>
+  </si>
+  <si>
+    <t>PS%20%23159</t>
+  </si>
+  <si>
+    <t>PS%20%23160</t>
+  </si>
+  <si>
+    <t>PS%20%23161</t>
+  </si>
+  <si>
+    <t>PS%20%23162</t>
+  </si>
+  <si>
+    <t>PS%20%23163</t>
+  </si>
+  <si>
+    <t>PS%20%23164</t>
+  </si>
+  <si>
+    <t>PS%20%23165</t>
+  </si>
+  <si>
+    <t>PS%20%23166</t>
+  </si>
+  <si>
+    <t>PS%20%23167</t>
+  </si>
+  <si>
+    <t>PS%20%23168</t>
+  </si>
+  <si>
+    <t>PS%20%23169</t>
+  </si>
+  <si>
+    <t>PS%20%23170</t>
+  </si>
+  <si>
+    <t>PS%20%23171</t>
+  </si>
+  <si>
+    <t>PS%20%23172</t>
+  </si>
+  <si>
+    <t>PS%20%23173</t>
+  </si>
+  <si>
+    <t>PS%20%23174</t>
+  </si>
+  <si>
+    <t>PS%20%23175</t>
+  </si>
+  <si>
+    <t>PS%20%23176</t>
+  </si>
+  <si>
+    <t>PS%20%23177</t>
+  </si>
+  <si>
+    <t>PS%20%23178</t>
+  </si>
+  <si>
+    <t>PS%20%23179</t>
+  </si>
+  <si>
+    <t>PS%20%23180</t>
+  </si>
+  <si>
+    <t>PS%20%23181</t>
+  </si>
+  <si>
+    <t>PS%20%23182</t>
+  </si>
+  <si>
+    <t>PS%20%23183</t>
+  </si>
+  <si>
+    <t>PS%20%23184</t>
+  </si>
+  <si>
+    <t>PS%20%23185</t>
+  </si>
+  <si>
+    <t>PS%20%23186</t>
+  </si>
+  <si>
+    <t>PS%20%23187</t>
+  </si>
+  <si>
+    <t>PS%20%23188</t>
+  </si>
+  <si>
+    <t>PS%20%23189</t>
+  </si>
+  <si>
+    <t>PS%20%23190</t>
+  </si>
+  <si>
+    <t>PS%20%23191</t>
+  </si>
+  <si>
+    <t>PS%20%23192</t>
+  </si>
+  <si>
+    <t>PS%20%23193</t>
+  </si>
+  <si>
+    <t>PS%20%23194</t>
+  </si>
+  <si>
+    <t>PS%20%23195</t>
+  </si>
+  <si>
+    <t>PS%20%23196</t>
+  </si>
+  <si>
+    <t>PS%20%23197</t>
+  </si>
+  <si>
+    <t>PS%20%23198</t>
+  </si>
+  <si>
+    <t>PS%20%23199</t>
+  </si>
+  <si>
+    <t>PS%20%23200</t>
+  </si>
+  <si>
+    <t>PS%20%23201</t>
+  </si>
+  <si>
+    <t>PS%20%23202</t>
+  </si>
+  <si>
+    <t>PS%20%23203</t>
+  </si>
+  <si>
+    <t>PS%20%23204</t>
+  </si>
+  <si>
+    <t>PS%20%23205</t>
+  </si>
+  <si>
+    <t>PS%20%23206</t>
+  </si>
+  <si>
+    <t>PS%20%23207</t>
+  </si>
+  <si>
+    <t>PS%20%23208</t>
+  </si>
+  <si>
+    <t>PS%20%23209</t>
+  </si>
+  <si>
+    <t>PS%20%23210</t>
+  </si>
+  <si>
+    <t>PS%20%23211</t>
+  </si>
+  <si>
+    <t>PS%20%23212</t>
+  </si>
+  <si>
+    <t>PS%20%23213</t>
+  </si>
+  <si>
+    <t>PS%20%23214</t>
+  </si>
+  <si>
+    <t>PS%20%23215</t>
+  </si>
+  <si>
+    <t>PS%20%23216</t>
+  </si>
+  <si>
+    <t>PS%20%23217</t>
+  </si>
+  <si>
+    <t>PS%20%23218</t>
+  </si>
+  <si>
+    <t>PS%20%23219</t>
+  </si>
+  <si>
+    <t>PS%20%23220</t>
+  </si>
+  <si>
+    <t>PS%20%23221</t>
+  </si>
+  <si>
+    <t>PS%20%23222</t>
+  </si>
+  <si>
+    <t>PS%20%23223</t>
+  </si>
+  <si>
+    <t>PS%20%23224</t>
+  </si>
+  <si>
+    <t>PS%20%23225</t>
+  </si>
+  <si>
+    <t>PS%20%23226</t>
+  </si>
+  <si>
+    <t>PS%20%23227</t>
+  </si>
+  <si>
+    <t>PS%20%23228</t>
+  </si>
+  <si>
+    <t>PS%20%23229</t>
+  </si>
+  <si>
+    <t>PS%20%23230</t>
+  </si>
+  <si>
+    <t>PS%20%23231</t>
+  </si>
+  <si>
+    <t>PS%20%23232</t>
+  </si>
+  <si>
+    <t>PS%20%23233</t>
+  </si>
+  <si>
+    <t>PS%20%23234</t>
+  </si>
+  <si>
+    <t>PS%20%23235</t>
+  </si>
+  <si>
+    <t>PS%20%23236</t>
+  </si>
+  <si>
+    <t>PS%20%23237</t>
+  </si>
+  <si>
+    <t>PS%20%23238</t>
+  </si>
+  <si>
+    <t>PS%20%23239</t>
+  </si>
+  <si>
+    <t>PS%20%23240</t>
+  </si>
+  <si>
+    <t>PS%20%23241</t>
+  </si>
+  <si>
+    <t>PS%20%23242</t>
+  </si>
+  <si>
+    <t>PS%20%23243</t>
+  </si>
+  <si>
+    <t>PS%20%23244</t>
+  </si>
+  <si>
+    <t>PS%20%23245</t>
+  </si>
+  <si>
+    <t>PS%20%23246</t>
+  </si>
+  <si>
+    <t>PS%20%23247</t>
+  </si>
+  <si>
+    <t>PS%20%23248</t>
+  </si>
+  <si>
+    <t>PS%20%23249</t>
+  </si>
+  <si>
+    <t>PS%20%23250</t>
+  </si>
+  <si>
+    <t>PS%20%23251</t>
+  </si>
+  <si>
+    <t>PS%20%23252</t>
+  </si>
+  <si>
+    <t>PS%20%23253</t>
+  </si>
+  <si>
+    <t>PS%20%23254</t>
+  </si>
+  <si>
+    <t>PS%20%23255</t>
+  </si>
+  <si>
+    <t>PS%20%23256</t>
+  </si>
+  <si>
+    <t>PS%20%23257</t>
+  </si>
+  <si>
+    <t>PS%20%23258</t>
+  </si>
+  <si>
+    <t>PS%20%23259</t>
+  </si>
+  <si>
+    <t>PS%20%23260</t>
+  </si>
+  <si>
+    <t>PS%20%23261</t>
+  </si>
+  <si>
+    <t>PS%20%23262</t>
+  </si>
+  <si>
+    <t>PS%20%23263</t>
+  </si>
+  <si>
+    <t>PS%20%23264</t>
+  </si>
+  <si>
+    <t>PS%20%23265</t>
+  </si>
+  <si>
+    <t>PS%20%23266</t>
+  </si>
+  <si>
+    <t>PS%20%23267</t>
+  </si>
+  <si>
+    <t>PS%20%23268</t>
+  </si>
+  <si>
+    <t>PS%20%23269</t>
+  </si>
+  <si>
+    <t>PS%20%23270</t>
+  </si>
+  <si>
+    <t>PS%20%23271</t>
+  </si>
+  <si>
+    <t>PS%20%23272</t>
+  </si>
+  <si>
+    <t>PS%20%23273</t>
+  </si>
+  <si>
+    <t>PS%20%23274</t>
+  </si>
+  <si>
+    <t>PS%20%23275</t>
+  </si>
+  <si>
+    <t>PS%20%23276</t>
+  </si>
+  <si>
+    <t>PS%20%23277</t>
+  </si>
+  <si>
+    <t>PS%20%23278</t>
+  </si>
+  <si>
+    <t>PS%20%23279</t>
+  </si>
+  <si>
+    <t>PS%20%23280</t>
+  </si>
+  <si>
+    <t>PS%20%23281</t>
+  </si>
+  <si>
+    <t>PS%20%23282</t>
+  </si>
+  <si>
+    <t>PS%20%23283</t>
+  </si>
+  <si>
+    <t>PS%20%23284</t>
+  </si>
+  <si>
+    <t>PS%20%23285</t>
+  </si>
+  <si>
+    <t>PS%20%23286</t>
+  </si>
+  <si>
+    <t>PS%20%23287</t>
+  </si>
+  <si>
+    <t>PS%20%23288</t>
+  </si>
+  <si>
+    <t>PS%20%23289</t>
+  </si>
+  <si>
+    <t>PS%20%23290</t>
+  </si>
+  <si>
+    <t>PS%20%23291</t>
+  </si>
+  <si>
+    <t>PS%20%23292</t>
+  </si>
+  <si>
+    <t>PS%20%23293</t>
+  </si>
+  <si>
+    <t>PS%20%23294</t>
+  </si>
+  <si>
+    <t>PS%20%23295</t>
+  </si>
+  <si>
+    <t>PS%20%23296</t>
+  </si>
+  <si>
+    <t>PS%20%23297</t>
+  </si>
+  <si>
+    <t>PS%20%23298</t>
+  </si>
+  <si>
+    <t>PS%20%23299</t>
+  </si>
+  <si>
+    <t>PS%20%23300</t>
+  </si>
+  <si>
+    <t>PS%20%23301</t>
+  </si>
+  <si>
+    <t>PS%20%23302</t>
+  </si>
+  <si>
+    <t>PS%20%23303</t>
+  </si>
+  <si>
+    <t>PS%20%23304</t>
+  </si>
+  <si>
+    <t>PS%20%23305</t>
+  </si>
+  <si>
+    <t>PS%20%23306</t>
+  </si>
+  <si>
+    <t>PS%20%23307</t>
+  </si>
+  <si>
+    <t>PS%20%23308</t>
+  </si>
+  <si>
+    <t>PS%20%23309</t>
+  </si>
+  <si>
+    <t>PS%20%23310</t>
+  </si>
+  <si>
+    <t>PS%20%23311</t>
+  </si>
+  <si>
+    <t>PS%20%23312</t>
+  </si>
+  <si>
+    <t>PS%20%23313</t>
+  </si>
+  <si>
+    <t>PS%20%23314</t>
+  </si>
+  <si>
+    <t>PS%20%23315</t>
+  </si>
+  <si>
+    <t>PS%20%23316</t>
+  </si>
+  <si>
+    <t>PS%20%23317</t>
+  </si>
+  <si>
+    <t>PS%20%23318</t>
+  </si>
+  <si>
+    <t>PS%20%23319</t>
+  </si>
+  <si>
+    <t>PS%20%23320</t>
+  </si>
+  <si>
+    <t>PS%20%23321</t>
+  </si>
+  <si>
+    <t>PS%20%23322</t>
+  </si>
+  <si>
+    <t>PS%20%23323</t>
+  </si>
+  <si>
+    <t>PS%20%23324</t>
+  </si>
+  <si>
+    <t>PS%20%23325</t>
+  </si>
+  <si>
+    <t>PS%20%23326</t>
+  </si>
+  <si>
+    <t>PS%20%23327</t>
+  </si>
+  <si>
+    <t>PS%20%23328</t>
+  </si>
+  <si>
+    <t>PS%20%23329</t>
+  </si>
+  <si>
+    <t>PS%20%23330</t>
+  </si>
+  <si>
+    <t>PS%20%23331</t>
+  </si>
+  <si>
+    <t>PS%20%23332</t>
+  </si>
+  <si>
+    <t>PS%20%23333</t>
+  </si>
+  <si>
+    <t>PS%20%23334</t>
+  </si>
+  <si>
+    <t>PS%20%23335</t>
+  </si>
+  <si>
+    <t>PS%20%23336</t>
+  </si>
+  <si>
+    <t>PS%20%23337</t>
+  </si>
+  <si>
+    <t>PS%20%23338</t>
+  </si>
+  <si>
+    <t>PS%20%23339</t>
+  </si>
+  <si>
+    <t>PS%20%23340</t>
+  </si>
+  <si>
+    <t>PS%20%23341</t>
+  </si>
+  <si>
+    <t>PS%20%23342</t>
+  </si>
+  <si>
+    <t>PS%20%23343</t>
+  </si>
+  <si>
+    <t>PS%20%23344</t>
+  </si>
+  <si>
+    <t>PS%20%23345</t>
+  </si>
+  <si>
+    <t>PS%20%23346</t>
+  </si>
+  <si>
+    <t>PS%20%23347</t>
+  </si>
+  <si>
+    <t>PS%20%23348</t>
+  </si>
+  <si>
+    <t>PS%20%23349</t>
+  </si>
+  <si>
+    <t>PS%20%23350</t>
+  </si>
+  <si>
+    <t>PS%20%23351</t>
+  </si>
+  <si>
+    <t>PS%20%23352</t>
+  </si>
+  <si>
+    <t>PS%20%23353</t>
+  </si>
+  <si>
+    <t>PS%20%23354</t>
+  </si>
+  <si>
+    <t>PS%20%23355</t>
+  </si>
+  <si>
+    <t>PS%20%23356</t>
+  </si>
+  <si>
+    <t>PS%20%23357</t>
+  </si>
+  <si>
+    <t>PS%20%23358</t>
+  </si>
+  <si>
+    <t>PS%20%23359</t>
+  </si>
+  <si>
+    <t>PS%20%23360</t>
+  </si>
+  <si>
+    <t>PS%20%23361</t>
+  </si>
+  <si>
+    <t>PS%20%23362</t>
+  </si>
+  <si>
+    <t>PS%20%23363</t>
+  </si>
+  <si>
+    <t>PS%20%23364</t>
+  </si>
+  <si>
+    <t>PS%20%23365</t>
+  </si>
+  <si>
+    <t>PS%20%23366</t>
+  </si>
+  <si>
+    <t>PS%20%23367</t>
+  </si>
+  <si>
+    <t>PS%20%23368</t>
+  </si>
+  <si>
+    <t>PS%20%23369</t>
+  </si>
+  <si>
+    <t>PS%20%23370</t>
+  </si>
+  <si>
+    <t>PS%20%23371</t>
+  </si>
+  <si>
+    <t>PS%20%23372</t>
+  </si>
+  <si>
+    <t>PS%20%23373</t>
+  </si>
+  <si>
+    <t>PS%20%23374</t>
+  </si>
+  <si>
+    <t>PS%20%23375</t>
+  </si>
+  <si>
+    <t>PS%20%23376</t>
+  </si>
+  <si>
+    <t>PS%20%23377</t>
+  </si>
+  <si>
+    <t>PS%20%23378</t>
+  </si>
+  <si>
+    <t>PS%20%23379</t>
+  </si>
+  <si>
+    <t>PS%20%23380</t>
+  </si>
+  <si>
+    <t>PS%20%23381</t>
+  </si>
+  <si>
+    <t>PS%20%23382</t>
+  </si>
+  <si>
+    <t>PS%20%23383</t>
+  </si>
+  <si>
+    <t>PS%20%23384</t>
+  </si>
+  <si>
+    <t>PS%20%23385</t>
+  </si>
+  <si>
+    <t>PS%20%23386</t>
+  </si>
+  <si>
+    <t>PS%20%23387</t>
+  </si>
+  <si>
+    <t>PS%20%23388</t>
+  </si>
+  <si>
+    <t>PS%20%23389</t>
+  </si>
+  <si>
+    <t>PS%20%23390</t>
+  </si>
+  <si>
+    <t>PS%20%23391</t>
+  </si>
+  <si>
+    <t>PS%20%23392</t>
+  </si>
+  <si>
+    <t>PS%20%23393</t>
+  </si>
+  <si>
+    <t>PS%20%23394</t>
+  </si>
+  <si>
+    <t>PS%20%23395</t>
+  </si>
+  <si>
+    <t>PS%20%23396</t>
+  </si>
+  <si>
+    <t>PS%20%23397</t>
+  </si>
+  <si>
+    <t>PS%20%23398</t>
+  </si>
+  <si>
+    <t>PS%20%23399</t>
+  </si>
+  <si>
+    <t>PS%20%23400</t>
+  </si>
+  <si>
+    <t>PS%20%23401</t>
+  </si>
+  <si>
+    <t>PS%20%23402</t>
+  </si>
+  <si>
+    <t>PS%20%23403</t>
+  </si>
+  <si>
+    <t>PS%20%23404</t>
+  </si>
+  <si>
+    <t>PS%20%23405</t>
+  </si>
+  <si>
+    <t>PS%20%23406</t>
+  </si>
+  <si>
+    <t>PS%20%23407</t>
+  </si>
+  <si>
+    <t>PS%20%23408</t>
+  </si>
+  <si>
+    <t>PS%20%23409</t>
+  </si>
+  <si>
+    <t>PS%20%23410</t>
+  </si>
+  <si>
+    <t>PS%20%23411</t>
+  </si>
+  <si>
+    <t>PS%20%23412</t>
+  </si>
+  <si>
+    <t>PS%20%23413</t>
+  </si>
+  <si>
+    <t>PS%20%23414</t>
+  </si>
+  <si>
+    <t>PS%20%23415</t>
+  </si>
+  <si>
+    <t>PS%20%23416</t>
+  </si>
+  <si>
+    <t>PS%20%23417</t>
+  </si>
+  <si>
+    <t>PS%20%23418</t>
+  </si>
+  <si>
+    <t>PS%20%23419</t>
+  </si>
+  <si>
+    <t>PS%20%23420</t>
+  </si>
+  <si>
+    <t>PS%20%23421</t>
+  </si>
+  <si>
+    <t>PS%20%23422</t>
+  </si>
+  <si>
+    <t>PS%20%23423</t>
+  </si>
+  <si>
+    <t>PS%20%23424</t>
+  </si>
+  <si>
+    <t>PS%20%23425</t>
+  </si>
+  <si>
+    <t>PS%20%23426</t>
+  </si>
+  <si>
+    <t>PS%20%23427</t>
+  </si>
+  <si>
+    <t>PS%20%23428</t>
+  </si>
+  <si>
+    <t>PS%20%23429</t>
+  </si>
+  <si>
+    <t>PS%20%23430</t>
+  </si>
+  <si>
+    <t>PS%20%23431</t>
+  </si>
+  <si>
+    <t>PS%20%23432</t>
+  </si>
+  <si>
+    <t>PS%20%23433</t>
   </si>
 </sst>
 </file>
@@ -2980,7 +2980,7 @@
   <dimension ref="A1:J489"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2988,7 +2988,7 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="99.140625" customWidth="1"/>
     <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="9" max="9" width="94.28515625" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3078,8 +3078,8 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f>_xlfn.CONCAT(J3,".pdf")</f>
-        <v>NA128/PS #01.pdf</v>
+        <f>_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J3,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2301.pdf</v>
       </c>
       <c r="J3" t="s">
         <v>442</v>
@@ -3111,8 +3111,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="str">
-        <f>_xlfn.CONCAT(J4,".pdf")</f>
-        <v>NA128/PS #02.pdf</v>
+        <f>_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J4,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2302.pdf</v>
       </c>
       <c r="J4" t="s">
         <v>443</v>
@@ -3144,8 +3144,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT(J5,".pdf")</f>
-        <v>NA128/PS #03.pdf</v>
+        <f>_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J5,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2303.pdf</v>
       </c>
       <c r="J5" t="s">
         <v>444</v>
@@ -3177,8 +3177,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>NA128/PS #04.pdf</v>
+        <f t="shared" ref="I6:I69" si="1">_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J6,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2304.pdf</v>
       </c>
       <c r="J6" t="s">
         <v>445</v>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #05.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2305.pdf</v>
       </c>
       <c r="J7" t="s">
         <v>446</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #06.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2306.pdf</v>
       </c>
       <c r="J8" t="s">
         <v>447</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #07.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2307.pdf</v>
       </c>
       <c r="J9" t="s">
         <v>448</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #08.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2308.pdf</v>
       </c>
       <c r="J10" t="s">
         <v>449</v>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #09.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2309.pdf</v>
       </c>
       <c r="J11" t="s">
         <v>450</v>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #10.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2310.pdf</v>
       </c>
       <c r="J12" t="s">
         <v>451</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #11.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2311.pdf</v>
       </c>
       <c r="J13" t="s">
         <v>452</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #12.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2312.pdf</v>
       </c>
       <c r="J14" t="s">
         <v>453</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #13.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2313.pdf</v>
       </c>
       <c r="J15" t="s">
         <v>454</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #14.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2314.pdf</v>
       </c>
       <c r="J16" t="s">
         <v>455</v>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #15.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2315.pdf</v>
       </c>
       <c r="J17" t="s">
         <v>456</v>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #16.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2316.pdf</v>
       </c>
       <c r="J18" t="s">
         <v>457</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #17.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2317.pdf</v>
       </c>
       <c r="J19" t="s">
         <v>458</v>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #18.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2318.pdf</v>
       </c>
       <c r="J20" t="s">
         <v>459</v>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #19.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2319.pdf</v>
       </c>
       <c r="J21" t="s">
         <v>460</v>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #20.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2320.pdf</v>
       </c>
       <c r="J22" t="s">
         <v>461</v>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #21.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2321.pdf</v>
       </c>
       <c r="J23" t="s">
         <v>462</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #22.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2322.pdf</v>
       </c>
       <c r="J24" t="s">
         <v>463</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #23.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2323.pdf</v>
       </c>
       <c r="J25" t="s">
         <v>464</v>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #24.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2324.pdf</v>
       </c>
       <c r="J26" t="s">
         <v>465</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #25.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2325.pdf</v>
       </c>
       <c r="J27" t="s">
         <v>466</v>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #26.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2326.pdf</v>
       </c>
       <c r="J28" t="s">
         <v>467</v>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #27.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2327.pdf</v>
       </c>
       <c r="J29" t="s">
         <v>468</v>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #28.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2328.pdf</v>
       </c>
       <c r="J30" t="s">
         <v>469</v>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #29.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2329.pdf</v>
       </c>
       <c r="J31" t="s">
         <v>470</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #30.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2330.pdf</v>
       </c>
       <c r="J32" t="s">
         <v>471</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #31.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2331.pdf</v>
       </c>
       <c r="J33" t="s">
         <v>472</v>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #32.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2332.pdf</v>
       </c>
       <c r="J34" t="s">
         <v>473</v>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #33.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2333.pdf</v>
       </c>
       <c r="J35" t="s">
         <v>474</v>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #34.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2334.pdf</v>
       </c>
       <c r="J36" t="s">
         <v>475</v>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #35.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2335.pdf</v>
       </c>
       <c r="J37" t="s">
         <v>476</v>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #36.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2336.pdf</v>
       </c>
       <c r="J38" t="s">
         <v>477</v>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #37.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2337.pdf</v>
       </c>
       <c r="J39" t="s">
         <v>478</v>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #38.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2338.pdf</v>
       </c>
       <c r="J40" t="s">
         <v>479</v>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #39.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2339.pdf</v>
       </c>
       <c r="J41" t="s">
         <v>480</v>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #40.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2340.pdf</v>
       </c>
       <c r="J42" t="s">
         <v>481</v>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #41.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2341.pdf</v>
       </c>
       <c r="J43" t="s">
         <v>482</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #42.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2342.pdf</v>
       </c>
       <c r="J44" t="s">
         <v>483</v>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #43.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2343.pdf</v>
       </c>
       <c r="J45" t="s">
         <v>484</v>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #44.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2344.pdf</v>
       </c>
       <c r="J46" t="s">
         <v>485</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #45.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2345.pdf</v>
       </c>
       <c r="J47" t="s">
         <v>486</v>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #46.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2346.pdf</v>
       </c>
       <c r="J48" t="s">
         <v>487</v>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #47.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2347.pdf</v>
       </c>
       <c r="J49" t="s">
         <v>488</v>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #48.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2348.pdf</v>
       </c>
       <c r="J50" t="s">
         <v>489</v>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #49.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2349.pdf</v>
       </c>
       <c r="J51" t="s">
         <v>490</v>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #50.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2350.pdf</v>
       </c>
       <c r="J52" t="s">
         <v>491</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #51.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2351.pdf</v>
       </c>
       <c r="J53" t="s">
         <v>492</v>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #52.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2352.pdf</v>
       </c>
       <c r="J54" t="s">
         <v>493</v>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #53.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2353.pdf</v>
       </c>
       <c r="J55" t="s">
         <v>494</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #54.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2354.pdf</v>
       </c>
       <c r="J56" t="s">
         <v>495</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #55.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2355.pdf</v>
       </c>
       <c r="J57" t="s">
         <v>496</v>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #56.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2356.pdf</v>
       </c>
       <c r="J58" t="s">
         <v>497</v>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #57.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2357.pdf</v>
       </c>
       <c r="J59" t="s">
         <v>498</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #58.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2358.pdf</v>
       </c>
       <c r="J60" t="s">
         <v>499</v>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #59.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2359.pdf</v>
       </c>
       <c r="J61" t="s">
         <v>500</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #60.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2360.pdf</v>
       </c>
       <c r="J62" t="s">
         <v>501</v>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #61.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2361.pdf</v>
       </c>
       <c r="J63" t="s">
         <v>502</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #62.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2362.pdf</v>
       </c>
       <c r="J64" t="s">
         <v>503</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #63.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2363.pdf</v>
       </c>
       <c r="J65" t="s">
         <v>504</v>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #64.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2364.pdf</v>
       </c>
       <c r="J66" t="s">
         <v>505</v>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="I67" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #65.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2365.pdf</v>
       </c>
       <c r="J67" t="s">
         <v>506</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
-        <v>NA128/PS #66.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2366.pdf</v>
       </c>
       <c r="J68" t="s">
         <v>507</v>
@@ -5232,8 +5232,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I132" si="2">_xlfn.CONCAT(J69,".pdf")</f>
-        <v>NA128/PS #67.pdf</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2367.pdf</v>
       </c>
       <c r="J69" t="s">
         <v>508</v>
@@ -5265,8 +5265,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="2"/>
-        <v>NA128/PS #68.pdf</v>
+        <f t="shared" ref="I70:I133" si="2">_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J70,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2368.pdf</v>
       </c>
       <c r="J70" t="s">
         <v>509</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #69.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2369.pdf</v>
       </c>
       <c r="J71" t="s">
         <v>510</v>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #70.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2370.pdf</v>
       </c>
       <c r="J72" t="s">
         <v>511</v>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #71.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2371.pdf</v>
       </c>
       <c r="J73" t="s">
         <v>512</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #72.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2372.pdf</v>
       </c>
       <c r="J74" t="s">
         <v>513</v>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #73.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2373.pdf</v>
       </c>
       <c r="J75" t="s">
         <v>514</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #74.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2374.pdf</v>
       </c>
       <c r="J76" t="s">
         <v>515</v>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I77" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #75.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2375.pdf</v>
       </c>
       <c r="J77" t="s">
         <v>516</v>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #76.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2376.pdf</v>
       </c>
       <c r="J78" t="s">
         <v>517</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #77.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2377.pdf</v>
       </c>
       <c r="J79" t="s">
         <v>518</v>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #78.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2378.pdf</v>
       </c>
       <c r="J80" t="s">
         <v>519</v>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #79.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2379.pdf</v>
       </c>
       <c r="J81" t="s">
         <v>520</v>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #80.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2380.pdf</v>
       </c>
       <c r="J82" t="s">
         <v>521</v>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #81.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2381.pdf</v>
       </c>
       <c r="J83" t="s">
         <v>522</v>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #82.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2382.pdf</v>
       </c>
       <c r="J84" t="s">
         <v>523</v>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #83.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2383.pdf</v>
       </c>
       <c r="J85" t="s">
         <v>524</v>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #84.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2384.pdf</v>
       </c>
       <c r="J86" t="s">
         <v>525</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #85.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2385.pdf</v>
       </c>
       <c r="J87" t="s">
         <v>526</v>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #86.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2386.pdf</v>
       </c>
       <c r="J88" t="s">
         <v>527</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #87.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2387.pdf</v>
       </c>
       <c r="J89" t="s">
         <v>528</v>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #88.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2388.pdf</v>
       </c>
       <c r="J90" t="s">
         <v>529</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #89.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2389.pdf</v>
       </c>
       <c r="J91" t="s">
         <v>530</v>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #90.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2390.pdf</v>
       </c>
       <c r="J92" t="s">
         <v>531</v>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #91.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2391.pdf</v>
       </c>
       <c r="J93" t="s">
         <v>532</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #92.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2392.pdf</v>
       </c>
       <c r="J94" t="s">
         <v>533</v>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #93.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2393.pdf</v>
       </c>
       <c r="J95" t="s">
         <v>534</v>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #94.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2394.pdf</v>
       </c>
       <c r="J96" t="s">
         <v>535</v>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="I97" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #95.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2395.pdf</v>
       </c>
       <c r="J97" t="s">
         <v>536</v>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="I98" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #96.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2396.pdf</v>
       </c>
       <c r="J98" t="s">
         <v>537</v>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="I99" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #97.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2397.pdf</v>
       </c>
       <c r="J99" t="s">
         <v>538</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="I100" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #98.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2398.pdf</v>
       </c>
       <c r="J100" t="s">
         <v>539</v>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #99.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%2399.pdf</v>
       </c>
       <c r="J101" t="s">
         <v>540</v>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="I102" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #100.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23100.pdf</v>
       </c>
       <c r="J102" t="s">
         <v>541</v>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="I103" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #101.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23101.pdf</v>
       </c>
       <c r="J103" t="s">
         <v>542</v>
@@ -6364,10 +6364,10 @@
       </c>
       <c r="I104" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #102.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23102.pdf</v>
       </c>
       <c r="J104" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6397,10 +6397,10 @@
       </c>
       <c r="I105" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #103.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23103.pdf</v>
       </c>
       <c r="J105" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6430,10 +6430,10 @@
       </c>
       <c r="I106" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #104.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23104.pdf</v>
       </c>
       <c r="J106" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="I107" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #105.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23105.pdf</v>
       </c>
       <c r="J107" t="s">
         <v>546</v>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="I108" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #106.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23106.pdf</v>
       </c>
       <c r="J108" t="s">
         <v>547</v>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="I109" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #107.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23107.pdf</v>
       </c>
       <c r="J109" t="s">
         <v>548</v>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="I110" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #108.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23108.pdf</v>
       </c>
       <c r="J110" t="s">
         <v>549</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="I111" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #109.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23109.pdf</v>
       </c>
       <c r="J111" t="s">
         <v>550</v>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="I112" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #110.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23110.pdf</v>
       </c>
       <c r="J112" t="s">
         <v>551</v>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="I113" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #111.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23111.pdf</v>
       </c>
       <c r="J113" t="s">
         <v>552</v>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="I114" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #112.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23112.pdf</v>
       </c>
       <c r="J114" t="s">
         <v>553</v>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="I115" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #113.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23113.pdf</v>
       </c>
       <c r="J115" t="s">
         <v>554</v>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="I116" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #114.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23114.pdf</v>
       </c>
       <c r="J116" t="s">
         <v>555</v>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I117" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #115.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23115.pdf</v>
       </c>
       <c r="J117" t="s">
         <v>556</v>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="I118" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #116.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23116.pdf</v>
       </c>
       <c r="J118" t="s">
         <v>557</v>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="I119" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #117.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23117.pdf</v>
       </c>
       <c r="J119" t="s">
         <v>558</v>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="I120" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #118.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23118.pdf</v>
       </c>
       <c r="J120" t="s">
         <v>559</v>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="I121" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #119.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23119.pdf</v>
       </c>
       <c r="J121" t="s">
         <v>560</v>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="I122" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #120.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23120.pdf</v>
       </c>
       <c r="J122" t="s">
         <v>561</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="I123" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #121.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23121.pdf</v>
       </c>
       <c r="J123" t="s">
         <v>562</v>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="I124" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #122.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23122.pdf</v>
       </c>
       <c r="J124" t="s">
         <v>563</v>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="I125" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #123.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23123.pdf</v>
       </c>
       <c r="J125" t="s">
         <v>564</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="I126" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #124.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23124.pdf</v>
       </c>
       <c r="J126" t="s">
         <v>565</v>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="I127" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #125.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23125.pdf</v>
       </c>
       <c r="J127" t="s">
         <v>566</v>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="I128" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #126.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23126.pdf</v>
       </c>
       <c r="J128" t="s">
         <v>567</v>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="I129" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #127.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23127.pdf</v>
       </c>
       <c r="J129" t="s">
         <v>568</v>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="I130" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #128.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23128.pdf</v>
       </c>
       <c r="J130" t="s">
         <v>569</v>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="I131" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #129.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23129.pdf</v>
       </c>
       <c r="J131" t="s">
         <v>570</v>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="I132" t="str">
         <f t="shared" si="2"/>
-        <v>NA128/PS #130.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23130.pdf</v>
       </c>
       <c r="J132" t="s">
         <v>571</v>
@@ -7320,8 +7320,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" ref="I133:I196" si="3">_xlfn.CONCAT(J133,".pdf")</f>
-        <v>NA128/PS #131.pdf</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23131.pdf</v>
       </c>
       <c r="J133" t="s">
         <v>572</v>
@@ -7353,8 +7353,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="3"/>
-        <v>NA128/PS #132.pdf</v>
+        <f t="shared" ref="I134:I197" si="3">_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J134,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23132.pdf</v>
       </c>
       <c r="J134" t="s">
         <v>573</v>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="I135" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #133.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23133.pdf</v>
       </c>
       <c r="J135" t="s">
         <v>574</v>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="I136" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #134.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23134.pdf</v>
       </c>
       <c r="J136" t="s">
         <v>575</v>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="I137" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #135.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23135.pdf</v>
       </c>
       <c r="J137" t="s">
         <v>576</v>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="I138" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #136.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23136.pdf</v>
       </c>
       <c r="J138" t="s">
         <v>577</v>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="I139" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #137.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23137.pdf</v>
       </c>
       <c r="J139" t="s">
         <v>578</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="I140" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #138.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23138.pdf</v>
       </c>
       <c r="J140" t="s">
         <v>579</v>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="I141" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #139.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23139.pdf</v>
       </c>
       <c r="J141" t="s">
         <v>580</v>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="I142" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #140.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23140.pdf</v>
       </c>
       <c r="J142" t="s">
         <v>581</v>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="I143" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #141.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23141.pdf</v>
       </c>
       <c r="J143" t="s">
         <v>582</v>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="I144" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #142.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23142.pdf</v>
       </c>
       <c r="J144" t="s">
         <v>583</v>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="I145" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #143.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23143.pdf</v>
       </c>
       <c r="J145" t="s">
         <v>584</v>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="I146" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #144.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23144.pdf</v>
       </c>
       <c r="J146" t="s">
         <v>585</v>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="I147" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #145.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23145.pdf</v>
       </c>
       <c r="J147" t="s">
         <v>586</v>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="I148" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #146.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23146.pdf</v>
       </c>
       <c r="J148" t="s">
         <v>587</v>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I149" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #147.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23147.pdf</v>
       </c>
       <c r="J149" t="s">
         <v>588</v>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="I150" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #148.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23148.pdf</v>
       </c>
       <c r="J150" t="s">
         <v>589</v>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="I151" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #149.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23149.pdf</v>
       </c>
       <c r="J151" t="s">
         <v>590</v>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="I152" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #150.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23150.pdf</v>
       </c>
       <c r="J152" t="s">
         <v>591</v>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="I153" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #151.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23151.pdf</v>
       </c>
       <c r="J153" t="s">
         <v>592</v>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="I154" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #152.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23152.pdf</v>
       </c>
       <c r="J154" t="s">
         <v>593</v>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="I155" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #153.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23153.pdf</v>
       </c>
       <c r="J155" t="s">
         <v>594</v>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="I156" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #154.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23154.pdf</v>
       </c>
       <c r="J156" t="s">
         <v>595</v>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="I157" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #155.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23155.pdf</v>
       </c>
       <c r="J157" t="s">
         <v>596</v>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="I158" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #156.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23156.pdf</v>
       </c>
       <c r="J158" t="s">
         <v>597</v>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="I159" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #157.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23157.pdf</v>
       </c>
       <c r="J159" t="s">
         <v>598</v>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="I160" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #158.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23158.pdf</v>
       </c>
       <c r="J160" t="s">
         <v>599</v>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="I161" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #159.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23159.pdf</v>
       </c>
       <c r="J161" t="s">
         <v>600</v>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="I162" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #160.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23160.pdf</v>
       </c>
       <c r="J162" t="s">
         <v>601</v>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="I163" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #161.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23161.pdf</v>
       </c>
       <c r="J163" t="s">
         <v>602</v>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="I164" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #162.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23162.pdf</v>
       </c>
       <c r="J164" t="s">
         <v>603</v>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I165" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #163.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23163.pdf</v>
       </c>
       <c r="J165" t="s">
         <v>604</v>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="I166" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #164.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23164.pdf</v>
       </c>
       <c r="J166" t="s">
         <v>605</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="I167" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #165.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23165.pdf</v>
       </c>
       <c r="J167" t="s">
         <v>606</v>
@@ -8468,7 +8468,7 @@
       </c>
       <c r="I168" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #166.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23166.pdf</v>
       </c>
       <c r="J168" t="s">
         <v>607</v>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="I169" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #167.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23167.pdf</v>
       </c>
       <c r="J169" t="s">
         <v>608</v>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="I170" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #168.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23168.pdf</v>
       </c>
       <c r="J170" t="s">
         <v>609</v>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="I171" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #169.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23169.pdf</v>
       </c>
       <c r="J171" t="s">
         <v>610</v>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="I172" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #170.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23170.pdf</v>
       </c>
       <c r="J172" t="s">
         <v>611</v>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="I173" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #171.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23171.pdf</v>
       </c>
       <c r="J173" t="s">
         <v>612</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="I174" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #172.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23172.pdf</v>
       </c>
       <c r="J174" t="s">
         <v>613</v>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="I175" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #173.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23173.pdf</v>
       </c>
       <c r="J175" t="s">
         <v>614</v>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="I176" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #174.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23174.pdf</v>
       </c>
       <c r="J176" t="s">
         <v>615</v>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I177" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #175.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23175.pdf</v>
       </c>
       <c r="J177" t="s">
         <v>616</v>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="I178" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #176.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23176.pdf</v>
       </c>
       <c r="J178" t="s">
         <v>617</v>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="I179" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #177.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23177.pdf</v>
       </c>
       <c r="J179" t="s">
         <v>618</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="I180" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #178.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23178.pdf</v>
       </c>
       <c r="J180" t="s">
         <v>619</v>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="I181" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #179.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23179.pdf</v>
       </c>
       <c r="J181" t="s">
         <v>620</v>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="I182" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #180.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23180.pdf</v>
       </c>
       <c r="J182" t="s">
         <v>621</v>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="I183" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #181.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23181.pdf</v>
       </c>
       <c r="J183" t="s">
         <v>622</v>
@@ -8976,7 +8976,7 @@
       </c>
       <c r="I184" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #182.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23182.pdf</v>
       </c>
       <c r="J184" t="s">
         <v>623</v>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="I185" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #183.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23183.pdf</v>
       </c>
       <c r="J185" t="s">
         <v>624</v>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="I186" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #184.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23184.pdf</v>
       </c>
       <c r="J186" t="s">
         <v>625</v>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="I187" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #185.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23185.pdf</v>
       </c>
       <c r="J187" t="s">
         <v>626</v>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="I188" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #186.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23186.pdf</v>
       </c>
       <c r="J188" t="s">
         <v>627</v>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I189" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #187.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23187.pdf</v>
       </c>
       <c r="J189" t="s">
         <v>628</v>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="I190" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #188.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23188.pdf</v>
       </c>
       <c r="J190" t="s">
         <v>629</v>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="I191" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #189.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23189.pdf</v>
       </c>
       <c r="J191" t="s">
         <v>630</v>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="I192" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #190.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23190.pdf</v>
       </c>
       <c r="J192" t="s">
         <v>631</v>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="I193" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #191.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23191.pdf</v>
       </c>
       <c r="J193" t="s">
         <v>632</v>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="I194" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #192.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23192.pdf</v>
       </c>
       <c r="J194" t="s">
         <v>633</v>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I195" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #193.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23193.pdf</v>
       </c>
       <c r="J195" t="s">
         <v>634</v>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="I196" t="str">
         <f t="shared" si="3"/>
-        <v>NA128/PS #194.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23194.pdf</v>
       </c>
       <c r="J196" t="s">
         <v>635</v>
@@ -9392,8 +9392,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" ref="I197:I260" si="4">_xlfn.CONCAT(J197,".pdf")</f>
-        <v>NA128/PS #195.pdf</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23195.pdf</v>
       </c>
       <c r="J197" t="s">
         <v>636</v>
@@ -9425,8 +9425,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="4"/>
-        <v>NA128/PS #196.pdf</v>
+        <f t="shared" ref="I198:I261" si="4">_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J198,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23196.pdf</v>
       </c>
       <c r="J198" t="s">
         <v>637</v>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="I199" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #197.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23197.pdf</v>
       </c>
       <c r="J199" t="s">
         <v>638</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="I200" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #198.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23198.pdf</v>
       </c>
       <c r="J200" t="s">
         <v>639</v>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I201" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #199.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23199.pdf</v>
       </c>
       <c r="J201" t="s">
         <v>640</v>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="I202" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #200.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23200.pdf</v>
       </c>
       <c r="J202" t="s">
         <v>641</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="I203" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #201.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23201.pdf</v>
       </c>
       <c r="J203" t="s">
         <v>642</v>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="I204" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #202.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23202.pdf</v>
       </c>
       <c r="J204" t="s">
         <v>643</v>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="I205" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #203.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23203.pdf</v>
       </c>
       <c r="J205" t="s">
         <v>644</v>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="I206" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #204.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23204.pdf</v>
       </c>
       <c r="J206" t="s">
         <v>645</v>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="I207" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #205.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23205.pdf</v>
       </c>
       <c r="J207" t="s">
         <v>646</v>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="I208" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #206.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23206.pdf</v>
       </c>
       <c r="J208" t="s">
         <v>647</v>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="I209" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #207.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23207.pdf</v>
       </c>
       <c r="J209" t="s">
         <v>648</v>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="I210" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #208.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23208.pdf</v>
       </c>
       <c r="J210" t="s">
         <v>649</v>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I211" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #209.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23209.pdf</v>
       </c>
       <c r="J211" t="s">
         <v>650</v>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="I212" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #210.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23210.pdf</v>
       </c>
       <c r="J212" t="s">
         <v>651</v>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="I213" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #211.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23211.pdf</v>
       </c>
       <c r="J213" t="s">
         <v>652</v>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="I214" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #212.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23212.pdf</v>
       </c>
       <c r="J214" t="s">
         <v>653</v>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="I215" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #213.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23213.pdf</v>
       </c>
       <c r="J215" t="s">
         <v>654</v>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="I216" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #214.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23214.pdf</v>
       </c>
       <c r="J216" t="s">
         <v>655</v>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I217" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #215.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23215.pdf</v>
       </c>
       <c r="J217" t="s">
         <v>656</v>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="I218" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #216.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23216.pdf</v>
       </c>
       <c r="J218" t="s">
         <v>657</v>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="I219" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #217.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23217.pdf</v>
       </c>
       <c r="J219" t="s">
         <v>658</v>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="I220" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #218.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23218.pdf</v>
       </c>
       <c r="J220" t="s">
         <v>659</v>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="I221" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #219.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23219.pdf</v>
       </c>
       <c r="J221" t="s">
         <v>660</v>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="I222" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #220.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23220.pdf</v>
       </c>
       <c r="J222" t="s">
         <v>661</v>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="I223" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #221.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23221.pdf</v>
       </c>
       <c r="J223" t="s">
         <v>662</v>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="I224" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #222.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23222.pdf</v>
       </c>
       <c r="J224" t="s">
         <v>663</v>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="I225" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #223.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23223.pdf</v>
       </c>
       <c r="J225" t="s">
         <v>664</v>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="I226" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #224.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23224.pdf</v>
       </c>
       <c r="J226" t="s">
         <v>665</v>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="I227" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #225.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23225.pdf</v>
       </c>
       <c r="J227" t="s">
         <v>666</v>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="I228" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #226.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23226.pdf</v>
       </c>
       <c r="J228" t="s">
         <v>667</v>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I229" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #227.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23227.pdf</v>
       </c>
       <c r="J229" t="s">
         <v>668</v>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="I230" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #228.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23228.pdf</v>
       </c>
       <c r="J230" t="s">
         <v>669</v>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="I231" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #229.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23229.pdf</v>
       </c>
       <c r="J231" t="s">
         <v>670</v>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="I232" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #230.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23230.pdf</v>
       </c>
       <c r="J232" t="s">
         <v>671</v>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="I233" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #231.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23231.pdf</v>
       </c>
       <c r="J233" t="s">
         <v>672</v>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="I234" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #232.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23232.pdf</v>
       </c>
       <c r="J234" t="s">
         <v>673</v>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="I235" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #233.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23233.pdf</v>
       </c>
       <c r="J235" t="s">
         <v>674</v>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="I236" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #234.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23234.pdf</v>
       </c>
       <c r="J236" t="s">
         <v>675</v>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="I237" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #235.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23235.pdf</v>
       </c>
       <c r="J237" t="s">
         <v>676</v>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="I238" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #236.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23236.pdf</v>
       </c>
       <c r="J238" t="s">
         <v>677</v>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="I239" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #237.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23237.pdf</v>
       </c>
       <c r="J239" t="s">
         <v>678</v>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="I240" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #238.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23238.pdf</v>
       </c>
       <c r="J240" t="s">
         <v>679</v>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="I241" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #239.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23239.pdf</v>
       </c>
       <c r="J241" t="s">
         <v>680</v>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="I242" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #240.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23240.pdf</v>
       </c>
       <c r="J242" t="s">
         <v>681</v>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="I243" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #241.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23241.pdf</v>
       </c>
       <c r="J243" t="s">
         <v>682</v>
@@ -10924,7 +10924,7 @@
       </c>
       <c r="I244" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #242.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23242.pdf</v>
       </c>
       <c r="J244" t="s">
         <v>683</v>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="I245" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #243.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23243.pdf</v>
       </c>
       <c r="J245" t="s">
         <v>684</v>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="I246" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #244.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23244.pdf</v>
       </c>
       <c r="J246" t="s">
         <v>685</v>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="I247" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #245.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23245.pdf</v>
       </c>
       <c r="J247" t="s">
         <v>686</v>
@@ -11052,7 +11052,7 @@
       </c>
       <c r="I248" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #246.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23246.pdf</v>
       </c>
       <c r="J248" t="s">
         <v>687</v>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="I249" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #247.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23247.pdf</v>
       </c>
       <c r="J249" t="s">
         <v>688</v>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="I250" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #248.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23248.pdf</v>
       </c>
       <c r="J250" t="s">
         <v>689</v>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="I251" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #249.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23249.pdf</v>
       </c>
       <c r="J251" t="s">
         <v>690</v>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="I252" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #250.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23250.pdf</v>
       </c>
       <c r="J252" t="s">
         <v>691</v>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="I253" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #251.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23251.pdf</v>
       </c>
       <c r="J253" t="s">
         <v>692</v>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="I254" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #252.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23252.pdf</v>
       </c>
       <c r="J254" t="s">
         <v>693</v>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="I255" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #253.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23253.pdf</v>
       </c>
       <c r="J255" t="s">
         <v>694</v>
@@ -11312,7 +11312,7 @@
       </c>
       <c r="I256" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #254.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23254.pdf</v>
       </c>
       <c r="J256" t="s">
         <v>695</v>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="I257" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #255.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23255.pdf</v>
       </c>
       <c r="J257" t="s">
         <v>696</v>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="I258" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #256.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23256.pdf</v>
       </c>
       <c r="J258" t="s">
         <v>697</v>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="I259" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #257.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23257.pdf</v>
       </c>
       <c r="J259" t="s">
         <v>698</v>
@@ -11444,7 +11444,7 @@
       </c>
       <c r="I260" t="str">
         <f t="shared" si="4"/>
-        <v>NA128/PS #258.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23258.pdf</v>
       </c>
       <c r="J260" t="s">
         <v>699</v>
@@ -11476,8 +11476,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="str">
-        <f t="shared" ref="I261:I324" si="5">_xlfn.CONCAT(J261,".pdf")</f>
-        <v>NA128/PS #259.pdf</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23259.pdf</v>
       </c>
       <c r="J261" t="s">
         <v>700</v>
@@ -11509,8 +11509,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="str">
-        <f t="shared" si="5"/>
-        <v>NA128/PS #260.pdf</v>
+        <f t="shared" ref="I262:I325" si="5">_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J262,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23260.pdf</v>
       </c>
       <c r="J262" t="s">
         <v>701</v>
@@ -11543,7 +11543,7 @@
       </c>
       <c r="I263" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #261.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23261.pdf</v>
       </c>
       <c r="J263" t="s">
         <v>702</v>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="I264" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #262.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23262.pdf</v>
       </c>
       <c r="J264" t="s">
         <v>703</v>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="I265" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #263.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23263.pdf</v>
       </c>
       <c r="J265" t="s">
         <v>704</v>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="I266" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #264.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23264.pdf</v>
       </c>
       <c r="J266" t="s">
         <v>705</v>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="I267" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #265.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23265.pdf</v>
       </c>
       <c r="J267" t="s">
         <v>706</v>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="I268" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #266.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23266.pdf</v>
       </c>
       <c r="J268" t="s">
         <v>707</v>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="I269" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #267.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23267.pdf</v>
       </c>
       <c r="J269" t="s">
         <v>708</v>
@@ -11774,7 +11774,7 @@
       </c>
       <c r="I270" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #268.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23268.pdf</v>
       </c>
       <c r="J270" t="s">
         <v>709</v>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="I271" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #269.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23269.pdf</v>
       </c>
       <c r="J271" t="s">
         <v>710</v>
@@ -11840,7 +11840,7 @@
       </c>
       <c r="I272" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #270.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23270.pdf</v>
       </c>
       <c r="J272" t="s">
         <v>711</v>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="I273" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #271.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23271.pdf</v>
       </c>
       <c r="J273" t="s">
         <v>712</v>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="I274" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #272.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23272.pdf</v>
       </c>
       <c r="J274" t="s">
         <v>713</v>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="I275" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #273.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23273.pdf</v>
       </c>
       <c r="J275" t="s">
         <v>714</v>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="I276" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #274.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23274.pdf</v>
       </c>
       <c r="J276" t="s">
         <v>715</v>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="I277" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #275.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23275.pdf</v>
       </c>
       <c r="J277" t="s">
         <v>716</v>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="I278" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #276.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23276.pdf</v>
       </c>
       <c r="J278" t="s">
         <v>717</v>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="I279" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #277.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23277.pdf</v>
       </c>
       <c r="J279" t="s">
         <v>718</v>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="I280" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #278.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23278.pdf</v>
       </c>
       <c r="J280" t="s">
         <v>719</v>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="I281" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #279.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23279.pdf</v>
       </c>
       <c r="J281" t="s">
         <v>720</v>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="I282" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #280.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23280.pdf</v>
       </c>
       <c r="J282" t="s">
         <v>721</v>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="I283" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #281.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23281.pdf</v>
       </c>
       <c r="J283" t="s">
         <v>722</v>
@@ -12232,7 +12232,7 @@
       </c>
       <c r="I284" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #282.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23282.pdf</v>
       </c>
       <c r="J284" t="s">
         <v>723</v>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I285" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #283.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23283.pdf</v>
       </c>
       <c r="J285" t="s">
         <v>724</v>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="I286" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #284.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23284.pdf</v>
       </c>
       <c r="J286" t="s">
         <v>725</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="I287" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #285.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23285.pdf</v>
       </c>
       <c r="J287" t="s">
         <v>726</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="I288" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #286.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23286.pdf</v>
       </c>
       <c r="J288" t="s">
         <v>727</v>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="I289" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #287.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23287.pdf</v>
       </c>
       <c r="J289" t="s">
         <v>728</v>
@@ -12426,7 +12426,7 @@
       </c>
       <c r="I290" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #288.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23288.pdf</v>
       </c>
       <c r="J290" t="s">
         <v>729</v>
@@ -12459,7 +12459,7 @@
       </c>
       <c r="I291" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #289.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23289.pdf</v>
       </c>
       <c r="J291" t="s">
         <v>730</v>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="I292" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #290.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23290.pdf</v>
       </c>
       <c r="J292" t="s">
         <v>731</v>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="I293" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #291.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23291.pdf</v>
       </c>
       <c r="J293" t="s">
         <v>732</v>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="I294" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #292.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23292.pdf</v>
       </c>
       <c r="J294" t="s">
         <v>733</v>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="I295" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #293.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23293.pdf</v>
       </c>
       <c r="J295" t="s">
         <v>734</v>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="I296" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #294.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23294.pdf</v>
       </c>
       <c r="J296" t="s">
         <v>735</v>
@@ -12657,7 +12657,7 @@
       </c>
       <c r="I297" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #295.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23295.pdf</v>
       </c>
       <c r="J297" t="s">
         <v>736</v>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="I298" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #296.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23296.pdf</v>
       </c>
       <c r="J298" t="s">
         <v>737</v>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="I299" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #297.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23297.pdf</v>
       </c>
       <c r="J299" t="s">
         <v>738</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="I300" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #298.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23298.pdf</v>
       </c>
       <c r="J300" t="s">
         <v>739</v>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I301" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #299.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23299.pdf</v>
       </c>
       <c r="J301" t="s">
         <v>740</v>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="I302" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #300.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23300.pdf</v>
       </c>
       <c r="J302" t="s">
         <v>741</v>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="I303" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #301.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23301.pdf</v>
       </c>
       <c r="J303" t="s">
         <v>742</v>
@@ -12888,7 +12888,7 @@
       </c>
       <c r="I304" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #302.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23302.pdf</v>
       </c>
       <c r="J304" t="s">
         <v>743</v>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="I305" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #303.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23303.pdf</v>
       </c>
       <c r="J305" t="s">
         <v>744</v>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="I306" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #304.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23304.pdf</v>
       </c>
       <c r="J306" t="s">
         <v>745</v>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="I307" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #305.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23305.pdf</v>
       </c>
       <c r="J307" t="s">
         <v>746</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="I308" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #306.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23306.pdf</v>
       </c>
       <c r="J308" t="s">
         <v>747</v>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="I309" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #307.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23307.pdf</v>
       </c>
       <c r="J309" t="s">
         <v>748</v>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="I310" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #308.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23308.pdf</v>
       </c>
       <c r="J310" t="s">
         <v>749</v>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="I311" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #309.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23309.pdf</v>
       </c>
       <c r="J311" t="s">
         <v>750</v>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="I312" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #310.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23310.pdf</v>
       </c>
       <c r="J312" t="s">
         <v>751</v>
@@ -13185,7 +13185,7 @@
       </c>
       <c r="I313" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #311.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23311.pdf</v>
       </c>
       <c r="J313" t="s">
         <v>752</v>
@@ -13214,7 +13214,7 @@
       </c>
       <c r="I314" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #312.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23312.pdf</v>
       </c>
       <c r="J314" t="s">
         <v>753</v>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="I315" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #313.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23313.pdf</v>
       </c>
       <c r="J315" t="s">
         <v>754</v>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="I316" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #314.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23314.pdf</v>
       </c>
       <c r="J316" t="s">
         <v>755</v>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="I317" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #315.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23315.pdf</v>
       </c>
       <c r="J317" t="s">
         <v>756</v>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="I318" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #316.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23316.pdf</v>
       </c>
       <c r="J318" t="s">
         <v>757</v>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="I319" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #317.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23317.pdf</v>
       </c>
       <c r="J319" t="s">
         <v>758</v>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="I320" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #318.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23318.pdf</v>
       </c>
       <c r="J320" t="s">
         <v>759</v>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I321" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #319.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23319.pdf</v>
       </c>
       <c r="J321" t="s">
         <v>760</v>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="I322" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #320.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23320.pdf</v>
       </c>
       <c r="J322" t="s">
         <v>761</v>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="I323" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #321.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23321.pdf</v>
       </c>
       <c r="J323" t="s">
         <v>762</v>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="I324" t="str">
         <f t="shared" si="5"/>
-        <v>NA128/PS #322.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23322.pdf</v>
       </c>
       <c r="J324" t="s">
         <v>763</v>
@@ -13576,8 +13576,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="str">
-        <f t="shared" ref="I325:I388" si="6">_xlfn.CONCAT(J325,".pdf")</f>
-        <v>NA128/PS #323.pdf</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23323.pdf</v>
       </c>
       <c r="J325" t="s">
         <v>764</v>
@@ -13609,8 +13609,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="str">
-        <f t="shared" si="6"/>
-        <v>NA128/PS #324.pdf</v>
+        <f t="shared" ref="I326:I389" si="6">_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J326,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23324.pdf</v>
       </c>
       <c r="J326" t="s">
         <v>765</v>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="I327" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #325.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23325.pdf</v>
       </c>
       <c r="J327" t="s">
         <v>766</v>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="I328" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #326.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23326.pdf</v>
       </c>
       <c r="J328" t="s">
         <v>767</v>
@@ -13709,7 +13709,7 @@
       </c>
       <c r="I329" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #327.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23327.pdf</v>
       </c>
       <c r="J329" t="s">
         <v>768</v>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="I330" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #328.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23328.pdf</v>
       </c>
       <c r="J330" t="s">
         <v>769</v>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="I331" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #329.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23329.pdf</v>
       </c>
       <c r="J331" t="s">
         <v>770</v>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="I332" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #330.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23330.pdf</v>
       </c>
       <c r="J332" t="s">
         <v>771</v>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="I333" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #331.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23331.pdf</v>
       </c>
       <c r="J333" t="s">
         <v>772</v>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="I334" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #332.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23332.pdf</v>
       </c>
       <c r="J334" t="s">
         <v>773</v>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="I335" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #333.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23333.pdf</v>
       </c>
       <c r="J335" t="s">
         <v>774</v>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="I336" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #334.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23334.pdf</v>
       </c>
       <c r="J336" t="s">
         <v>775</v>
@@ -13969,7 +13969,7 @@
       </c>
       <c r="I337" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #335.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23335.pdf</v>
       </c>
       <c r="J337" t="s">
         <v>776</v>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="I338" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #336.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23336.pdf</v>
       </c>
       <c r="J338" t="s">
         <v>777</v>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="I339" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #337.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23337.pdf</v>
       </c>
       <c r="J339" t="s">
         <v>778</v>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="I340" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #338.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23338.pdf</v>
       </c>
       <c r="J340" t="s">
         <v>779</v>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="I341" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #339.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23339.pdf</v>
       </c>
       <c r="J341" t="s">
         <v>780</v>
@@ -14134,7 +14134,7 @@
       </c>
       <c r="I342" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #340.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23340.pdf</v>
       </c>
       <c r="J342" t="s">
         <v>781</v>
@@ -14167,7 +14167,7 @@
       </c>
       <c r="I343" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #341.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23341.pdf</v>
       </c>
       <c r="J343" t="s">
         <v>782</v>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="I344" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #342.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23342.pdf</v>
       </c>
       <c r="J344" t="s">
         <v>783</v>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="I345" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #343.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23343.pdf</v>
       </c>
       <c r="J345" t="s">
         <v>784</v>
@@ -14262,7 +14262,7 @@
       </c>
       <c r="I346" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #344.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23344.pdf</v>
       </c>
       <c r="J346" t="s">
         <v>785</v>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="I347" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #345.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23345.pdf</v>
       </c>
       <c r="J347" t="s">
         <v>786</v>
@@ -14328,7 +14328,7 @@
       </c>
       <c r="I348" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #346.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23346.pdf</v>
       </c>
       <c r="J348" t="s">
         <v>787</v>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="I349" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #347.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23347.pdf</v>
       </c>
       <c r="J349" t="s">
         <v>788</v>
@@ -14394,7 +14394,7 @@
       </c>
       <c r="I350" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #348.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23348.pdf</v>
       </c>
       <c r="J350" t="s">
         <v>789</v>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="I351" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #349.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23349.pdf</v>
       </c>
       <c r="J351" t="s">
         <v>790</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="I352" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #350.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23350.pdf</v>
       </c>
       <c r="J352" t="s">
         <v>791</v>
@@ -14493,7 +14493,7 @@
       </c>
       <c r="I353" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #351.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23351.pdf</v>
       </c>
       <c r="J353" t="s">
         <v>792</v>
@@ -14526,7 +14526,7 @@
       </c>
       <c r="I354" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #352.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23352.pdf</v>
       </c>
       <c r="J354" t="s">
         <v>793</v>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="I355" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #353.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23353.pdf</v>
       </c>
       <c r="J355" t="s">
         <v>794</v>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="I356" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #354.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23354.pdf</v>
       </c>
       <c r="J356" t="s">
         <v>795</v>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="I357" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #355.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23355.pdf</v>
       </c>
       <c r="J357" t="s">
         <v>796</v>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="I358" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #356.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23356.pdf</v>
       </c>
       <c r="J358" t="s">
         <v>797</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="I359" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #357.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23357.pdf</v>
       </c>
       <c r="J359" t="s">
         <v>798</v>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="I360" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #358.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23358.pdf</v>
       </c>
       <c r="J360" t="s">
         <v>799</v>
@@ -14749,7 +14749,7 @@
       </c>
       <c r="I361" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #359.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23359.pdf</v>
       </c>
       <c r="J361" t="s">
         <v>800</v>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="I362" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #360.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23360.pdf</v>
       </c>
       <c r="J362" t="s">
         <v>801</v>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="I363" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #361.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23361.pdf</v>
       </c>
       <c r="J363" t="s">
         <v>802</v>
@@ -14848,7 +14848,7 @@
       </c>
       <c r="I364" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #362.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23362.pdf</v>
       </c>
       <c r="J364" t="s">
         <v>803</v>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="I365" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #363.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23363.pdf</v>
       </c>
       <c r="J365" t="s">
         <v>804</v>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="I366" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #364.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23364.pdf</v>
       </c>
       <c r="J366" t="s">
         <v>805</v>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="I367" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #365.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23365.pdf</v>
       </c>
       <c r="J367" t="s">
         <v>806</v>
@@ -14980,7 +14980,7 @@
       </c>
       <c r="I368" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #366.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23366.pdf</v>
       </c>
       <c r="J368" t="s">
         <v>807</v>
@@ -15013,7 +15013,7 @@
       </c>
       <c r="I369" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #367.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23367.pdf</v>
       </c>
       <c r="J369" t="s">
         <v>808</v>
@@ -15046,7 +15046,7 @@
       </c>
       <c r="I370" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #368.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23368.pdf</v>
       </c>
       <c r="J370" t="s">
         <v>809</v>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="I371" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #369.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23369.pdf</v>
       </c>
       <c r="J371" t="s">
         <v>810</v>
@@ -15112,7 +15112,7 @@
       </c>
       <c r="I372" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #370.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23370.pdf</v>
       </c>
       <c r="J372" t="s">
         <v>811</v>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I373" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #371.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23371.pdf</v>
       </c>
       <c r="J373" t="s">
         <v>812</v>
@@ -15174,7 +15174,7 @@
       </c>
       <c r="I374" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #372.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23372.pdf</v>
       </c>
       <c r="J374" t="s">
         <v>813</v>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="I375" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #373.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23373.pdf</v>
       </c>
       <c r="J375" t="s">
         <v>814</v>
@@ -15240,7 +15240,7 @@
       </c>
       <c r="I376" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #374.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23374.pdf</v>
       </c>
       <c r="J376" t="s">
         <v>815</v>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="I377" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #375.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23375.pdf</v>
       </c>
       <c r="J377" t="s">
         <v>816</v>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="I378" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #376.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23376.pdf</v>
       </c>
       <c r="J378" t="s">
         <v>817</v>
@@ -15339,7 +15339,7 @@
       </c>
       <c r="I379" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #377.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23377.pdf</v>
       </c>
       <c r="J379" t="s">
         <v>818</v>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="I380" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #378.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23378.pdf</v>
       </c>
       <c r="J380" t="s">
         <v>819</v>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="I381" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #379.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23379.pdf</v>
       </c>
       <c r="J381" t="s">
         <v>820</v>
@@ -15434,7 +15434,7 @@
       </c>
       <c r="I382" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #380.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23380.pdf</v>
       </c>
       <c r="J382" t="s">
         <v>821</v>
@@ -15467,7 +15467,7 @@
       </c>
       <c r="I383" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #381.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23381.pdf</v>
       </c>
       <c r="J383" t="s">
         <v>822</v>
@@ -15500,7 +15500,7 @@
       </c>
       <c r="I384" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #382.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23382.pdf</v>
       </c>
       <c r="J384" t="s">
         <v>823</v>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="I385" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #383.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23383.pdf</v>
       </c>
       <c r="J385" t="s">
         <v>824</v>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="I386" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #384.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23384.pdf</v>
       </c>
       <c r="J386" t="s">
         <v>825</v>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="I387" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #385.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23385.pdf</v>
       </c>
       <c r="J387" t="s">
         <v>826</v>
@@ -15632,7 +15632,7 @@
       </c>
       <c r="I388" t="str">
         <f t="shared" si="6"/>
-        <v>NA128/PS #386.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23386.pdf</v>
       </c>
       <c r="J388" t="s">
         <v>827</v>
@@ -15664,8 +15664,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="str">
-        <f t="shared" ref="I389:I435" si="7">_xlfn.CONCAT(J389,".pdf")</f>
-        <v>NA128/PS #387.pdf</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23387.pdf</v>
       </c>
       <c r="J389" t="s">
         <v>828</v>
@@ -15697,8 +15697,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="str">
-        <f t="shared" si="7"/>
-        <v>NA128/PS #388.pdf</v>
+        <f t="shared" ref="I390:I435" si="7">_xlfn.CONCAT(" https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/"&amp;J390,".pdf")</f>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23388.pdf</v>
       </c>
       <c r="J390" t="s">
         <v>829</v>
@@ -15731,7 +15731,7 @@
       </c>
       <c r="I391" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #389.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23389.pdf</v>
       </c>
       <c r="J391" t="s">
         <v>830</v>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="I392" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #390.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23390.pdf</v>
       </c>
       <c r="J392" t="s">
         <v>831</v>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="I393" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #391.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23391.pdf</v>
       </c>
       <c r="J393" t="s">
         <v>832</v>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="I394" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #392.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23392.pdf</v>
       </c>
       <c r="J394" t="s">
         <v>833</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="I395" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #393.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23393.pdf</v>
       </c>
       <c r="J395" t="s">
         <v>834</v>
@@ -15896,7 +15896,7 @@
       </c>
       <c r="I396" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #394.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23394.pdf</v>
       </c>
       <c r="J396" t="s">
         <v>835</v>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="I397" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #395.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23395.pdf</v>
       </c>
       <c r="J397" t="s">
         <v>836</v>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="I398" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #396.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23396.pdf</v>
       </c>
       <c r="J398" t="s">
         <v>837</v>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="I399" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #397.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23397.pdf</v>
       </c>
       <c r="J399" t="s">
         <v>838</v>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I400" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #398.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23398.pdf</v>
       </c>
       <c r="J400" t="s">
         <v>839</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I401" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #399.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23399.pdf</v>
       </c>
       <c r="J401" t="s">
         <v>840</v>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="I402" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #400.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23400.pdf</v>
       </c>
       <c r="J402" t="s">
         <v>841</v>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="I403" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #401.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23401.pdf</v>
       </c>
       <c r="J403" t="s">
         <v>842</v>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="I404" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #402.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23402.pdf</v>
       </c>
       <c r="J404" t="s">
         <v>843</v>
@@ -16185,7 +16185,7 @@
       </c>
       <c r="I405" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #403.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23403.pdf</v>
       </c>
       <c r="J405" t="s">
         <v>844</v>
@@ -16218,7 +16218,7 @@
       </c>
       <c r="I406" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #404.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23404.pdf</v>
       </c>
       <c r="J406" t="s">
         <v>845</v>
@@ -16247,7 +16247,7 @@
       </c>
       <c r="I407" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #405.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23405.pdf</v>
       </c>
       <c r="J407" t="s">
         <v>846</v>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="I408" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #406.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23406.pdf</v>
       </c>
       <c r="J408" t="s">
         <v>847</v>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="I409" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #407.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23407.pdf</v>
       </c>
       <c r="J409" t="s">
         <v>848</v>
@@ -16346,7 +16346,7 @@
       </c>
       <c r="I410" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #408.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23408.pdf</v>
       </c>
       <c r="J410" t="s">
         <v>849</v>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="I411" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #409.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23409.pdf</v>
       </c>
       <c r="J411" t="s">
         <v>850</v>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="I412" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #410.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23410.pdf</v>
       </c>
       <c r="J412" t="s">
         <v>851</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="I413" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #411.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23411.pdf</v>
       </c>
       <c r="J413" t="s">
         <v>852</v>
@@ -16478,7 +16478,7 @@
       </c>
       <c r="I414" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #412.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23412.pdf</v>
       </c>
       <c r="J414" t="s">
         <v>853</v>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="I415" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #413.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23413.pdf</v>
       </c>
       <c r="J415" t="s">
         <v>854</v>
@@ -16544,7 +16544,7 @@
       </c>
       <c r="I416" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #414.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23414.pdf</v>
       </c>
       <c r="J416" t="s">
         <v>855</v>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I417" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #415.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23415.pdf</v>
       </c>
       <c r="J417" t="s">
         <v>856</v>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="I418" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #416.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23416.pdf</v>
       </c>
       <c r="J418" t="s">
         <v>857</v>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="I419" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #417.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23417.pdf</v>
       </c>
       <c r="J419" t="s">
         <v>858</v>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="I420" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #418.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23418.pdf</v>
       </c>
       <c r="J420" t="s">
         <v>859</v>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="I421" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #419.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23419.pdf</v>
       </c>
       <c r="J421" t="s">
         <v>860</v>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="I422" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #420.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23420.pdf</v>
       </c>
       <c r="J422" t="s">
         <v>861</v>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="I423" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #421.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23421.pdf</v>
       </c>
       <c r="J423" t="s">
         <v>862</v>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="I424" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #422.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23422.pdf</v>
       </c>
       <c r="J424" t="s">
         <v>863</v>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="I425" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #423.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23423.pdf</v>
       </c>
       <c r="J425" t="s">
         <v>864</v>
@@ -16874,7 +16874,7 @@
       </c>
       <c r="I426" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #424.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23424.pdf</v>
       </c>
       <c r="J426" t="s">
         <v>865</v>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="I427" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #425.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23425.pdf</v>
       </c>
       <c r="J427" t="s">
         <v>866</v>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="I428" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #426.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23426.pdf</v>
       </c>
       <c r="J428" t="s">
         <v>867</v>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="I429" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #427.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23427.pdf</v>
       </c>
       <c r="J429" t="s">
         <v>868</v>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="I430" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #428.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23428.pdf</v>
       </c>
       <c r="J430" t="s">
         <v>869</v>
@@ -17039,7 +17039,7 @@
       </c>
       <c r="I431" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #429.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23429.pdf</v>
       </c>
       <c r="J431" t="s">
         <v>870</v>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="I432" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #430.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23430.pdf</v>
       </c>
       <c r="J432" t="s">
         <v>871</v>
@@ -17105,7 +17105,7 @@
       </c>
       <c r="I433" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #431.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23431.pdf</v>
       </c>
       <c r="J433" t="s">
         <v>872</v>
@@ -17138,7 +17138,7 @@
       </c>
       <c r="I434" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #432.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23432.pdf</v>
       </c>
       <c r="J434" t="s">
         <v>873</v>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="I435" t="str">
         <f t="shared" si="7"/>
-        <v>NA128/PS #433.pdf</v>
+        <v xml:space="preserve"> https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA128/Form%2045s/PS%20%23433.pdf</v>
       </c>
       <c r="J435" t="s">
         <v>874</v>
